--- a/Data/Zones.xlsx
+++ b/Data/Zones.xlsx
@@ -1034,11 +1034,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1683,7 +1684,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1834,9 +1832,6 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1844,164 +1839,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,117 +1877,243 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="17" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="29" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="29" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2141,155 +2121,93 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="13" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -2669,20 +2587,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -2722,14 +2640,14 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3" s="67">
         <v>47946073.289999999</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="116">
+      <c r="D3" s="67">
         <v>5739203</v>
       </c>
-      <c r="E3" s="116">
+      <c r="E3" s="67">
         <v>380108</v>
       </c>
       <c r="F3" s="5">
@@ -2754,9 +2672,9 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="117"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="118">
+      <c r="E4" s="69">
         <v>39853474.85093417</v>
       </c>
       <c r="F4" s="5">
@@ -2813,10 +2731,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="119">
+      <c r="C6" s="70">
         <v>8583126.4199999999</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="70">
         <v>8843221.1600000001</v>
       </c>
       <c r="E6" s="1">
@@ -2843,7 +2761,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="14">
         <v>4712457.1476300005</v>
       </c>
@@ -2999,7 +2917,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="120">
+      <c r="E12" s="71">
         <v>10018580</v>
       </c>
       <c r="F12" s="20">
@@ -3715,7 +3633,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="121">
+      <c r="E38" s="72">
         <v>6956.2101238099995</v>
       </c>
       <c r="F38" s="22">
@@ -3729,7 +3647,7 @@
       <c r="J38" s="16">
         <v>0.2</v>
       </c>
-      <c r="K38" s="122" t="s">
+      <c r="K38" s="73" t="s">
         <v>70</v>
       </c>
       <c r="L38" s="2"/>
@@ -3835,7 +3753,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="59" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3">
@@ -3883,7 +3801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3892,11 +3810,12 @@
     <col min="2" max="2" width="20" style="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="42"/>
     <col min="4" max="4" width="22" style="42" customWidth="1"/>
-    <col min="5" max="7" width="40.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="211" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="211" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="211" customWidth="1"/>
-    <col min="11" max="11" width="37.44140625" style="212" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" customWidth="1"/>
+    <col min="6" max="7" width="40.44140625" style="178" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="106" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="106" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="106" customWidth="1"/>
+    <col min="11" max="11" width="37.44140625" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -3915,33 +3834,33 @@
       <c r="E1" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="156" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="156" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="169" t="s">
+      <c r="H1" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="169" t="s">
+      <c r="I1" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="169" t="s">
+      <c r="J1" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="170" t="s">
+      <c r="K1" s="77" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="127" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -3950,58 +3869,58 @@
       <c r="E2" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="157">
         <v>27073</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="157">
         <v>33045</v>
       </c>
-      <c r="H2" s="171" t="s">
+      <c r="H2" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="171" t="s">
+      <c r="I2" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K2" s="172" t="s">
+      <c r="J2" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="79" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="149"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="133"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="13" t="s">
         <v>97</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="157">
         <v>27073</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="157">
         <v>33045</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="171" t="s">
+      <c r="I3" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J3" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K3" s="172" t="s">
+      <c r="J3" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="149"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="132" t="s">
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="127" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -4010,58 +3929,58 @@
       <c r="E4" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="157">
         <v>33922</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="157">
         <v>37575</v>
       </c>
-      <c r="H4" s="171" t="s">
+      <c r="H4" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="171" t="s">
+      <c r="I4" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J4" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="171" t="s">
+      <c r="J4" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="78" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="133"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="128"/>
       <c r="D5" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="157">
         <v>33045</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="157">
         <v>37575</v>
       </c>
-      <c r="H5" s="171" t="s">
+      <c r="H5" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="171" t="s">
+      <c r="I5" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J5" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K5" s="171" t="s">
+      <c r="J5" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="78" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="149"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="150" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="139" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="39" t="s">
@@ -4070,55 +3989,55 @@
       <c r="E6" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="157">
         <v>37561</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="171" t="s">
+      <c r="G6" s="157"/>
+      <c r="H6" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="171" t="s">
+      <c r="I6" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K6" s="172" t="s">
+      <c r="J6" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="151"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="39" t="s">
         <v>102</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="157">
         <v>37591</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="171" t="s">
+      <c r="G7" s="157"/>
+      <c r="H7" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="171" t="s">
+      <c r="I7" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K7" s="172" t="s">
+      <c r="J7" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="129" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -4130,28 +4049,28 @@
       <c r="E8" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="158">
         <v>27089</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="158">
         <v>35765</v>
       </c>
-      <c r="H8" s="173" t="s">
+      <c r="H8" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="I8" s="173" t="s">
+      <c r="I8" s="80" t="s">
         <v>264</v>
       </c>
-      <c r="J8" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="174" t="s">
+      <c r="J8" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="81" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="130"/>
       <c r="C9" s="30" t="s">
         <v>3</v>
       </c>
@@ -4161,28 +4080,28 @@
       <c r="E9" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="158">
         <v>35765</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="158">
         <v>35765</v>
       </c>
-      <c r="H9" s="173" t="s">
+      <c r="H9" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="173" t="s">
+      <c r="I9" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="J9" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="K9" s="175" t="s">
+      <c r="J9" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="82" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="135"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="130"/>
       <c r="C10" s="30" t="s">
         <v>3</v>
       </c>
@@ -4192,28 +4111,28 @@
       <c r="E10" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="158">
         <v>35916</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="158">
         <v>43221</v>
       </c>
-      <c r="H10" s="173" t="s">
+      <c r="H10" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="I10" s="173" t="s">
+      <c r="I10" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="174" t="s">
+      <c r="J10" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="81" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="130"/>
       <c r="C11" s="30" t="s">
         <v>2</v>
       </c>
@@ -4223,28 +4142,28 @@
       <c r="E11" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="158">
         <v>35886</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="158">
         <v>35927</v>
       </c>
-      <c r="H11" s="173" t="s">
+      <c r="H11" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="I11" s="173" t="s">
+      <c r="I11" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="J11" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="K11" s="175" t="s">
+      <c r="J11" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="82" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="135"/>
-      <c r="B12" s="135"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="30" t="s">
         <v>2</v>
       </c>
@@ -4254,29 +4173,29 @@
       <c r="E12" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="158">
         <v>35886</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="158">
         <v>35927</v>
       </c>
-      <c r="H12" s="173" t="s">
+      <c r="H12" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="I12" s="173" t="s">
+      <c r="I12" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="174" t="s">
+      <c r="J12" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="81" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="135"/>
-      <c r="B13" s="135"/>
-      <c r="C13" s="147" t="s">
+      <c r="A13" s="130"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="141" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="30" t="s">
@@ -4285,53 +4204,53 @@
       <c r="E13" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="158">
         <v>35916</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="158">
         <v>35927</v>
       </c>
-      <c r="H13" s="173" t="s">
+      <c r="H13" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="I13" s="173" t="s">
+      <c r="I13" s="80" t="s">
         <v>263</v>
       </c>
-      <c r="J13" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="174" t="s">
+      <c r="J13" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="81" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
-      <c r="B14" s="135"/>
-      <c r="C14" s="148"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="142"/>
       <c r="D14" s="28" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="173" t="s">
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="I14" s="173" t="s">
+      <c r="I14" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="K14" s="174" t="s">
+      <c r="J14" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="81" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="136"/>
-      <c r="B15" s="136"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="30" t="s">
         <v>1</v>
       </c>
@@ -4341,26 +4260,26 @@
       <c r="E15" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="173" t="s">
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="80" t="s">
         <v>225</v>
       </c>
-      <c r="I15" s="173" t="s">
+      <c r="I15" s="80" t="s">
         <v>243</v>
       </c>
-      <c r="J15" s="173" t="s">
-        <v>265</v>
-      </c>
-      <c r="K15" s="174" t="s">
+      <c r="J15" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="K15" s="81" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="124" t="s">
         <v>98</v>
       </c>
       <c r="C16" s="32" t="s">
@@ -4372,28 +4291,28 @@
       <c r="E16" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="109">
+      <c r="F16" s="159">
         <v>27181</v>
       </c>
-      <c r="G16" s="109">
+      <c r="G16" s="159">
         <v>35735</v>
       </c>
-      <c r="H16" s="176" t="s">
+      <c r="H16" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="176" t="s">
+      <c r="I16" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J16" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K16" s="177" t="s">
+      <c r="J16" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="84" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="125"/>
       <c r="C17" s="32" t="s">
         <v>3</v>
       </c>
@@ -4403,28 +4322,28 @@
       <c r="E17" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="109">
+      <c r="F17" s="159">
         <v>35735</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="159">
         <v>41548</v>
       </c>
-      <c r="H17" s="176" t="s">
+      <c r="H17" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="I17" s="176" t="s">
+      <c r="I17" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="J17" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K17" s="176" t="s">
+      <c r="J17" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="83" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="131"/>
-      <c r="B18" s="131"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="32" t="s">
         <v>1</v>
       </c>
@@ -4434,28 +4353,28 @@
       <c r="E18" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F18" s="109">
+      <c r="F18" s="159">
         <v>41548</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="171" t="s">
+      <c r="G18" s="159"/>
+      <c r="H18" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="171" t="s">
+      <c r="I18" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J18" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K18" s="177" t="s">
+      <c r="J18" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="84" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="127" t="s">
         <v>98</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -4467,28 +4386,28 @@
       <c r="E19" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="160">
         <v>27257</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="160">
         <v>37967</v>
       </c>
-      <c r="H19" s="171" t="s">
+      <c r="H19" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I19" s="171" t="s">
+      <c r="I19" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J19" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K19" s="172" t="s">
+      <c r="J19" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K19" s="79" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="149"/>
-      <c r="B20" s="149"/>
+      <c r="A20" s="132"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="13" t="s">
         <v>2</v>
       </c>
@@ -4498,26 +4417,26 @@
       <c r="E20" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="160">
         <v>27288</v>
       </c>
-      <c r="G20" s="66"/>
-      <c r="H20" s="171" t="s">
+      <c r="G20" s="160"/>
+      <c r="H20" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="171" t="s">
+      <c r="I20" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J20" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K20" s="172" t="s">
+      <c r="J20" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="79" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="149"/>
-      <c r="B21" s="149"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="13" t="s">
         <v>4</v>
       </c>
@@ -4527,26 +4446,26 @@
       <c r="E21" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="160">
         <v>27318</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="171" t="s">
+      <c r="G21" s="160"/>
+      <c r="H21" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I21" s="171" t="s">
+      <c r="I21" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J21" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K21" s="172" t="s">
+      <c r="J21" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="149"/>
-      <c r="B22" s="149"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="13" t="s">
         <v>4</v>
       </c>
@@ -4556,26 +4475,26 @@
       <c r="E22" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="160">
         <v>27349</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="171" t="s">
+      <c r="G22" s="160"/>
+      <c r="H22" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I22" s="171" t="s">
+      <c r="I22" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J22" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K22" s="172" t="s">
+      <c r="J22" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="149"/>
-      <c r="B23" s="149"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="13" t="s">
         <v>4</v>
       </c>
@@ -4585,26 +4504,26 @@
       <c r="E23" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="160">
         <v>27379</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="171" t="s">
+      <c r="G23" s="160"/>
+      <c r="H23" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I23" s="171" t="s">
+      <c r="I23" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J23" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K23" s="172" t="s">
+      <c r="J23" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="149"/>
-      <c r="B24" s="149"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="132"/>
       <c r="C24" s="13" t="s">
         <v>4</v>
       </c>
@@ -4614,26 +4533,26 @@
       <c r="E24" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="160">
         <v>27410</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="171" t="s">
+      <c r="G24" s="160"/>
+      <c r="H24" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="171" t="s">
+      <c r="I24" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J24" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" s="172" t="s">
+      <c r="J24" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="149"/>
-      <c r="B25" s="149"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="13" t="s">
         <v>4</v>
       </c>
@@ -4643,26 +4562,26 @@
       <c r="E25" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="160">
         <v>27441</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="171" t="s">
+      <c r="G25" s="160"/>
+      <c r="H25" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I25" s="171" t="s">
+      <c r="I25" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J25" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K25" s="172" t="s">
+      <c r="J25" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="149"/>
-      <c r="B26" s="149"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="13" t="s">
         <v>4</v>
       </c>
@@ -4672,43 +4591,43 @@
       <c r="E26" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="160">
         <v>27469</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="171" t="s">
+      <c r="G26" s="160"/>
+      <c r="H26" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I26" s="171" t="s">
+      <c r="I26" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J26" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K26" s="172" t="s">
+      <c r="J26" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K26" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="133"/>
-      <c r="B27" s="133"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="13"/>
       <c r="D27" s="18"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K27" s="172"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="129" t="s">
         <v>98</v>
       </c>
       <c r="C28" s="35" t="s">
@@ -4720,28 +4639,28 @@
       <c r="E28" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="158">
         <v>30864</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="158">
         <v>35462</v>
       </c>
-      <c r="H28" s="178" t="s">
+      <c r="H28" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I28" s="178" t="s">
+      <c r="I28" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J28" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="174" t="s">
+      <c r="J28" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" s="81" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="135"/>
-      <c r="B29" s="135"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="35" t="s">
         <v>4</v>
       </c>
@@ -4751,29 +4670,29 @@
       <c r="E29" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="158">
         <v>30895</v>
       </c>
-      <c r="G29" s="108">
+      <c r="G29" s="158">
         <v>37834</v>
       </c>
-      <c r="H29" s="178" t="s">
+      <c r="H29" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="I29" s="178" t="s">
+      <c r="I29" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="J29" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K29" s="174" t="s">
+      <c r="J29" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" s="81" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="135"/>
-      <c r="B30" s="135"/>
-      <c r="C30" s="134" t="s">
+      <c r="A30" s="130"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="129" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="35" t="s">
@@ -4782,162 +4701,162 @@
       <c r="E30" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="158">
         <v>30926</v>
       </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="178" t="s">
+      <c r="G30" s="158"/>
+      <c r="H30" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="178" t="s">
+      <c r="I30" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="J30" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K30" s="174" t="s">
+      <c r="J30" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" s="81" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="136"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="136"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
       <c r="D31" s="35" t="s">
         <v>127</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="158">
         <v>30956</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="178" t="s">
+      <c r="G31" s="158"/>
+      <c r="H31" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I31" s="178" t="s">
+      <c r="I31" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="J31" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K31" s="174" t="s">
+      <c r="J31" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" s="81" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="129" t="s">
+      <c r="A32" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="129" t="s">
+      <c r="D32" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="129" t="s">
+      <c r="E32" s="124" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="168">
+      <c r="F32" s="169">
         <v>31382</v>
       </c>
-      <c r="G32" s="129"/>
-      <c r="H32" s="179" t="s">
+      <c r="G32" s="161"/>
+      <c r="H32" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="179" t="s">
+      <c r="I32" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="J32" s="179" t="s">
+      <c r="J32" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="K32" s="180" t="s">
+      <c r="K32" s="118" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="130"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="180"/>
+      <c r="A33" s="125"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="179"/>
+      <c r="G33" s="162"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="118"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="131"/>
-      <c r="B34" s="131"/>
-      <c r="C34" s="131"/>
-      <c r="D34" s="131"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="182"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="182"/>
-      <c r="K34" s="180"/>
+      <c r="A34" s="126"/>
+      <c r="B34" s="126"/>
+      <c r="C34" s="126"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="118"/>
     </row>
     <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="132" t="s">
+      <c r="A35" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="132" t="s">
+      <c r="C35" s="127" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="132" t="s">
+      <c r="D35" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="132" t="s">
+      <c r="E35" s="127" t="s">
         <v>264</v>
       </c>
-      <c r="F35" s="140">
+      <c r="F35" s="180">
         <v>26967</v>
       </c>
-      <c r="G35" s="142">
+      <c r="G35" s="164">
         <v>31532</v>
       </c>
-      <c r="H35" s="183" t="s">
+      <c r="H35" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="183" t="s">
+      <c r="I35" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="J35" s="183" t="s">
+      <c r="J35" s="143" t="s">
         <v>204</v>
       </c>
-      <c r="K35" s="184" t="s">
+      <c r="K35" s="119" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="133"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="185"/>
-      <c r="K36" s="186"/>
+      <c r="A36" s="128"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="181"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="120"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="134" t="s">
+      <c r="B37" s="129" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="35" t="s">
@@ -4949,28 +4868,28 @@
       <c r="E37" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="69">
+      <c r="F37" s="158">
         <v>30853</v>
       </c>
-      <c r="G37" s="69">
+      <c r="G37" s="158">
         <v>36980</v>
       </c>
-      <c r="H37" s="178" t="s">
+      <c r="H37" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I37" s="178" t="s">
+      <c r="I37" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J37" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K37" s="178" t="s">
+      <c r="J37" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="85" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="136"/>
-      <c r="B38" s="136"/>
+      <c r="A38" s="131"/>
+      <c r="B38" s="131"/>
       <c r="C38" s="35" t="s">
         <v>4</v>
       </c>
@@ -4980,30 +4899,30 @@
       <c r="E38" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F38" s="158">
         <v>36980</v>
       </c>
-      <c r="G38" s="69">
+      <c r="G38" s="158">
         <v>37864</v>
       </c>
-      <c r="H38" s="178" t="s">
+      <c r="H38" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="178" t="s">
+      <c r="I38" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="J38" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K38" s="178" t="s">
+      <c r="J38" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="85" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="124" t="s">
         <v>98</v>
       </c>
       <c r="C39" s="32" t="s">
@@ -5015,29 +4934,29 @@
       <c r="E39" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="70">
+      <c r="F39" s="166">
         <v>26969</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="166">
         <v>30011</v>
       </c>
-      <c r="H39" s="176" t="s">
+      <c r="H39" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="I39" s="176" t="s">
+      <c r="I39" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J39" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K39" s="125" t="s">
+      <c r="J39" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="M39" s="153"/>
+      <c r="M39" s="111"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="130"/>
-      <c r="B40" s="130"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="32" t="s">
         <v>1</v>
       </c>
@@ -5047,29 +4966,29 @@
       <c r="E40" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="70">
+      <c r="F40" s="166">
         <v>26969</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="166">
         <v>30011</v>
       </c>
-      <c r="H40" s="176" t="s">
+      <c r="H40" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="I40" s="176" t="s">
+      <c r="I40" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J40" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K40" s="125" t="s">
+      <c r="J40" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="M40" s="153"/>
+      <c r="M40" s="111"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="130"/>
-      <c r="B41" s="130"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="32" t="s">
         <v>3</v>
       </c>
@@ -5079,29 +4998,29 @@
       <c r="E41" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F41" s="70">
+      <c r="F41" s="166">
         <v>30348</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="166">
         <v>37742</v>
       </c>
-      <c r="H41" s="176" t="s">
+      <c r="H41" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="I41" s="176" t="s">
+      <c r="I41" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K41" s="125" t="s">
+      <c r="J41" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="124"/>
+      <c r="O41" s="74"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="130"/>
-      <c r="B42" s="130"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="32" t="s">
         <v>4</v>
       </c>
@@ -5111,28 +5030,28 @@
       <c r="E42" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="70">
+      <c r="F42" s="166">
         <v>30011</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="166">
         <v>30348</v>
       </c>
-      <c r="H42" s="176" t="s">
+      <c r="H42" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="176" t="s">
+      <c r="I42" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J42" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K42" s="125" t="s">
+      <c r="J42" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="75" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="131"/>
-      <c r="B43" s="131"/>
+      <c r="A43" s="126"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="32" t="s">
         <v>4</v>
       </c>
@@ -5142,30 +5061,30 @@
       <c r="E43" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F43" s="70">
+      <c r="F43" s="166">
         <v>37742</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="166">
         <v>43282</v>
       </c>
-      <c r="H43" s="176" t="s">
+      <c r="H43" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="I43" s="176" t="s">
+      <c r="I43" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J43" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K43" s="125" t="s">
+      <c r="J43" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" s="75" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="132" t="s">
+      <c r="B44" s="127" t="s">
         <v>98</v>
       </c>
       <c r="C44" s="36" t="s">
@@ -5177,28 +5096,28 @@
       <c r="E44" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="71">
+      <c r="F44" s="160">
         <v>31156</v>
       </c>
-      <c r="G44" s="104">
+      <c r="G44" s="160">
         <v>34090</v>
       </c>
-      <c r="H44" s="171" t="s">
+      <c r="H44" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I44" s="171" t="s">
+      <c r="I44" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J44" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K44" s="187" t="s">
+      <c r="J44" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" s="86" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="149"/>
-      <c r="B45" s="149"/>
+      <c r="A45" s="132"/>
+      <c r="B45" s="132"/>
       <c r="C45" s="13" t="s">
         <v>4</v>
       </c>
@@ -5208,28 +5127,28 @@
       <c r="E45" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F45" s="71">
+      <c r="F45" s="160">
         <v>37500</v>
       </c>
-      <c r="G45" s="104">
+      <c r="G45" s="160">
         <v>37500</v>
       </c>
-      <c r="H45" s="171" t="s">
+      <c r="H45" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="I45" s="171" t="s">
+      <c r="I45" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J45" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K45" s="188" t="s">
+      <c r="J45" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K45" s="87" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="133"/>
-      <c r="B46" s="133"/>
+      <c r="A46" s="128"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="36" t="s">
         <v>4</v>
       </c>
@@ -5239,126 +5158,126 @@
       <c r="E46" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="71">
+      <c r="F46" s="160">
         <v>34090</v>
       </c>
-      <c r="G46" s="104">
+      <c r="G46" s="160">
         <v>34366</v>
       </c>
-      <c r="H46" s="171" t="s">
+      <c r="H46" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I46" s="171" t="s">
+      <c r="I46" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="J46" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K46" s="188" t="s">
+      <c r="J46" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K46" s="87" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="134" t="s">
+      <c r="A47" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="134" t="s">
+      <c r="B47" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="134" t="s">
+      <c r="C47" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="134" t="s">
+      <c r="D47" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="134" t="s">
+      <c r="E47" s="129" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="144">
+      <c r="F47" s="182">
         <v>26937</v>
       </c>
-      <c r="G47" s="123">
+      <c r="G47" s="167">
         <v>34151</v>
       </c>
-      <c r="H47" s="189" t="s">
+      <c r="H47" s="147" t="s">
         <v>264</v>
       </c>
-      <c r="I47" s="189" t="s">
+      <c r="I47" s="147" t="s">
         <v>264</v>
       </c>
-      <c r="J47" s="189" t="s">
+      <c r="J47" s="147" t="s">
         <v>204</v>
       </c>
-      <c r="K47" s="190" t="s">
+      <c r="K47" s="121" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="136"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="191"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="191"/>
-      <c r="K48" s="192"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="183"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="122"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="129" t="s">
+      <c r="A49" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="129" t="s">
+      <c r="B49" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="129" t="s">
+      <c r="C49" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="129" t="s">
+      <c r="D49" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="E49" s="129" t="s">
+      <c r="E49" s="124" t="s">
         <v>264</v>
       </c>
-      <c r="F49" s="146">
-        <v>1974</v>
-      </c>
-      <c r="G49" s="73">
-        <v>1985</v>
-      </c>
-      <c r="H49" s="179" t="s">
+      <c r="F49" s="184">
+        <v>27364</v>
+      </c>
+      <c r="G49" s="169">
+        <v>31382</v>
+      </c>
+      <c r="H49" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="I49" s="179" t="s">
+      <c r="I49" s="136" t="s">
         <v>264</v>
       </c>
-      <c r="J49" s="179" t="s">
+      <c r="J49" s="136" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="180" t="s">
+      <c r="K49" s="118" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="131"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="182"/>
-      <c r="I50" s="182"/>
-      <c r="J50" s="182"/>
-      <c r="K50" s="180"/>
+      <c r="A50" s="126"/>
+      <c r="B50" s="126"/>
+      <c r="C50" s="126"/>
+      <c r="D50" s="126"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="118"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="132" t="s">
+      <c r="A51" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="132" t="s">
+      <c r="B51" s="127" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -5370,28 +5289,28 @@
       <c r="E51" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F51" s="76">
+      <c r="F51" s="160">
         <v>27261</v>
       </c>
-      <c r="G51" s="76">
+      <c r="G51" s="160">
         <v>32174</v>
       </c>
-      <c r="H51" s="171" t="s">
+      <c r="H51" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="I51" s="171" t="s">
+      <c r="I51" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="J51" s="171" t="s">
+      <c r="J51" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="K51" s="187" t="s">
+      <c r="K51" s="86" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="133"/>
-      <c r="B52" s="133"/>
+      <c r="A52" s="128"/>
+      <c r="B52" s="128"/>
       <c r="C52" s="13" t="s">
         <v>4</v>
       </c>
@@ -5401,30 +5320,30 @@
       <c r="E52" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F52" s="76">
+      <c r="F52" s="160">
         <v>32196</v>
       </c>
-      <c r="G52" s="75">
-        <v>1993</v>
-      </c>
-      <c r="H52" s="171" t="s">
+      <c r="G52" s="160">
+        <v>34304</v>
+      </c>
+      <c r="H52" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I52" s="171" t="s">
+      <c r="I52" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J52" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K52" s="187" t="s">
+      <c r="J52" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K52" s="86" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="134" t="s">
+      <c r="A53" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="134" t="s">
+      <c r="B53" s="129" t="s">
         <v>98</v>
       </c>
       <c r="C53" s="33" t="s">
@@ -5436,26 +5355,26 @@
       <c r="E53" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="F53" s="78">
+      <c r="F53" s="171">
         <v>30875</v>
       </c>
-      <c r="G53" s="77"/>
-      <c r="H53" s="178" t="s">
+      <c r="G53" s="158"/>
+      <c r="H53" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="I53" s="178" t="s">
+      <c r="I53" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J53" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K53" s="193" t="s">
+      <c r="J53" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K53" s="88" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="135"/>
-      <c r="B54" s="135"/>
+      <c r="A54" s="130"/>
+      <c r="B54" s="130"/>
       <c r="C54" s="35" t="s">
         <v>2</v>
       </c>
@@ -5465,29 +5384,29 @@
       <c r="E54" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="78">
+      <c r="F54" s="171">
         <v>30896</v>
       </c>
-      <c r="G54" s="78">
+      <c r="G54" s="171">
         <v>36628</v>
       </c>
-      <c r="H54" s="178" t="s">
+      <c r="H54" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="I54" s="178" t="s">
+      <c r="I54" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J54" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K54" s="194" t="s">
+      <c r="J54" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K54" s="89" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="135"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="134" t="s">
+      <c r="A55" s="130"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="129" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="35" t="s">
@@ -5496,88 +5415,88 @@
       <c r="E55" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="78">
+      <c r="F55" s="171">
         <v>36630</v>
       </c>
-      <c r="G55" s="77">
-        <v>2007</v>
-      </c>
-      <c r="H55" s="178" t="s">
+      <c r="G55" s="158">
+        <v>39417</v>
+      </c>
+      <c r="H55" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="I55" s="178" t="s">
+      <c r="I55" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="J55" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K55" s="174" t="s">
+      <c r="J55" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K55" s="81" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="135"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="130"/>
       <c r="D56" s="35" t="s">
         <v>113</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="78">
+      <c r="F56" s="171">
         <v>36630</v>
       </c>
-      <c r="G56" s="77">
-        <v>2007</v>
-      </c>
-      <c r="H56" s="178" t="s">
+      <c r="G56" s="158">
+        <v>39417</v>
+      </c>
+      <c r="H56" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="I56" s="178" t="s">
+      <c r="I56" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="J56" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K56" s="174" t="s">
+      <c r="J56" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K56" s="81" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="136"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="131"/>
+      <c r="C57" s="131"/>
       <c r="D57" s="35" t="s">
         <v>148</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="F57" s="78">
+      <c r="F57" s="171">
         <v>37882</v>
       </c>
-      <c r="G57" s="77">
-        <v>2007</v>
-      </c>
-      <c r="H57" s="178" t="s">
+      <c r="G57" s="158">
+        <v>39417</v>
+      </c>
+      <c r="H57" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="I57" s="178" t="s">
+      <c r="I57" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="J57" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K57" s="174" t="s">
+      <c r="J57" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K57" s="81" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="129" t="s">
+      <c r="A58" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="137" t="s">
+      <c r="B58" s="133" t="s">
         <v>98</v>
       </c>
       <c r="C58" s="38" t="s">
@@ -5589,28 +5508,28 @@
       <c r="E58" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F58" s="79">
+      <c r="F58" s="172">
         <v>1974</v>
       </c>
-      <c r="G58" s="80">
+      <c r="G58" s="172">
         <v>28460</v>
       </c>
-      <c r="H58" s="176" t="s">
+      <c r="H58" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="I58" s="176" t="s">
+      <c r="I58" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J58" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K58" s="195" t="s">
+      <c r="J58" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K58" s="90" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="131"/>
-      <c r="B59" s="139"/>
+      <c r="A59" s="126"/>
+      <c r="B59" s="134"/>
       <c r="C59" s="32" t="s">
         <v>4</v>
       </c>
@@ -5620,28 +5539,28 @@
       <c r="E59" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F59" s="79">
+      <c r="F59" s="172">
         <v>1977</v>
       </c>
-      <c r="G59" s="79">
-        <v>1985</v>
-      </c>
-      <c r="H59" s="176"/>
-      <c r="I59" s="176" t="s">
+      <c r="G59" s="172">
+        <v>31382</v>
+      </c>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J59" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K59" s="195" t="s">
+      <c r="J59" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K59" s="90" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="132" t="s">
+      <c r="B60" s="127" t="s">
         <v>98</v>
       </c>
       <c r="C60" s="36" t="s">
@@ -5653,29 +5572,29 @@
       <c r="E60" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="F60" s="81">
+      <c r="F60" s="160">
         <v>38087</v>
       </c>
-      <c r="G60" s="104">
+      <c r="G60" s="160">
         <v>28369</v>
       </c>
-      <c r="H60" s="196" t="s">
+      <c r="H60" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="I60" s="196" t="s">
+      <c r="I60" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J60" s="196" t="s">
-        <v>265</v>
-      </c>
-      <c r="K60" s="188" t="s">
+      <c r="J60" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K60" s="87" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="149"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="132" t="s">
+      <c r="A61" s="132"/>
+      <c r="B61" s="132"/>
+      <c r="C61" s="127" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -5684,62 +5603,62 @@
       <c r="E61" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="F61" s="81">
+      <c r="F61" s="160">
         <v>27649</v>
       </c>
-      <c r="G61" s="81">
+      <c r="G61" s="160">
         <v>38087</v>
       </c>
-      <c r="H61" s="196" t="s">
+      <c r="H61" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="I61" s="196" t="s">
+      <c r="I61" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J61" s="196" t="s">
-        <v>265</v>
-      </c>
-      <c r="K61" s="188" t="s">
+      <c r="J61" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K61" s="87" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="133"/>
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
+      <c r="A62" s="128"/>
+      <c r="B62" s="128"/>
+      <c r="C62" s="128"/>
       <c r="D62" s="13" t="s">
         <v>153</v>
       </c>
       <c r="E62" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="F62" s="81">
+      <c r="F62" s="160">
         <v>26716</v>
       </c>
-      <c r="G62" s="81">
+      <c r="G62" s="160">
         <v>28328</v>
       </c>
-      <c r="H62" s="196" t="s">
+      <c r="H62" s="91" t="s">
         <v>240</v>
       </c>
-      <c r="I62" s="196" t="s">
+      <c r="I62" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="J62" s="196" t="s">
-        <v>265</v>
-      </c>
-      <c r="K62" s="188" t="s">
+      <c r="J62" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K62" s="87" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="134" t="s">
+      <c r="A63" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="134" t="s">
+      <c r="B63" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="134" t="s">
+      <c r="C63" s="129" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="35" t="s">
@@ -5748,57 +5667,57 @@
       <c r="E63" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="F63" s="82">
+      <c r="F63" s="171">
         <v>26347</v>
       </c>
-      <c r="G63" s="108">
+      <c r="G63" s="158">
         <v>37561</v>
       </c>
-      <c r="H63" s="178" t="s">
+      <c r="H63" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="178" t="s">
+      <c r="I63" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J63" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K63" s="174" t="s">
+      <c r="J63" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K63" s="81" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="135"/>
-      <c r="B64" s="135"/>
-      <c r="C64" s="136"/>
+      <c r="A64" s="130"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="131"/>
       <c r="D64" s="35" t="s">
         <v>155</v>
       </c>
       <c r="E64" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="F64" s="82">
+      <c r="F64" s="171">
         <v>26406</v>
       </c>
-      <c r="G64" s="108">
+      <c r="G64" s="158">
         <v>37561</v>
       </c>
-      <c r="H64" s="178" t="s">
+      <c r="H64" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="178" t="s">
+      <c r="I64" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J64" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K64" s="174" t="s">
+      <c r="J64" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K64" s="81" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="136"/>
-      <c r="B65" s="136"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="131"/>
       <c r="C65" s="35" t="s">
         <v>1</v>
       </c>
@@ -5808,30 +5727,30 @@
       <c r="E65" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="F65" s="82">
+      <c r="F65" s="171">
         <v>26347</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="171">
         <v>26385</v>
       </c>
-      <c r="H65" s="178" t="s">
+      <c r="H65" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="I65" s="178" t="s">
+      <c r="I65" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J65" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K65" s="174" t="s">
+      <c r="J65" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K65" s="81" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="129" t="s">
+      <c r="A66" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="129" t="s">
+      <c r="B66" s="124" t="s">
         <v>98</v>
       </c>
       <c r="C66" s="32" t="s">
@@ -5843,22 +5762,22 @@
       <c r="E66" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F66" s="83">
+      <c r="F66" s="172">
         <v>26875</v>
       </c>
-      <c r="G66" s="83">
+      <c r="G66" s="172">
         <v>29839</v>
       </c>
-      <c r="H66" s="176"/>
-      <c r="I66" s="176"/>
-      <c r="J66" s="176"/>
-      <c r="K66" s="197" t="s">
+      <c r="H66" s="83"/>
+      <c r="I66" s="83"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="131"/>
-      <c r="B67" s="131"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="32" t="s">
         <v>4</v>
       </c>
@@ -5868,24 +5787,24 @@
       <c r="E67" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F67" s="83">
+      <c r="F67" s="173">
         <v>30194</v>
       </c>
-      <c r="G67" s="83">
+      <c r="G67" s="173">
         <v>30194</v>
       </c>
-      <c r="H67" s="176"/>
-      <c r="I67" s="176"/>
-      <c r="J67" s="176"/>
-      <c r="K67" s="197" t="s">
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
+      <c r="J67" s="83"/>
+      <c r="K67" s="92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="132" t="s">
+      <c r="A68" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="132" t="s">
+      <c r="B68" s="127" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -5897,28 +5816,28 @@
       <c r="E68" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="84">
+      <c r="F68" s="160">
         <v>26861</v>
       </c>
-      <c r="G68" s="85">
+      <c r="G68" s="174">
         <v>27242</v>
       </c>
-      <c r="H68" s="171" t="s">
+      <c r="H68" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="I68" s="171" t="s">
+      <c r="I68" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="J68" s="171" t="s">
+      <c r="J68" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="K68" s="187" t="s">
+      <c r="K68" s="86" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="133"/>
-      <c r="B69" s="133"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="128"/>
       <c r="C69" s="13" t="s">
         <v>2</v>
       </c>
@@ -5928,33 +5847,33 @@
       <c r="E69" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="84">
+      <c r="F69" s="160">
         <v>27242</v>
       </c>
-      <c r="G69" s="85">
+      <c r="G69" s="174">
         <v>28156</v>
       </c>
-      <c r="H69" s="171" t="s">
+      <c r="H69" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I69" s="171" t="s">
+      <c r="I69" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J69" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K69" s="187" t="s">
+      <c r="J69" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K69" s="86" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="134" t="s">
+      <c r="A70" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="134" t="s">
+      <c r="B70" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="134" t="s">
+      <c r="C70" s="129" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="35" t="s">
@@ -5963,86 +5882,86 @@
       <c r="E70" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="86">
+      <c r="F70" s="171">
         <v>28548</v>
       </c>
-      <c r="G70" s="86">
+      <c r="G70" s="171">
         <v>34829</v>
       </c>
-      <c r="H70" s="178" t="s">
+      <c r="H70" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I70" s="178" t="s">
+      <c r="I70" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J70" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K70" s="198" t="s">
+      <c r="J70" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K70" s="93" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="135"/>
-      <c r="B71" s="135"/>
-      <c r="C71" s="135"/>
+      <c r="A71" s="130"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
       <c r="D71" s="35" t="s">
         <v>162</v>
       </c>
       <c r="E71" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="86">
+      <c r="F71" s="171">
         <v>26785</v>
       </c>
-      <c r="G71" s="86">
+      <c r="G71" s="171">
         <v>28548</v>
       </c>
-      <c r="H71" s="178" t="s">
+      <c r="H71" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I71" s="178" t="s">
+      <c r="I71" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J71" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K71" s="198" t="s">
+      <c r="J71" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K71" s="93" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="135"/>
-      <c r="B72" s="135"/>
-      <c r="C72" s="136"/>
+      <c r="A72" s="130"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="131"/>
       <c r="D72" s="35" t="s">
         <v>163</v>
       </c>
       <c r="E72" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="86">
+      <c r="F72" s="171">
         <v>26688</v>
       </c>
-      <c r="G72" s="86">
+      <c r="G72" s="171">
         <v>26785</v>
       </c>
-      <c r="H72" s="178" t="s">
+      <c r="H72" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="178" t="s">
+      <c r="I72" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J72" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K72" s="198" t="s">
+      <c r="J72" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K72" s="93" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="136"/>
-      <c r="B73" s="136"/>
+      <c r="A73" s="131"/>
+      <c r="B73" s="131"/>
       <c r="C73" s="34" t="s">
         <v>4</v>
       </c>
@@ -6052,22 +5971,22 @@
       <c r="E73" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="86">
+      <c r="F73" s="171">
         <v>26688</v>
       </c>
-      <c r="G73" s="86">
+      <c r="G73" s="171">
         <v>26785</v>
       </c>
-      <c r="H73" s="178" t="s">
+      <c r="H73" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="I73" s="178" t="s">
+      <c r="I73" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J73" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K73" s="198" t="s">
+      <c r="J73" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K73" s="93" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6087,22 +6006,22 @@
       <c r="E74" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F74" s="87">
+      <c r="F74" s="172">
         <v>26846</v>
       </c>
-      <c r="G74" s="87">
+      <c r="G74" s="172">
         <v>26908</v>
       </c>
-      <c r="H74" s="176" t="s">
+      <c r="H74" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="I74" s="176" t="s">
+      <c r="I74" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J74" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K74" s="199" t="s">
+      <c r="J74" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K74" s="94" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6122,112 +6041,112 @@
       <c r="E75" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F75" s="88">
+      <c r="F75" s="160">
         <v>27098</v>
       </c>
-      <c r="G75" s="89">
+      <c r="G75" s="160">
         <v>27334</v>
       </c>
-      <c r="H75" s="171" t="s">
+      <c r="H75" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="171" t="s">
+      <c r="I75" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J75" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K75" s="187" t="s">
+      <c r="J75" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K75" s="86" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="155" t="s">
+      <c r="A76" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="155" t="s">
+      <c r="B76" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="55" t="s">
+      <c r="C76" s="53"/>
+      <c r="D76" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="F76" s="110">
+      <c r="F76" s="175">
         <v>29434</v>
       </c>
-      <c r="G76" s="60"/>
-      <c r="H76" s="200" t="s">
+      <c r="G76" s="175"/>
+      <c r="H76" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="I76" s="200" t="s">
+      <c r="I76" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="J76" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="K76" s="201" t="s">
+      <c r="J76" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="K76" s="96" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="156"/>
-      <c r="B77" s="156"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="55" t="s">
+      <c r="A77" s="114"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="E77" s="55" t="s">
+      <c r="E77" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="F77" s="110">
+      <c r="F77" s="175">
         <v>29434</v>
       </c>
-      <c r="G77" s="60"/>
-      <c r="H77" s="200" t="s">
+      <c r="G77" s="175"/>
+      <c r="H77" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="I77" s="200" t="s">
+      <c r="I77" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="J77" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="K77" s="201" t="s">
+      <c r="J77" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="K77" s="96" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="160"/>
-      <c r="B78" s="160"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="55" t="s">
+      <c r="A78" s="123"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E78" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="F78" s="110">
+      <c r="F78" s="175">
         <v>29434</v>
       </c>
-      <c r="G78" s="60"/>
-      <c r="H78" s="200" t="s">
+      <c r="G78" s="175"/>
+      <c r="H78" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="I78" s="200" t="s">
+      <c r="I78" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="J78" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="K78" s="202" t="s">
+      <c r="J78" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="K78" s="97" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="52" t="s">
         <v>30</v>
       </c>
       <c r="B79" s="35" t="s">
@@ -6242,27 +6161,27 @@
       <c r="E79" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="F79" s="90">
+      <c r="F79" s="185">
         <v>30133</v>
       </c>
-      <c r="G79" s="108">
+      <c r="G79" s="158">
         <v>30286</v>
       </c>
-      <c r="H79" s="178" t="s">
+      <c r="H79" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I79" s="178" t="s">
+      <c r="I79" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J79" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K79" s="198" t="s">
+      <c r="J79" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K79" s="93" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="113" t="s">
+      <c r="A80" s="64" t="s">
         <v>31</v>
       </c>
       <c r="B80" s="32" t="s">
@@ -6277,30 +6196,30 @@
       <c r="E80" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F80" s="91">
+      <c r="F80" s="172">
         <v>27303</v>
       </c>
-      <c r="G80" s="91">
+      <c r="G80" s="172">
         <v>27881</v>
       </c>
-      <c r="H80" s="176" t="s">
+      <c r="H80" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="I80" s="176" t="s">
+      <c r="I80" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J80" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K80" s="203" t="s">
+      <c r="J80" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K80" s="98" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="134" t="s">
+      <c r="A81" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="134" t="s">
+      <c r="B81" s="129" t="s">
         <v>98</v>
       </c>
       <c r="C81" s="35" t="s">
@@ -6312,28 +6231,28 @@
       <c r="E81" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F81" s="93">
+      <c r="F81" s="158">
         <v>27794</v>
       </c>
-      <c r="G81" s="108">
+      <c r="G81" s="158">
         <v>28946</v>
       </c>
-      <c r="H81" s="178" t="s">
+      <c r="H81" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="I81" s="178" t="s">
+      <c r="I81" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J81" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K81" s="198" t="s">
+      <c r="J81" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K81" s="93" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="135"/>
-      <c r="B82" s="135"/>
+      <c r="A82" s="130"/>
+      <c r="B82" s="130"/>
       <c r="C82" s="35"/>
       <c r="D82" s="35" t="s">
         <v>169</v>
@@ -6341,28 +6260,28 @@
       <c r="E82" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="F82" s="108">
+      <c r="F82" s="158">
         <v>28946</v>
       </c>
-      <c r="G82" s="108">
+      <c r="G82" s="158">
         <v>28946</v>
       </c>
-      <c r="H82" s="178" t="s">
+      <c r="H82" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="I82" s="178" t="s">
+      <c r="I82" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J82" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K82" s="198" t="s">
+      <c r="J82" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K82" s="93" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="136"/>
-      <c r="B83" s="136"/>
+      <c r="A83" s="131"/>
+      <c r="B83" s="131"/>
       <c r="C83" s="35" t="s">
         <v>1</v>
       </c>
@@ -6372,30 +6291,30 @@
       <c r="E83" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="F83" s="93">
+      <c r="F83" s="158">
         <v>30590</v>
       </c>
-      <c r="G83" s="108">
+      <c r="G83" s="158">
         <v>30560</v>
       </c>
-      <c r="H83" s="178" t="s">
+      <c r="H83" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="I83" s="178" t="s">
+      <c r="I83" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J83" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K83" s="198" t="s">
+      <c r="J83" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K83" s="93" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="129" t="s">
+      <c r="A84" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="129" t="s">
+      <c r="B84" s="124" t="s">
         <v>98</v>
       </c>
       <c r="C84" s="32" t="s">
@@ -6407,28 +6326,28 @@
       <c r="E84" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F84" s="94">
+      <c r="F84" s="172">
         <v>27048</v>
       </c>
-      <c r="G84" s="61">
+      <c r="G84" s="173">
         <v>28430</v>
       </c>
-      <c r="H84" s="176" t="s">
+      <c r="H84" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="I84" s="176" t="s">
+      <c r="I84" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J84" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K84" s="203" t="s">
+      <c r="J84" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K84" s="98" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="131"/>
-      <c r="B85" s="131"/>
+      <c r="A85" s="126"/>
+      <c r="B85" s="126"/>
       <c r="C85" s="32" t="s">
         <v>4</v>
       </c>
@@ -6438,30 +6357,30 @@
       <c r="E85" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="F85" s="94">
+      <c r="F85" s="172">
         <v>28453</v>
       </c>
-      <c r="G85" s="61">
+      <c r="G85" s="173">
         <v>31685</v>
       </c>
-      <c r="H85" s="176" t="s">
+      <c r="H85" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="I85" s="176" t="s">
+      <c r="I85" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J85" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K85" s="203" t="s">
+      <c r="J85" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K85" s="98" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="132" t="s">
+      <c r="A86" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="132" t="s">
+      <c r="B86" s="127" t="s">
         <v>98</v>
       </c>
       <c r="C86" s="13" t="s">
@@ -6473,28 +6392,28 @@
       <c r="E86" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F86" s="95">
+      <c r="F86" s="160">
         <v>27210</v>
       </c>
-      <c r="G86" s="96">
+      <c r="G86" s="174">
         <v>29221</v>
       </c>
-      <c r="H86" s="171" t="s">
+      <c r="H86" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I86" s="171" t="s">
+      <c r="I86" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J86" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K86" s="204" t="s">
+      <c r="J86" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K86" s="99" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="133"/>
-      <c r="B87" s="133"/>
+      <c r="A87" s="128"/>
+      <c r="B87" s="128"/>
       <c r="C87" s="13" t="s">
         <v>4</v>
       </c>
@@ -6504,33 +6423,33 @@
       <c r="E87" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F87" s="95">
+      <c r="F87" s="160">
         <v>27210</v>
       </c>
-      <c r="G87" s="96">
+      <c r="G87" s="174">
         <v>29221</v>
       </c>
-      <c r="H87" s="171" t="s">
+      <c r="H87" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I87" s="171" t="s">
+      <c r="I87" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J87" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K87" s="204" t="s">
+      <c r="J87" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K87" s="99" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="134" t="s">
+      <c r="A88" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="B88" s="134" t="s">
+      <c r="B88" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="134" t="s">
+      <c r="C88" s="129" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="35" t="s">
@@ -6539,51 +6458,51 @@
       <c r="E88" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="97">
+      <c r="F88" s="158">
         <v>27242</v>
       </c>
-      <c r="G88" s="97">
+      <c r="G88" s="158">
         <v>27768</v>
       </c>
-      <c r="H88" s="178" t="s">
+      <c r="H88" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="I88" s="178" t="s">
+      <c r="I88" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J88" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K88" s="198" t="s">
+      <c r="J88" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K88" s="93" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="136"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="136"/>
+      <c r="A89" s="131"/>
+      <c r="B89" s="131"/>
+      <c r="C89" s="131"/>
       <c r="D89" s="35" t="s">
         <v>176</v>
       </c>
       <c r="E89" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="97">
+      <c r="F89" s="158">
         <v>27768</v>
       </c>
-      <c r="G89" s="97">
+      <c r="G89" s="158">
         <v>38718</v>
       </c>
-      <c r="H89" s="178" t="s">
+      <c r="H89" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I89" s="178" t="s">
+      <c r="I89" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J89" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K89" s="198" t="s">
+      <c r="J89" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K89" s="93" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6603,33 +6522,33 @@
       <c r="E90" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="F90" s="98">
+      <c r="F90" s="172">
         <v>27169</v>
       </c>
-      <c r="G90" s="98">
+      <c r="G90" s="172">
         <v>28579</v>
       </c>
-      <c r="H90" s="205" t="s">
+      <c r="H90" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="I90" s="205" t="s">
+      <c r="I90" s="100" t="s">
         <v>263</v>
       </c>
-      <c r="J90" s="205" t="s">
-        <v>265</v>
-      </c>
-      <c r="K90" s="195" t="s">
+      <c r="J90" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="K90" s="90" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="132" t="s">
+      <c r="A91" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="B91" s="132" t="s">
+      <c r="B91" s="127" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="132" t="s">
+      <c r="C91" s="127" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="13" t="s">
@@ -6638,88 +6557,88 @@
       <c r="E91" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F91" s="101">
+      <c r="F91" s="160">
         <v>27388</v>
       </c>
-      <c r="G91" s="100">
+      <c r="G91" s="174">
         <v>2002</v>
       </c>
-      <c r="H91" s="171" t="s">
+      <c r="H91" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I91" s="171" t="s">
+      <c r="I91" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J91" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K91" s="204" t="s">
+      <c r="J91" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K91" s="99" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="149"/>
-      <c r="B92" s="149"/>
-      <c r="C92" s="149"/>
+      <c r="A92" s="132"/>
+      <c r="B92" s="132"/>
+      <c r="C92" s="132"/>
       <c r="D92" s="13" t="s">
         <v>179</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F92" s="101">
+      <c r="F92" s="160">
         <v>27139</v>
       </c>
-      <c r="G92" s="99">
+      <c r="G92" s="160">
         <v>2002</v>
       </c>
-      <c r="H92" s="171" t="s">
+      <c r="H92" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="I92" s="171" t="s">
+      <c r="I92" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J92" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K92" s="204" t="s">
+      <c r="J92" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K92" s="99" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="133"/>
-      <c r="B93" s="133"/>
-      <c r="C93" s="133"/>
+      <c r="A93" s="128"/>
+      <c r="B93" s="128"/>
+      <c r="C93" s="128"/>
       <c r="D93" s="13" t="s">
         <v>180</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F93" s="101">
+      <c r="F93" s="160">
         <v>27234</v>
       </c>
-      <c r="G93" s="99">
+      <c r="G93" s="160">
         <v>2002</v>
       </c>
-      <c r="H93" s="171" t="s">
+      <c r="H93" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I93" s="171" t="s">
+      <c r="I93" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J93" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K93" s="204" t="s">
+      <c r="J93" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K93" s="99" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="134" t="s">
+      <c r="A94" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="134" t="s">
+      <c r="B94" s="129" t="s">
         <v>98</v>
       </c>
       <c r="C94" s="35" t="s">
@@ -6731,28 +6650,28 @@
       <c r="E94" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="F94" s="102">
+      <c r="F94" s="158">
         <v>33632</v>
       </c>
-      <c r="G94" s="102">
+      <c r="G94" s="158">
         <v>2002</v>
       </c>
-      <c r="H94" s="178" t="s">
+      <c r="H94" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="I94" s="178" t="s">
+      <c r="I94" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="J94" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K94" s="206" t="s">
+      <c r="J94" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K94" s="101" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="135"/>
-      <c r="B95" s="135"/>
+      <c r="A95" s="130"/>
+      <c r="B95" s="130"/>
       <c r="C95" s="35" t="s">
         <v>4</v>
       </c>
@@ -6762,28 +6681,28 @@
       <c r="E95" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="F95" s="102">
+      <c r="F95" s="158">
         <v>37469</v>
       </c>
-      <c r="G95" s="102">
+      <c r="G95" s="158">
         <v>37469</v>
       </c>
-      <c r="H95" s="178" t="s">
+      <c r="H95" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="I95" s="178" t="s">
+      <c r="I95" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="J95" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K95" s="206" t="s">
+      <c r="J95" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K95" s="101" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="135"/>
-      <c r="B96" s="135"/>
+      <c r="A96" s="130"/>
+      <c r="B96" s="130"/>
       <c r="C96" s="35" t="s">
         <v>3</v>
       </c>
@@ -6793,28 +6712,28 @@
       <c r="E96" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="F96" s="102">
+      <c r="F96" s="158">
         <v>33055</v>
       </c>
-      <c r="G96" s="102">
+      <c r="G96" s="158">
         <v>33604</v>
       </c>
-      <c r="H96" s="178" t="s">
+      <c r="H96" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="I96" s="178" t="s">
+      <c r="I96" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J96" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K96" s="206" t="s">
+      <c r="J96" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K96" s="101" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="136"/>
-      <c r="B97" s="136"/>
+      <c r="A97" s="131"/>
+      <c r="B97" s="131"/>
       <c r="C97" s="35" t="s">
         <v>1</v>
       </c>
@@ -6824,30 +6743,30 @@
       <c r="E97" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="F97" s="102">
+      <c r="F97" s="158">
         <v>30803</v>
       </c>
-      <c r="G97" s="102">
+      <c r="G97" s="158">
         <v>33055</v>
       </c>
-      <c r="H97" s="178" t="s">
+      <c r="H97" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="I97" s="178" t="s">
+      <c r="I97" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="J97" s="178" t="s">
-        <v>265</v>
-      </c>
-      <c r="K97" s="206" t="s">
+      <c r="J97" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="K97" s="101" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="129" t="s">
+      <c r="A98" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="129" t="s">
+      <c r="B98" s="124" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="32" t="s">
@@ -6859,28 +6778,28 @@
       <c r="E98" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F98" s="103">
+      <c r="F98" s="172">
         <v>30965</v>
       </c>
-      <c r="G98" s="103">
+      <c r="G98" s="172">
         <v>36336</v>
       </c>
-      <c r="H98" s="176" t="s">
+      <c r="H98" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="I98" s="176" t="s">
+      <c r="I98" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J98" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K98" s="197" t="s">
+      <c r="J98" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K98" s="92" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="131"/>
-      <c r="B99" s="131"/>
+      <c r="A99" s="126"/>
+      <c r="B99" s="126"/>
       <c r="C99" s="32" t="s">
         <v>4</v>
       </c>
@@ -6890,30 +6809,30 @@
       <c r="E99" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F99" s="103">
+      <c r="F99" s="172">
         <v>36336</v>
       </c>
-      <c r="G99" s="103">
+      <c r="G99" s="172">
         <v>37986</v>
       </c>
-      <c r="H99" s="176" t="s">
+      <c r="H99" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="I99" s="176" t="s">
+      <c r="I99" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J99" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K99" s="197" t="s">
+      <c r="J99" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K99" s="92" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="132" t="s">
+      <c r="A100" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="132" t="s">
+      <c r="B100" s="127" t="s">
         <v>98</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -6925,28 +6844,28 @@
       <c r="E100" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="F100" s="104">
+      <c r="F100" s="160">
         <v>31589</v>
       </c>
-      <c r="G100" s="104">
+      <c r="G100" s="160">
         <v>39872</v>
       </c>
-      <c r="H100" s="171" t="s">
+      <c r="H100" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I100" s="171" t="s">
+      <c r="I100" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J100" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K100" s="187" t="s">
+      <c r="J100" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K100" s="86" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="149"/>
-      <c r="B101" s="149"/>
+      <c r="A101" s="132"/>
+      <c r="B101" s="132"/>
       <c r="C101" s="13" t="s">
         <v>4</v>
       </c>
@@ -6956,28 +6875,28 @@
       <c r="E101" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F101" s="104">
+      <c r="F101" s="160">
         <v>31024</v>
       </c>
-      <c r="G101" s="104">
+      <c r="G101" s="160">
         <v>31589</v>
       </c>
-      <c r="H101" s="171" t="s">
+      <c r="H101" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I101" s="171" t="s">
+      <c r="I101" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J101" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K101" s="187" t="s">
+      <c r="J101" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K101" s="86" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="133"/>
-      <c r="B102" s="133"/>
+      <c r="A102" s="128"/>
+      <c r="B102" s="128"/>
       <c r="C102" s="13" t="s">
         <v>3</v>
       </c>
@@ -6987,22 +6906,22 @@
       <c r="E102" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F102" s="104">
+      <c r="F102" s="160">
         <v>31589</v>
       </c>
-      <c r="G102" s="104">
+      <c r="G102" s="160">
         <v>31589</v>
       </c>
-      <c r="H102" s="171" t="s">
+      <c r="H102" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I102" s="171" t="s">
+      <c r="I102" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J102" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K102" s="187" t="s">
+      <c r="J102" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K102" s="86" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7022,30 +6941,30 @@
       <c r="E103" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="F103" s="108">
+      <c r="F103" s="158">
         <v>31563</v>
       </c>
-      <c r="G103" s="108">
+      <c r="G103" s="158">
         <v>38199</v>
       </c>
-      <c r="H103" s="178" t="s">
+      <c r="H103" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="I103" s="178" t="s">
+      <c r="I103" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="J103" s="178" t="s">
+      <c r="J103" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="K103" s="198" t="s">
+      <c r="K103" s="93" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="152" t="s">
+      <c r="A104" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="152" t="s">
+      <c r="B104" s="135" t="s">
         <v>98</v>
       </c>
       <c r="C104" s="32" t="s">
@@ -7057,28 +6976,28 @@
       <c r="E104" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F104" s="107">
+      <c r="F104" s="172">
         <v>29190</v>
       </c>
-      <c r="G104" s="105">
+      <c r="G104" s="173">
         <v>2003</v>
       </c>
-      <c r="H104" s="176" t="s">
+      <c r="H104" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="I104" s="176" t="s">
+      <c r="I104" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="J104" s="171" t="s">
-        <v>265</v>
-      </c>
-      <c r="K104" s="177" t="s">
+      <c r="J104" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K104" s="84" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="152"/>
-      <c r="B105" s="152"/>
+      <c r="A105" s="135"/>
+      <c r="B105" s="135"/>
       <c r="C105" s="32" t="s">
         <v>1</v>
       </c>
@@ -7088,28 +7007,28 @@
       <c r="E105" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F105" s="107">
+      <c r="F105" s="172">
         <v>30585</v>
       </c>
-      <c r="G105" s="106">
+      <c r="G105" s="172">
         <v>2003</v>
       </c>
-      <c r="H105" s="176" t="s">
+      <c r="H105" s="83" t="s">
         <v>232</v>
       </c>
-      <c r="I105" s="176" t="s">
+      <c r="I105" s="83" t="s">
         <v>263</v>
       </c>
-      <c r="J105" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K105" s="177" t="s">
+      <c r="J105" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K105" s="84" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="152"/>
-      <c r="B106" s="152"/>
+      <c r="A106" s="135"/>
+      <c r="B106" s="135"/>
       <c r="C106" s="32"/>
       <c r="D106" s="32" t="s">
         <v>193</v>
@@ -7117,24 +7036,24 @@
       <c r="E106" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F106" s="113"/>
-      <c r="G106" s="113"/>
-      <c r="H106" s="176" t="s">
+      <c r="F106" s="173"/>
+      <c r="G106" s="173"/>
+      <c r="H106" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="I106" s="176" t="s">
+      <c r="I106" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="J106" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K106" s="177" t="s">
+      <c r="J106" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K106" s="84" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="152"/>
-      <c r="B107" s="152"/>
+      <c r="A107" s="135"/>
+      <c r="B107" s="135"/>
       <c r="C107" s="32"/>
       <c r="D107" s="32" t="s">
         <v>194</v>
@@ -7142,266 +7061,355 @@
       <c r="E107" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F107" s="113"/>
-      <c r="G107" s="113"/>
-      <c r="H107" s="176" t="s">
+      <c r="F107" s="173"/>
+      <c r="G107" s="173"/>
+      <c r="H107" s="83" t="s">
         <v>225</v>
       </c>
-      <c r="I107" s="176" t="s">
+      <c r="I107" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="J107" s="176" t="s">
-        <v>265</v>
-      </c>
-      <c r="K107" s="177" t="s">
+      <c r="J107" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="K107" s="84" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="155" t="s">
+      <c r="A108" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="B108" s="155" t="s">
+      <c r="B108" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="C108" s="54" t="s">
+      <c r="C108" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="55" t="s">
+      <c r="D108" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="E108" s="55" t="s">
+      <c r="E108" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="F108" s="110">
+      <c r="F108" s="175">
         <v>27211</v>
       </c>
-      <c r="G108" s="110">
+      <c r="G108" s="175">
         <v>28369</v>
       </c>
-      <c r="H108" s="200" t="s">
+      <c r="H108" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="I108" s="200" t="s">
+      <c r="I108" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="J108" s="200" t="s">
+      <c r="J108" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="K108" s="201" t="s">
+      <c r="K108" s="96" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="156"/>
-      <c r="B109" s="156"/>
-      <c r="C109" s="54"/>
-      <c r="D109" s="55" t="s">
+      <c r="A109" s="114"/>
+      <c r="B109" s="114"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="E109" s="55" t="s">
+      <c r="E109" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="F109" s="110">
+      <c r="F109" s="175">
         <v>28369</v>
       </c>
-      <c r="G109" s="60"/>
-      <c r="H109" s="200" t="s">
+      <c r="G109" s="175"/>
+      <c r="H109" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="I109" s="200" t="s">
+      <c r="I109" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="J109" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="K109" s="201" t="s">
+      <c r="J109" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="K109" s="96" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="57" t="s">
+      <c r="A110" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="B110" s="57" t="s">
+      <c r="B110" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C110" s="57" t="s">
+      <c r="C110" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="D110" s="57" t="s">
+      <c r="D110" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="E110" s="57" t="s">
+      <c r="E110" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="F110" s="111">
+      <c r="F110" s="176">
         <v>29677</v>
       </c>
-      <c r="G110" s="57"/>
-      <c r="H110" s="207" t="s">
+      <c r="G110" s="176"/>
+      <c r="H110" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="I110" s="207" t="s">
+      <c r="I110" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="J110" s="207" t="s">
-        <v>265</v>
-      </c>
-      <c r="K110" s="208" t="s">
+      <c r="J110" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="K110" s="103" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="157" t="s">
+      <c r="A111" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="B111" s="157" t="s">
+      <c r="B111" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="59"/>
-      <c r="D111" s="55" t="s">
+      <c r="C111" s="57"/>
+      <c r="D111" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="E111" s="55" t="s">
+      <c r="E111" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="F111" s="110">
+      <c r="F111" s="175">
         <v>27364</v>
       </c>
-      <c r="G111" s="110">
+      <c r="G111" s="175">
         <v>28065</v>
       </c>
-      <c r="H111" s="200" t="s">
+      <c r="H111" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="I111" s="200" t="s">
+      <c r="I111" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="J111" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="K111" s="201" t="s">
+      <c r="J111" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="K111" s="96" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="158"/>
-      <c r="B112" s="158"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="55" t="s">
+      <c r="A112" s="116"/>
+      <c r="B112" s="116"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="E112" s="55" t="s">
+      <c r="E112" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="F112" s="110">
+      <c r="F112" s="175">
         <v>27364</v>
       </c>
-      <c r="G112" s="110">
+      <c r="G112" s="175">
         <v>28369</v>
       </c>
-      <c r="H112" s="200" t="s">
+      <c r="H112" s="95" t="s">
         <v>208</v>
       </c>
-      <c r="I112" s="200" t="s">
+      <c r="I112" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="J112" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="K112" s="209" t="s">
+      <c r="J112" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="K112" s="104" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="159"/>
-      <c r="B113" s="159"/>
-      <c r="C113" s="55"/>
-      <c r="D113" s="55" t="s">
+      <c r="A113" s="117"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="E113" s="55" t="s">
+      <c r="E113" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="F113" s="110">
+      <c r="F113" s="175">
         <v>28369</v>
       </c>
-      <c r="G113" s="60"/>
-      <c r="H113" s="210" t="s">
+      <c r="G113" s="175"/>
+      <c r="H113" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="I113" s="210" t="s">
+      <c r="I113" s="105" t="s">
         <v>263</v>
       </c>
-      <c r="J113" s="210" t="s">
-        <v>265</v>
-      </c>
-      <c r="K113" s="209" t="s">
+      <c r="J113" s="105" t="s">
+        <v>265</v>
+      </c>
+      <c r="K113" s="104" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="154" t="s">
+      <c r="A114" s="112" t="s">
         <v>315</v>
       </c>
-      <c r="B114" s="154" t="s">
+      <c r="B114" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="C114" s="55"/>
-      <c r="D114" s="55" t="s">
+      <c r="C114" s="54"/>
+      <c r="D114" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="E114" s="58" t="s">
+      <c r="E114" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="F114" s="112">
+      <c r="F114" s="177">
         <v>39479</v>
       </c>
-      <c r="G114" s="58"/>
-      <c r="H114" s="209" t="s">
+      <c r="G114" s="177"/>
+      <c r="H114" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="I114" s="209" t="s">
+      <c r="I114" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="J114" s="209" t="s">
-        <v>265</v>
-      </c>
-      <c r="K114" s="209" t="s">
+      <c r="J114" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="K114" s="104" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="154"/>
-      <c r="B115" s="154"/>
-      <c r="C115" s="55"/>
-      <c r="D115" s="55" t="s">
+      <c r="A115" s="112"/>
+      <c r="B115" s="112"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="E115" s="58" t="s">
+      <c r="E115" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="F115" s="112">
+      <c r="F115" s="177">
         <v>39479</v>
       </c>
-      <c r="G115" s="58"/>
-      <c r="H115" s="209" t="s">
+      <c r="G115" s="177"/>
+      <c r="H115" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="I115" s="209" t="s">
+      <c r="I115" s="104" t="s">
         <v>320</v>
       </c>
-      <c r="J115" s="209" t="s">
-        <v>265</v>
-      </c>
-      <c r="K115" s="209" t="s">
+      <c r="J115" s="104" t="s">
+        <v>265</v>
+      </c>
+      <c r="K115" s="104" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K116"/>
-  <mergeCells count="112">
+  <mergeCells count="113">
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A8:A15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="A114:A115"/>
@@ -7426,94 +7434,6 @@
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
@@ -7538,82 +7458,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="60" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="60" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="114" t="s">
+      <c r="D2" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="63">
         <v>35735</v>
       </c>
-      <c r="F2" s="114">
+      <c r="F2" s="65">
         <v>1501</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="114" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D3" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="63">
         <v>41548</v>
       </c>
-      <c r="F3" s="114">
+      <c r="F3" s="65">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="114" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="65" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="129" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -7622,7 +7542,7 @@
       <c r="D5" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="108">
+      <c r="E5" s="62">
         <v>35462</v>
       </c>
       <c r="F5" s="35">
@@ -7630,15 +7550,15 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="135"/>
-      <c r="B6" s="135"/>
+      <c r="A6" s="130"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="108">
+      <c r="E6" s="62">
         <v>37834</v>
       </c>
       <c r="F6" s="35">
@@ -7646,100 +7566,100 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="161" t="s">
+      <c r="A7" s="130"/>
+      <c r="B7" s="130"/>
+      <c r="C7" s="154" t="s">
         <v>332</v>
       </c>
       <c r="D7" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="144">
+      <c r="E7" s="146">
         <v>44531</v>
       </c>
-      <c r="F7" s="134">
+      <c r="F7" s="129">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="136"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="162"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="155"/>
       <c r="D8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="136"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="131"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="163">
+      <c r="E9" s="152">
         <v>44531</v>
       </c>
-      <c r="F9" s="129">
+      <c r="F9" s="124">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="131"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="A11" s="126"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="165">
+      <c r="E12" s="151">
         <v>34151</v>
       </c>
-      <c r="F12" s="134">
+      <c r="F12" s="129">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="136"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="132" t="s">
+      <c r="A14" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="127" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -7748,7 +7668,7 @@
       <c r="D14" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="61">
         <v>32174</v>
       </c>
       <c r="F14" s="13">
@@ -7756,15 +7676,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="133"/>
-      <c r="B15" s="133"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="104">
+      <c r="E15" s="61">
         <v>33970</v>
       </c>
       <c r="F15" s="13">
@@ -7772,88 +7692,88 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="133" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="114" t="s">
+      <c r="D16" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="58">
         <v>30011</v>
       </c>
-      <c r="F16" s="166">
+      <c r="F16" s="149">
         <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="114" t="s">
+      <c r="A17" s="125"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="114" t="s">
+      <c r="D17" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="58">
         <v>30011</v>
       </c>
-      <c r="F17" s="167"/>
+      <c r="F17" s="150"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="130"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="114" t="s">
+      <c r="A18" s="125"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="58">
         <v>37742</v>
       </c>
-      <c r="F18" s="125"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="130"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="114" t="s">
+      <c r="A19" s="125"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="114" t="s">
+      <c r="D19" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="58">
         <v>30348</v>
       </c>
-      <c r="F19" s="125">
+      <c r="F19" s="75">
         <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="131"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="114" t="s">
+      <c r="A20" s="126"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="114" t="s">
+      <c r="D20" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="58">
         <v>43282</v>
       </c>
-      <c r="F20" s="125"/>
+      <c r="F20" s="75"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="129" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -7862,7 +7782,7 @@
       <c r="D21" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="108">
+      <c r="E21" s="62">
         <v>35765</v>
       </c>
       <c r="F21" s="26">
@@ -7870,15 +7790,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="135"/>
-      <c r="B22" s="135"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="130"/>
       <c r="C22" s="30" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="108">
+      <c r="E22" s="62">
         <v>35765</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -7886,15 +7806,15 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="135"/>
-      <c r="B23" s="135"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="30" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="108">
+      <c r="E23" s="62">
         <v>43221</v>
       </c>
       <c r="F23" s="30">
@@ -7902,15 +7822,15 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="135"/>
-      <c r="B24" s="135"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="130"/>
       <c r="C24" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="108">
+      <c r="E24" s="62">
         <v>35927</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -7918,15 +7838,15 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="135"/>
-      <c r="B25" s="135"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="130"/>
       <c r="C25" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="108">
+      <c r="E25" s="62">
         <v>35927</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -7934,15 +7854,15 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="147" t="s">
+      <c r="A26" s="130"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="141" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="108">
+      <c r="E26" s="62">
         <v>35927</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -7950,13 +7870,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="135"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="115" t="s">
+      <c r="A27" s="130"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="108" t="s">
+      <c r="E27" s="62" t="s">
         <v>321</v>
       </c>
       <c r="F27" s="26" t="s">
@@ -7964,15 +7884,15 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="136"/>
-      <c r="B28" s="136"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="62" t="s">
         <v>322</v>
       </c>
       <c r="F28" s="26" t="s">
@@ -7981,6 +7901,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="A16:A20"/>
@@ -7989,25 +7928,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A21:A28"/>
     <mergeCell ref="B21:B28"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8049,20 +7969,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="128"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -8102,14 +8022,14 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="116">
+      <c r="B3" s="67">
         <v>47946073.289999999</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="116">
+      <c r="D3" s="67">
         <v>5739203</v>
       </c>
-      <c r="E3" s="116">
+      <c r="E3" s="67">
         <v>380108</v>
       </c>
       <c r="F3" s="5">
@@ -8134,9 +8054,9 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="117"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="118">
+      <c r="E4" s="69">
         <v>39853474.85093417</v>
       </c>
       <c r="F4" s="5">
@@ -8193,10 +8113,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="119">
+      <c r="C6" s="70">
         <v>8583126.4199999999</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="70">
         <v>8843221.1600000001</v>
       </c>
       <c r="E6" s="1">
@@ -8223,7 +8143,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="119"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="14">
         <v>4712457.1476300005</v>
       </c>
@@ -8381,7 +8301,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="120">
+      <c r="E12" s="71">
         <v>10018580</v>
       </c>
       <c r="F12" s="20">
@@ -9097,7 +9017,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="121">
+      <c r="E38" s="72">
         <v>6956.2101238099995</v>
       </c>
       <c r="F38" s="22">
@@ -9111,7 +9031,7 @@
       <c r="J38" s="16">
         <v>0.2</v>
       </c>
-      <c r="K38" s="122" t="s">
+      <c r="K38" s="73" t="s">
         <v>70</v>
       </c>
       <c r="L38" s="2"/>
@@ -9217,7 +9137,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="59" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3">

--- a/Data/Zones.xlsx
+++ b/Data/Zones.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="336">
   <si>
     <t>WELL</t>
   </si>
@@ -1039,7 +1039,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="dd\-mm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1684,7 +1684,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1766,12 +1766,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1826,9 +1820,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1838,7 +1829,6 @@
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1977,6 +1967,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1986,6 +2037,90 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2022,193 +2157,79 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="4" xfId="29" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="29" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="29" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="1" xfId="29" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="40" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -2587,52 +2608,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="48" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2640,14 +2661,14 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="63">
         <v>47946073.289999999</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="67">
+      <c r="D3" s="63">
         <v>5739203</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="63">
         <v>380108</v>
       </c>
       <c r="F3" s="5">
@@ -2672,9 +2693,9 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="68"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="69">
+      <c r="E4" s="65">
         <v>39853474.85093417</v>
       </c>
       <c r="F4" s="5">
@@ -2731,10 +2752,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="70">
+      <c r="C6" s="66">
         <v>8583126.4199999999</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="66">
         <v>8843221.1600000001</v>
       </c>
       <c r="E6" s="1">
@@ -2761,7 +2782,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="14">
         <v>4712457.1476300005</v>
       </c>
@@ -2917,7 +2938,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="71">
+      <c r="E12" s="67">
         <v>10018580</v>
       </c>
       <c r="F12" s="20">
@@ -3633,7 +3654,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="72">
+      <c r="E38" s="68">
         <v>6956.2101238099995</v>
       </c>
       <c r="F38" s="22">
@@ -3647,7 +3668,7 @@
       <c r="J38" s="16">
         <v>0.2</v>
       </c>
-      <c r="K38" s="73" t="s">
+      <c r="K38" s="69" t="s">
         <v>70</v>
       </c>
       <c r="L38" s="2"/>
@@ -3719,7 +3740,7 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="8">
@@ -3742,7 +3763,7 @@
         <f t="shared" si="2"/>
         <v>365054975.35191047</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="41">
         <f t="shared" si="2"/>
         <v>0.99999999998138278</v>
       </c>
@@ -3753,7 +3774,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="55" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3">
@@ -3801,21 +3822,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="20" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="42"/>
-    <col min="4" max="4" width="22" style="42" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="40"/>
+    <col min="4" max="4" width="31.77734375" style="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.44140625" customWidth="1"/>
-    <col min="6" max="7" width="40.44140625" style="178" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="106" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="106" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="106" customWidth="1"/>
-    <col min="11" max="11" width="37.44140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="184" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" style="121" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="102" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="102" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="102" customWidth="1"/>
+    <col min="11" max="11" width="37.44140625" style="103" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -3825,7 +3847,7 @@
       <c r="B1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="185" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="27" t="s">
@@ -3834,33 +3856,33 @@
       <c r="E1" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="156" t="s">
+      <c r="F1" s="105" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="105" t="s">
         <v>324</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="73" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="127" t="s">
+      <c r="B2" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -3869,58 +3891,68 @@
       <c r="E2" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="157">
+      <c r="F2" s="106">
         <v>27073</v>
       </c>
-      <c r="G2" s="157">
+      <c r="G2" s="106">
         <v>33045</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K2" s="79" t="s">
+      <c r="J2" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="75" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="128"/>
+      <c r="A3" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="186" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="13" t="s">
         <v>97</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="157">
+      <c r="F3" s="106">
         <v>27073</v>
       </c>
-      <c r="G3" s="157">
+      <c r="G3" s="106">
         <v>33045</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="74" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J3" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K3" s="79" t="s">
+      <c r="J3" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" s="75" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="127" t="s">
+      <c r="A4" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -3929,118 +3961,134 @@
       <c r="E4" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="157">
+      <c r="F4" s="106">
         <v>33922</v>
       </c>
-      <c r="G4" s="157">
+      <c r="G4" s="106">
         <v>37575</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J4" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="78" t="s">
+      <c r="J4" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="74" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="128"/>
+      <c r="A5" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="186" t="s">
+        <v>3</v>
+      </c>
       <c r="D5" s="13" t="s">
         <v>100</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="157">
+      <c r="F5" s="106">
         <v>33045</v>
       </c>
-      <c r="G5" s="157">
+      <c r="G5" s="106">
         <v>37575</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J5" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K5" s="78" t="s">
+      <c r="J5" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="74" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="139" t="s">
+      <c r="A6" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="157">
+      <c r="F6" s="106">
         <v>37561</v>
       </c>
-      <c r="G6" s="157"/>
-      <c r="H6" s="78" t="s">
+      <c r="G6" s="106"/>
+      <c r="H6" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K6" s="79" t="s">
+      <c r="J6" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="128"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="39" t="s">
+      <c r="A7" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="187" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="157">
+      <c r="F7" s="106">
         <v>37591</v>
       </c>
-      <c r="G7" s="157"/>
-      <c r="H7" s="78" t="s">
+      <c r="G7" s="106"/>
+      <c r="H7" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K7" s="79" t="s">
+      <c r="J7" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="187" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -4049,29 +4097,33 @@
       <c r="E8" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="F8" s="158">
+      <c r="F8" s="107">
         <v>27089</v>
       </c>
-      <c r="G8" s="158">
+      <c r="G8" s="107">
         <v>35765</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="J8" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="81" t="s">
+      <c r="J8" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="77" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="188" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -4080,29 +4132,33 @@
       <c r="E9" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="158">
+      <c r="F9" s="107">
         <v>35765</v>
       </c>
-      <c r="G9" s="158">
+      <c r="G9" s="107">
         <v>35765</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J9" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K9" s="82" t="s">
+      <c r="J9" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="78" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="30" t="s">
+      <c r="A10" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="188" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="30" t="s">
@@ -4111,29 +4167,33 @@
       <c r="E10" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="158">
+      <c r="F10" s="107">
         <v>35916</v>
       </c>
-      <c r="G10" s="158">
+      <c r="G10" s="107">
         <v>43221</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="81" t="s">
+      <c r="J10" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="77" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="30" t="s">
+      <c r="A11" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="188" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -4142,60 +4202,68 @@
       <c r="E11" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="158">
+      <c r="F11" s="107">
         <v>35886</v>
       </c>
-      <c r="G11" s="158">
+      <c r="G11" s="107">
         <v>35927</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J11" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K11" s="82" t="s">
+      <c r="J11" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="78" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="158">
+      <c r="F12" s="107">
         <v>35886</v>
       </c>
-      <c r="G12" s="158">
+      <c r="G12" s="107">
         <v>35927</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="81" t="s">
+      <c r="J12" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="77" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="130"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="141" t="s">
+      <c r="A13" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="188" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="30" t="s">
@@ -4204,54 +4272,64 @@
       <c r="E13" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="158">
+      <c r="F13" s="107">
         <v>35916</v>
       </c>
-      <c r="G13" s="158">
+      <c r="G13" s="107">
         <v>35927</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J13" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="81" t="s">
+      <c r="J13" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="77" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="142"/>
+      <c r="A14" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="187" t="s">
+        <v>1</v>
+      </c>
       <c r="D14" s="28" t="s">
         <v>110</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="80" t="s">
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K14" s="81" t="s">
+      <c r="J14" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="77" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="131"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="30" t="s">
+      <c r="A15" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="179" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="188" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="30" t="s">
@@ -4260,29 +4338,29 @@
       <c r="E15" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="80" t="s">
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="J15" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="K15" s="81" t="s">
+      <c r="J15" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K15" s="77" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -4291,29 +4369,33 @@
       <c r="E16" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="159">
+      <c r="F16" s="108">
         <v>27181</v>
       </c>
-      <c r="G16" s="159">
+      <c r="G16" s="108">
         <v>35735</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="83" t="s">
+      <c r="I16" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J16" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K16" s="84" t="s">
+      <c r="J16" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="80" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="125"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="32" t="s">
+      <c r="A17" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -4322,29 +4404,33 @@
       <c r="E17" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="159">
+      <c r="F17" s="108">
         <v>35735</v>
       </c>
-      <c r="G17" s="159">
+      <c r="G17" s="108">
         <v>41548</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="I17" s="83" t="s">
+      <c r="I17" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="J17" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K17" s="83" t="s">
+      <c r="J17" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="79" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -4353,31 +4439,31 @@
       <c r="E18" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F18" s="159">
+      <c r="F18" s="108">
         <v>41548</v>
       </c>
-      <c r="G18" s="159"/>
-      <c r="H18" s="78" t="s">
+      <c r="G18" s="108"/>
+      <c r="H18" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J18" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K18" s="84" t="s">
+      <c r="J18" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="80" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -4386,29 +4472,33 @@
       <c r="E19" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="160">
+      <c r="F19" s="109">
         <v>27257</v>
       </c>
-      <c r="G19" s="160">
+      <c r="G19" s="109">
         <v>37967</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J19" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K19" s="79" t="s">
+      <c r="J19" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K19" s="75" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="132"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -4417,27 +4507,31 @@
       <c r="E20" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="160">
+      <c r="F20" s="109">
         <v>27288</v>
       </c>
-      <c r="G20" s="160"/>
-      <c r="H20" s="78" t="s">
+      <c r="G20" s="109"/>
+      <c r="H20" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J20" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K20" s="79" t="s">
+      <c r="J20" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="75" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="132"/>
-      <c r="B21" s="132"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -4446,27 +4540,31 @@
       <c r="E21" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F21" s="160">
+      <c r="F21" s="109">
         <v>27318</v>
       </c>
-      <c r="G21" s="160"/>
-      <c r="H21" s="78" t="s">
+      <c r="G21" s="109"/>
+      <c r="H21" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I21" s="78" t="s">
+      <c r="I21" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J21" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K21" s="79" t="s">
+      <c r="J21" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="132"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -4475,27 +4573,31 @@
       <c r="E22" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="109">
         <v>27349</v>
       </c>
-      <c r="G22" s="160"/>
-      <c r="H22" s="78" t="s">
+      <c r="G22" s="109"/>
+      <c r="H22" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I22" s="78" t="s">
+      <c r="I22" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J22" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K22" s="79" t="s">
+      <c r="J22" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="132"/>
-      <c r="B23" s="132"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -4504,27 +4606,31 @@
       <c r="E23" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F23" s="160">
+      <c r="F23" s="109">
         <v>27379</v>
       </c>
-      <c r="G23" s="160"/>
-      <c r="H23" s="78" t="s">
+      <c r="G23" s="109"/>
+      <c r="H23" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I23" s="78" t="s">
+      <c r="I23" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J23" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K23" s="79" t="s">
+      <c r="J23" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="132"/>
-      <c r="B24" s="132"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -4533,27 +4639,31 @@
       <c r="E24" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F24" s="160">
+      <c r="F24" s="109">
         <v>27410</v>
       </c>
-      <c r="G24" s="160"/>
-      <c r="H24" s="78" t="s">
+      <c r="G24" s="109"/>
+      <c r="H24" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="78" t="s">
+      <c r="I24" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J24" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" s="79" t="s">
+      <c r="J24" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="132"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -4562,27 +4672,31 @@
       <c r="E25" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F25" s="160">
+      <c r="F25" s="109">
         <v>27441</v>
       </c>
-      <c r="G25" s="160"/>
-      <c r="H25" s="78" t="s">
+      <c r="G25" s="109"/>
+      <c r="H25" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I25" s="78" t="s">
+      <c r="I25" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J25" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K25" s="79" t="s">
+      <c r="J25" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="132"/>
-      <c r="B26" s="132"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -4591,341 +4705,393 @@
       <c r="E26" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F26" s="160">
+      <c r="F26" s="109">
         <v>27469</v>
       </c>
-      <c r="G26" s="160"/>
-      <c r="H26" s="78" t="s">
+      <c r="G26" s="109"/>
+      <c r="H26" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I26" s="78" t="s">
+      <c r="I26" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J26" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K26" s="79" t="s">
+      <c r="J26" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K26" s="75" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="128"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="13"/>
+      <c r="A27" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="186"/>
       <c r="D27" s="18"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K27" s="79"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" s="75"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="158">
+      <c r="F28" s="107">
         <v>30864</v>
       </c>
-      <c r="G28" s="158">
+      <c r="G28" s="107">
         <v>35462</v>
       </c>
-      <c r="H28" s="85" t="s">
+      <c r="H28" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I28" s="85" t="s">
+      <c r="I28" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J28" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="81" t="s">
+      <c r="J28" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" s="77" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="35" t="s">
+      <c r="A29" s="178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="158">
+      <c r="F29" s="107">
         <v>30895</v>
       </c>
-      <c r="G29" s="158">
+      <c r="G29" s="107">
         <v>37834</v>
       </c>
-      <c r="H29" s="85" t="s">
+      <c r="H29" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="I29" s="85" t="s">
+      <c r="I29" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="J29" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K29" s="81" t="s">
+      <c r="J29" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" s="77" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="130"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="129" t="s">
+      <c r="A30" s="178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="189" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="F30" s="158">
+      <c r="F30" s="107">
         <v>30926</v>
       </c>
-      <c r="G30" s="158"/>
-      <c r="H30" s="85" t="s">
+      <c r="G30" s="107"/>
+      <c r="H30" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="85" t="s">
+      <c r="I30" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="J30" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K30" s="81" t="s">
+      <c r="J30" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" s="77" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="131"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="131"/>
-      <c r="D31" s="35" t="s">
+      <c r="A31" s="178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="189"/>
+      <c r="D31" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="F31" s="158">
+      <c r="F31" s="107">
         <v>30956</v>
       </c>
-      <c r="G31" s="158"/>
-      <c r="H31" s="85" t="s">
+      <c r="G31" s="107"/>
+      <c r="H31" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I31" s="85" t="s">
+      <c r="I31" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="J31" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K31" s="81" t="s">
+      <c r="J31" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" s="77" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="124" t="s">
+    <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="124" t="s">
+      <c r="B32" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="124" t="s">
+      <c r="D32" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="124" t="s">
+      <c r="E32" s="180" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="169">
+      <c r="F32" s="183">
         <v>31382</v>
       </c>
-      <c r="G32" s="161"/>
-      <c r="H32" s="136" t="s">
+      <c r="G32" s="143"/>
+      <c r="H32" s="130" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="136" t="s">
+      <c r="I32" s="130" t="s">
         <v>264</v>
       </c>
-      <c r="J32" s="136" t="s">
+      <c r="J32" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="K32" s="118" t="s">
+      <c r="K32" s="163" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="125"/>
-      <c r="B33" s="125"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="125"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="162"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="118"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="126"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="163"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="138"/>
-      <c r="K34" s="118"/>
+    <row r="33" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="180" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" s="183">
+        <v>31382</v>
+      </c>
+      <c r="G33" s="144"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
+      <c r="K33" s="163"/>
+    </row>
+    <row r="34" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="180" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" s="183">
+        <v>31382</v>
+      </c>
+      <c r="G34" s="145"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="163"/>
     </row>
     <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="127" t="s">
+      <c r="A35" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="127" t="s">
+      <c r="B35" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="177" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="127" t="s">
+      <c r="E35" s="177" t="s">
         <v>264</v>
       </c>
-      <c r="F35" s="180">
+      <c r="F35" s="192">
         <v>26967</v>
       </c>
-      <c r="G35" s="164">
+      <c r="G35" s="146">
         <v>31532</v>
       </c>
-      <c r="H35" s="143" t="s">
+      <c r="H35" s="133" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="143" t="s">
+      <c r="I35" s="133" t="s">
         <v>264</v>
       </c>
-      <c r="J35" s="143" t="s">
+      <c r="J35" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="K35" s="119" t="s">
+      <c r="K35" s="164" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="128"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="181"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="120"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="191" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="177" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="177" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="192">
+        <v>26967</v>
+      </c>
+      <c r="G36" s="147"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
+      <c r="J36" s="134"/>
+      <c r="K36" s="165"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="129" t="s">
+      <c r="A37" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="35" t="s">
+      <c r="B37" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="35" t="s">
+      <c r="E37" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="158">
+      <c r="F37" s="107">
         <v>30853</v>
       </c>
-      <c r="G37" s="158">
+      <c r="G37" s="107">
         <v>36980</v>
       </c>
-      <c r="H37" s="85" t="s">
+      <c r="H37" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J37" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K37" s="85" t="s">
+      <c r="J37" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="81" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="131"/>
-      <c r="B38" s="131"/>
-      <c r="C38" s="35" t="s">
+      <c r="A38" s="137"/>
+      <c r="B38" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="158">
+      <c r="F38" s="107">
         <v>36980</v>
       </c>
-      <c r="G38" s="158">
+      <c r="G38" s="107">
         <v>37864</v>
       </c>
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="85" t="s">
+      <c r="I38" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="J38" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K38" s="85" t="s">
+      <c r="J38" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="81" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="124" t="s">
+      <c r="A39" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="32" t="s">
@@ -4934,30 +5100,34 @@
       <c r="E39" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="166">
+      <c r="F39" s="110">
         <v>26969</v>
       </c>
-      <c r="G39" s="166">
+      <c r="G39" s="110">
         <v>30011</v>
       </c>
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="I39" s="83" t="s">
+      <c r="I39" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J39" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K39" s="75" t="s">
+      <c r="J39" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="M39" s="111"/>
+      <c r="M39" s="156"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="125"/>
-      <c r="B40" s="125"/>
-      <c r="C40" s="32" t="s">
+      <c r="A40" s="180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="32" t="s">
@@ -4966,30 +5136,34 @@
       <c r="E40" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="166">
+      <c r="F40" s="110">
         <v>26969</v>
       </c>
-      <c r="G40" s="166">
+      <c r="G40" s="110">
         <v>30011</v>
       </c>
-      <c r="H40" s="83" t="s">
+      <c r="H40" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="I40" s="83" t="s">
+      <c r="I40" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J40" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K40" s="75" t="s">
+      <c r="J40" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="M40" s="111"/>
+      <c r="M40" s="156"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="125"/>
-      <c r="B41" s="125"/>
-      <c r="C41" s="32" t="s">
+      <c r="A41" s="180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="32" t="s">
@@ -4998,30 +5172,34 @@
       <c r="E41" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F41" s="166">
+      <c r="F41" s="110">
         <v>30348</v>
       </c>
-      <c r="G41" s="166">
+      <c r="G41" s="110">
         <v>37742</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="I41" s="83" t="s">
+      <c r="I41" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K41" s="75" t="s">
+      <c r="J41" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="74"/>
+      <c r="O41" s="70"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="125"/>
-      <c r="B42" s="125"/>
-      <c r="C42" s="32" t="s">
+      <c r="A42" s="180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="32" t="s">
@@ -5030,29 +5208,33 @@
       <c r="E42" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="166">
+      <c r="F42" s="110">
         <v>30011</v>
       </c>
-      <c r="G42" s="166">
+      <c r="G42" s="110">
         <v>30348</v>
       </c>
-      <c r="H42" s="83" t="s">
+      <c r="H42" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="83" t="s">
+      <c r="I42" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="J42" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K42" s="75" t="s">
+      <c r="J42" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="71" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="126"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="32" t="s">
+      <c r="A43" s="180" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="32" t="s">
@@ -5061,33 +5243,33 @@
       <c r="E43" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F43" s="166">
+      <c r="F43" s="110">
         <v>37742</v>
       </c>
-      <c r="G43" s="166">
+      <c r="G43" s="110">
         <v>43282</v>
       </c>
-      <c r="H43" s="83" t="s">
+      <c r="H43" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="I43" s="83" t="s">
+      <c r="I43" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="J43" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K43" s="75" t="s">
+      <c r="J43" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" s="71" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="127" t="s">
+    <row r="44" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="36" t="s">
+      <c r="B44" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -5096,29 +5278,33 @@
       <c r="E44" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="160">
+      <c r="F44" s="109">
         <v>31156</v>
       </c>
-      <c r="G44" s="160">
+      <c r="G44" s="109">
         <v>34090</v>
       </c>
-      <c r="H44" s="78" t="s">
+      <c r="H44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="I44" s="78" t="s">
+      <c r="I44" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J44" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K44" s="86" t="s">
+      <c r="J44" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" s="82" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="132"/>
-      <c r="B45" s="132"/>
-      <c r="C45" s="13" t="s">
+    <row r="45" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="182" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -5127,29 +5313,33 @@
       <c r="E45" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F45" s="160">
+      <c r="F45" s="109">
         <v>37500</v>
       </c>
-      <c r="G45" s="160">
+      <c r="G45" s="109">
         <v>37500</v>
       </c>
-      <c r="H45" s="78" t="s">
+      <c r="H45" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="I45" s="78" t="s">
+      <c r="I45" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="J45" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K45" s="87" t="s">
+      <c r="J45" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K45" s="83" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="128"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="36" t="s">
+    <row r="46" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -5158,129 +5348,153 @@
       <c r="E46" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="160">
+      <c r="F46" s="109">
         <v>34090</v>
       </c>
-      <c r="G46" s="160">
+      <c r="G46" s="109">
         <v>34366</v>
       </c>
-      <c r="H46" s="78" t="s">
+      <c r="H46" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="I46" s="78" t="s">
+      <c r="I46" s="74" t="s">
         <v>226</v>
       </c>
-      <c r="J46" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K46" s="87" t="s">
+      <c r="J46" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K46" s="83" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="129" t="s">
+    <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="178" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="129" t="s">
+      <c r="B47" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="129" t="s">
+      <c r="D47" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="129" t="s">
+      <c r="E47" s="178" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="182">
+      <c r="F47" s="122">
         <v>26937</v>
       </c>
-      <c r="G47" s="167">
+      <c r="G47" s="111">
         <v>34151</v>
       </c>
-      <c r="H47" s="147" t="s">
+      <c r="H47" s="148" t="s">
         <v>264</v>
       </c>
-      <c r="I47" s="147" t="s">
+      <c r="I47" s="148" t="s">
         <v>264</v>
       </c>
-      <c r="J47" s="147" t="s">
+      <c r="J47" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="K47" s="121" t="s">
+      <c r="K47" s="166" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="131"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="122"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="124" t="s">
+      <c r="A48" s="178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="178" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" s="178" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="122">
+        <v>26937</v>
+      </c>
+      <c r="G48" s="112"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="167"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="124" t="s">
+      <c r="B49" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="186" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="124" t="s">
+      <c r="D49" s="180" t="s">
         <v>199</v>
       </c>
-      <c r="E49" s="124" t="s">
+      <c r="E49" s="180" t="s">
         <v>264</v>
       </c>
-      <c r="F49" s="184">
+      <c r="F49" s="113">
         <v>27364</v>
       </c>
-      <c r="G49" s="169">
+      <c r="G49" s="128">
         <v>31382</v>
       </c>
-      <c r="H49" s="136" t="s">
+      <c r="H49" s="130" t="s">
         <v>264</v>
       </c>
-      <c r="I49" s="136" t="s">
+      <c r="I49" s="130" t="s">
         <v>264</v>
       </c>
-      <c r="J49" s="136" t="s">
+      <c r="J49" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="118" t="s">
+      <c r="K49" s="163" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="126"/>
-      <c r="B50" s="126"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="184"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="118"/>
+    <row r="50" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="186" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="180" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="180" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" s="113">
+        <v>27364</v>
+      </c>
+      <c r="G50" s="129"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="163"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="127" t="s">
+      <c r="A51" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="13" t="s">
+      <c r="B51" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="186" t="s">
         <v>142</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -5289,29 +5503,33 @@
       <c r="E51" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F51" s="160">
+      <c r="F51" s="109">
         <v>27261</v>
       </c>
-      <c r="G51" s="160">
+      <c r="G51" s="109">
         <v>32174</v>
       </c>
-      <c r="H51" s="78" t="s">
+      <c r="H51" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="I51" s="78" t="s">
+      <c r="I51" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="J51" s="78" t="s">
+      <c r="J51" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="K51" s="86" t="s">
+      <c r="K51" s="82" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="128"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="13" t="s">
+      <c r="A52" s="177" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -5320,186 +5538,206 @@
       <c r="E52" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F52" s="160">
+      <c r="F52" s="109">
         <v>32196</v>
       </c>
-      <c r="G52" s="160">
+      <c r="G52" s="109">
         <v>34304</v>
       </c>
-      <c r="H52" s="78" t="s">
+      <c r="H52" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="I52" s="78" t="s">
+      <c r="I52" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J52" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K52" s="86" t="s">
+      <c r="J52" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K52" s="82" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="129" t="s">
+      <c r="A53" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="33" t="s">
+      <c r="B53" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="35" t="s">
+      <c r="D53" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="F53" s="171">
+      <c r="F53" s="114">
         <v>30875</v>
       </c>
-      <c r="G53" s="158"/>
-      <c r="H53" s="85" t="s">
+      <c r="G53" s="107"/>
+      <c r="H53" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I53" s="85" t="s">
+      <c r="I53" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J53" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K53" s="88" t="s">
+      <c r="J53" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K53" s="84" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="130"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="35" t="s">
+      <c r="A54" s="178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="171">
+      <c r="F54" s="114">
         <v>30896</v>
       </c>
-      <c r="G54" s="171">
+      <c r="G54" s="114">
         <v>36628</v>
       </c>
-      <c r="H54" s="85" t="s">
+      <c r="H54" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I54" s="85" t="s">
+      <c r="I54" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J54" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K54" s="89" t="s">
+      <c r="J54" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K54" s="85" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="130"/>
-      <c r="B55" s="130"/>
-      <c r="C55" s="129" t="s">
+      <c r="A55" s="178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="171">
+      <c r="F55" s="114">
         <v>36630</v>
       </c>
-      <c r="G55" s="158">
+      <c r="G55" s="107">
         <v>39417</v>
       </c>
-      <c r="H55" s="85" t="s">
+      <c r="H55" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I55" s="85" t="s">
+      <c r="I55" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="J55" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K55" s="81" t="s">
+      <c r="J55" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K55" s="77" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="130"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="130"/>
-      <c r="D56" s="35" t="s">
+      <c r="A56" s="178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="171">
+      <c r="F56" s="114">
         <v>36630</v>
       </c>
-      <c r="G56" s="158">
+      <c r="G56" s="107">
         <v>39417</v>
       </c>
-      <c r="H56" s="85" t="s">
+      <c r="H56" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I56" s="85" t="s">
+      <c r="I56" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="J56" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K56" s="81" t="s">
+      <c r="J56" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K56" s="77" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="131"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="35" t="s">
+      <c r="A57" s="178" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F57" s="171">
+      <c r="F57" s="114">
         <v>37882</v>
       </c>
-      <c r="G57" s="158">
+      <c r="G57" s="107">
         <v>39417</v>
       </c>
-      <c r="H57" s="85" t="s">
+      <c r="H57" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I57" s="85" t="s">
+      <c r="I57" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="J57" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K57" s="81" t="s">
+      <c r="J57" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K57" s="77" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="124" t="s">
+      <c r="A58" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="38" t="s">
+      <c r="B58" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="32" t="s">
@@ -5508,29 +5746,33 @@
       <c r="E58" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F58" s="172">
+      <c r="F58" s="115">
         <v>1974</v>
       </c>
-      <c r="G58" s="172">
+      <c r="G58" s="115">
         <v>28460</v>
       </c>
-      <c r="H58" s="83" t="s">
+      <c r="H58" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="I58" s="83" t="s">
+      <c r="I58" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J58" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K58" s="90" t="s">
+      <c r="J58" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K58" s="86" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="126"/>
-      <c r="B59" s="134"/>
-      <c r="C59" s="32" t="s">
+      <c r="A59" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="32" t="s">
@@ -5539,221 +5781,239 @@
       <c r="E59" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F59" s="172">
+      <c r="F59" s="115">
         <v>1977</v>
       </c>
-      <c r="G59" s="172">
+      <c r="G59" s="115">
         <v>31382</v>
       </c>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83" t="s">
+      <c r="H59" s="79"/>
+      <c r="I59" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J59" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K59" s="90" t="s">
+      <c r="J59" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K59" s="86" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="127" t="s">
+      <c r="A60" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="36" t="s">
+      <c r="B60" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="F60" s="160">
+      <c r="F60" s="109">
         <v>38087</v>
       </c>
-      <c r="G60" s="160">
+      <c r="G60" s="109">
         <v>28369</v>
       </c>
-      <c r="H60" s="91" t="s">
+      <c r="H60" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="I60" s="91" t="s">
+      <c r="I60" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="J60" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K60" s="87" t="s">
+      <c r="J60" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="K60" s="83" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="132"/>
-      <c r="B61" s="132"/>
-      <c r="C61" s="127" t="s">
+      <c r="A61" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="189" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="F61" s="160">
+      <c r="F61" s="109">
         <v>27649</v>
       </c>
-      <c r="G61" s="160">
+      <c r="G61" s="109">
         <v>38087</v>
       </c>
-      <c r="H61" s="91" t="s">
+      <c r="H61" s="87" t="s">
         <v>215</v>
       </c>
-      <c r="I61" s="91" t="s">
+      <c r="I61" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="J61" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K61" s="87" t="s">
+      <c r="J61" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="K61" s="83" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="128"/>
-      <c r="B62" s="128"/>
-      <c r="C62" s="128"/>
+      <c r="A62" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="189"/>
       <c r="D62" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F62" s="160">
+      <c r="F62" s="109">
         <v>26716</v>
       </c>
-      <c r="G62" s="160">
+      <c r="G62" s="109">
         <v>28328</v>
       </c>
-      <c r="H62" s="91" t="s">
+      <c r="H62" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="I62" s="91" t="s">
+      <c r="I62" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="J62" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K62" s="87" t="s">
+      <c r="J62" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="K62" s="83" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="129" t="s">
+      <c r="A63" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="129" t="s">
+      <c r="B63" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="F63" s="171">
+      <c r="F63" s="114">
         <v>26347</v>
       </c>
-      <c r="G63" s="158">
+      <c r="G63" s="107">
         <v>37561</v>
       </c>
-      <c r="H63" s="85" t="s">
+      <c r="H63" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="85" t="s">
+      <c r="I63" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J63" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K63" s="81" t="s">
+      <c r="J63" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K63" s="77" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="130"/>
-      <c r="B64" s="130"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="35" t="s">
+      <c r="A64" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="F64" s="171">
+      <c r="F64" s="114">
         <v>26406</v>
       </c>
-      <c r="G64" s="158">
+      <c r="G64" s="107">
         <v>37561</v>
       </c>
-      <c r="H64" s="85" t="s">
+      <c r="H64" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="85" t="s">
+      <c r="I64" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J64" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K64" s="81" t="s">
+      <c r="J64" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K64" s="77" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="131"/>
-      <c r="B65" s="131"/>
-      <c r="C65" s="35" t="s">
+      <c r="A65" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="F65" s="171">
+      <c r="F65" s="114">
         <v>26347</v>
       </c>
-      <c r="G65" s="171">
+      <c r="G65" s="114">
         <v>26385</v>
       </c>
-      <c r="H65" s="85" t="s">
+      <c r="H65" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="I65" s="85" t="s">
+      <c r="I65" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J65" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K65" s="81" t="s">
+      <c r="J65" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K65" s="77" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="124" t="s">
+    <row r="66" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="32" t="s">
+      <c r="B66" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="32" t="s">
@@ -5762,23 +6022,27 @@
       <c r="E66" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F66" s="172">
+      <c r="F66" s="115">
         <v>26875</v>
       </c>
-      <c r="G66" s="172">
+      <c r="G66" s="115">
         <v>29839</v>
       </c>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="92" t="s">
+      <c r="H66" s="79"/>
+      <c r="I66" s="79"/>
+      <c r="J66" s="79"/>
+      <c r="K66" s="88" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="126"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="32" t="s">
+    <row r="67" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="180" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="32" t="s">
@@ -5787,27 +6051,27 @@
       <c r="E67" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F67" s="173">
+      <c r="F67" s="123">
         <v>30194</v>
       </c>
-      <c r="G67" s="173">
+      <c r="G67" s="116">
         <v>30194</v>
       </c>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="92" t="s">
+      <c r="H67" s="79"/>
+      <c r="I67" s="79"/>
+      <c r="J67" s="79"/>
+      <c r="K67" s="88" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="127" t="s">
+    <row r="68" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="177" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="13" t="s">
@@ -5816,29 +6080,33 @@
       <c r="E68" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="160">
+      <c r="F68" s="109">
         <v>26861</v>
       </c>
-      <c r="G68" s="174">
+      <c r="G68" s="117">
         <v>27242</v>
       </c>
-      <c r="H68" s="78" t="s">
+      <c r="H68" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="I68" s="78" t="s">
+      <c r="I68" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="J68" s="78" t="s">
+      <c r="J68" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="K68" s="86" t="s">
+      <c r="K68" s="82" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="128"/>
-      <c r="B69" s="128"/>
-      <c r="C69" s="13" t="s">
+      <c r="A69" s="177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -5847,146 +6115,162 @@
       <c r="E69" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="160">
+      <c r="F69" s="109">
         <v>27242</v>
       </c>
-      <c r="G69" s="174">
+      <c r="G69" s="117">
         <v>28156</v>
       </c>
-      <c r="H69" s="78" t="s">
+      <c r="H69" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="I69" s="78" t="s">
+      <c r="I69" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J69" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K69" s="86" t="s">
+      <c r="J69" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K69" s="82" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="129" t="s">
+      <c r="A70" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="129" t="s">
+      <c r="B70" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="171">
+      <c r="F70" s="114">
         <v>28548</v>
       </c>
-      <c r="G70" s="171">
+      <c r="G70" s="114">
         <v>34829</v>
       </c>
-      <c r="H70" s="85" t="s">
+      <c r="H70" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I70" s="85" t="s">
+      <c r="I70" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J70" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K70" s="93" t="s">
+      <c r="J70" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K70" s="89" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="130"/>
-      <c r="B71" s="130"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="35" t="s">
+      <c r="A71" s="178" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="190" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E71" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="171">
+      <c r="F71" s="114">
         <v>26785</v>
       </c>
-      <c r="G71" s="171">
+      <c r="G71" s="114">
         <v>28548</v>
       </c>
-      <c r="H71" s="85" t="s">
+      <c r="H71" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I71" s="85" t="s">
+      <c r="I71" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J71" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K71" s="93" t="s">
+      <c r="J71" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K71" s="89" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="130"/>
-      <c r="B72" s="130"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="35" t="s">
+      <c r="A72" s="178" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="190" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="35" t="s">
+      <c r="E72" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="171">
+      <c r="F72" s="114">
         <v>26688</v>
       </c>
-      <c r="G72" s="171">
+      <c r="G72" s="114">
         <v>26785</v>
       </c>
-      <c r="H72" s="85" t="s">
+      <c r="H72" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="85" t="s">
+      <c r="I72" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J72" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K72" s="93" t="s">
+      <c r="J72" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K72" s="89" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="131"/>
-      <c r="B73" s="131"/>
-      <c r="C73" s="34" t="s">
+      <c r="A73" s="178" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="41" t="s">
+      <c r="D73" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E73" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="171">
+      <c r="F73" s="114">
         <v>26688</v>
       </c>
-      <c r="G73" s="171">
+      <c r="G73" s="114">
         <v>26785</v>
       </c>
-      <c r="H73" s="85" t="s">
+      <c r="H73" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="I73" s="85" t="s">
+      <c r="I73" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J73" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K73" s="93" t="s">
+      <c r="J73" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K73" s="89" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5994,10 +6278,10 @@
       <c r="A74" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="32" t="s">
+      <c r="B74" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="32" t="s">
@@ -6006,33 +6290,33 @@
       <c r="E74" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F74" s="172">
+      <c r="F74" s="115">
         <v>26846</v>
       </c>
-      <c r="G74" s="172">
+      <c r="G74" s="115">
         <v>26908</v>
       </c>
-      <c r="H74" s="83" t="s">
+      <c r="H74" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="I74" s="83" t="s">
+      <c r="I74" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J74" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K74" s="94" t="s">
+      <c r="J74" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K74" s="90" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B75" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" s="37" t="s">
+      <c r="B75" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -6041,153 +6325,167 @@
       <c r="E75" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="109">
         <v>27098</v>
       </c>
-      <c r="G75" s="160">
+      <c r="G75" s="109">
         <v>27334</v>
       </c>
-      <c r="H75" s="78" t="s">
+      <c r="H75" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="78" t="s">
+      <c r="I75" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J75" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K75" s="86" t="s">
+      <c r="J75" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K75" s="82" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="113" t="s">
+      <c r="A76" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="54" t="s">
+      <c r="B76" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="E76" s="54" t="s">
+      <c r="E76" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="F76" s="175">
+      <c r="F76" s="118">
         <v>29434</v>
       </c>
-      <c r="G76" s="175"/>
-      <c r="H76" s="95" t="s">
+      <c r="G76" s="118"/>
+      <c r="H76" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="I76" s="95" t="s">
+      <c r="I76" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J76" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="K76" s="96" t="s">
+      <c r="J76" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K76" s="92" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="114"/>
-      <c r="B77" s="114"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="54" t="s">
+      <c r="A77" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="E77" s="54" t="s">
+      <c r="E77" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="F77" s="175">
+      <c r="F77" s="118">
         <v>29434</v>
       </c>
-      <c r="G77" s="175"/>
-      <c r="H77" s="95" t="s">
+      <c r="G77" s="118"/>
+      <c r="H77" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="I77" s="95" t="s">
+      <c r="I77" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J77" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="K77" s="96" t="s">
+      <c r="J77" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K77" s="92" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="123"/>
-      <c r="B78" s="123"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54" t="s">
+      <c r="A78" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="E78" s="54" t="s">
+      <c r="E78" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="F78" s="175">
+      <c r="F78" s="118">
         <v>29434</v>
       </c>
-      <c r="G78" s="175"/>
-      <c r="H78" s="95" t="s">
+      <c r="G78" s="118"/>
+      <c r="H78" s="91" t="s">
         <v>303</v>
       </c>
-      <c r="I78" s="95" t="s">
+      <c r="I78" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J78" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="K78" s="97" t="s">
+      <c r="J78" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K78" s="93" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B79" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" s="35" t="s">
+      <c r="B79" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="E79" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F79" s="185">
+      <c r="F79" s="124">
         <v>30133</v>
       </c>
-      <c r="G79" s="158">
+      <c r="G79" s="107">
         <v>30286</v>
       </c>
-      <c r="H79" s="85" t="s">
+      <c r="H79" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I79" s="85" t="s">
+      <c r="I79" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J79" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K79" s="93" t="s">
+      <c r="J79" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K79" s="89" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="32" t="s">
+      <c r="B80" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="32" t="s">
@@ -6196,128 +6494,134 @@
       <c r="E80" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F80" s="172">
+      <c r="F80" s="115">
         <v>27303</v>
       </c>
-      <c r="G80" s="172">
+      <c r="G80" s="115">
         <v>27881</v>
       </c>
-      <c r="H80" s="83" t="s">
+      <c r="H80" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="I80" s="83" t="s">
+      <c r="I80" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J80" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K80" s="98" t="s">
+      <c r="J80" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K80" s="94" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="129" t="s">
+      <c r="A81" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="35" t="s">
+      <c r="B81" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F81" s="158">
+      <c r="F81" s="107">
         <v>27794</v>
       </c>
-      <c r="G81" s="158">
+      <c r="G81" s="107">
         <v>28946</v>
       </c>
-      <c r="H81" s="85" t="s">
+      <c r="H81" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="I81" s="85" t="s">
+      <c r="I81" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J81" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K81" s="93" t="s">
+      <c r="J81" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K81" s="89" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="130"/>
-      <c r="B82" s="130"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35" t="s">
+      <c r="A82" s="136"/>
+      <c r="B82" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E82" s="35" t="s">
+      <c r="E82" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F82" s="158">
+      <c r="F82" s="107">
         <v>28946</v>
       </c>
-      <c r="G82" s="158">
+      <c r="G82" s="107">
         <v>28946</v>
       </c>
-      <c r="H82" s="85" t="s">
+      <c r="H82" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="I82" s="85" t="s">
+      <c r="I82" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J82" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K82" s="93" t="s">
+      <c r="J82" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K82" s="89" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="131"/>
-      <c r="B83" s="131"/>
-      <c r="C83" s="35" t="s">
+      <c r="A83" s="137"/>
+      <c r="B83" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F83" s="158">
+      <c r="F83" s="107">
         <v>30590</v>
       </c>
-      <c r="G83" s="158">
+      <c r="G83" s="107">
         <v>30560</v>
       </c>
-      <c r="H83" s="85" t="s">
+      <c r="H83" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="I83" s="85" t="s">
+      <c r="I83" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J83" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K83" s="93" t="s">
+      <c r="J83" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K83" s="89" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="124" t="s">
+      <c r="A84" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="32" t="s">
+      <c r="B84" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="32" t="s">
@@ -6326,29 +6630,31 @@
       <c r="E84" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F84" s="172">
+      <c r="F84" s="115">
         <v>27048</v>
       </c>
-      <c r="G84" s="173">
+      <c r="G84" s="116">
         <v>28430</v>
       </c>
-      <c r="H84" s="83" t="s">
+      <c r="H84" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="I84" s="83" t="s">
+      <c r="I84" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J84" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K84" s="98" t="s">
+      <c r="J84" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K84" s="94" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="126"/>
-      <c r="B85" s="126"/>
-      <c r="C85" s="32" t="s">
+      <c r="A85" s="140"/>
+      <c r="B85" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="32" t="s">
@@ -6357,33 +6663,33 @@
       <c r="E85" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="F85" s="172">
+      <c r="F85" s="115">
         <v>28453</v>
       </c>
-      <c r="G85" s="173">
+      <c r="G85" s="116">
         <v>31685</v>
       </c>
-      <c r="H85" s="83" t="s">
+      <c r="H85" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="I85" s="83" t="s">
+      <c r="I85" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J85" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K85" s="98" t="s">
+      <c r="J85" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K85" s="94" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="127" t="s">
+      <c r="A86" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="13" t="s">
+      <c r="B86" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="13" t="s">
@@ -6392,29 +6698,31 @@
       <c r="E86" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F86" s="160">
+      <c r="F86" s="109">
         <v>27210</v>
       </c>
-      <c r="G86" s="174">
+      <c r="G86" s="117">
         <v>29221</v>
       </c>
-      <c r="H86" s="78" t="s">
+      <c r="H86" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="I86" s="78" t="s">
+      <c r="I86" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J86" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K86" s="99" t="s">
+      <c r="J86" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K86" s="95" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="128"/>
-      <c r="B87" s="128"/>
-      <c r="C87" s="13" t="s">
+      <c r="A87" s="142"/>
+      <c r="B87" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -6423,132 +6731,134 @@
       <c r="E87" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F87" s="160">
+      <c r="F87" s="109">
         <v>27210</v>
       </c>
-      <c r="G87" s="174">
+      <c r="G87" s="117">
         <v>29221</v>
       </c>
-      <c r="H87" s="78" t="s">
+      <c r="H87" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="I87" s="78" t="s">
+      <c r="I87" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J87" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K87" s="99" t="s">
+      <c r="J87" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K87" s="95" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="129" t="s">
+      <c r="A88" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B88" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="129" t="s">
+      <c r="B88" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="35" t="s">
+      <c r="D88" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E88" s="35" t="s">
+      <c r="E88" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="158">
+      <c r="F88" s="107">
         <v>27242</v>
       </c>
-      <c r="G88" s="158">
+      <c r="G88" s="107">
         <v>27768</v>
       </c>
-      <c r="H88" s="85" t="s">
+      <c r="H88" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="I88" s="85" t="s">
+      <c r="I88" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J88" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K88" s="93" t="s">
+      <c r="J88" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K88" s="89" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="131"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="35" t="s">
+      <c r="A89" s="137"/>
+      <c r="B89" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="189"/>
+      <c r="D89" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E89" s="35" t="s">
+      <c r="E89" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="158">
+      <c r="F89" s="107">
         <v>27768</v>
       </c>
-      <c r="G89" s="158">
+      <c r="G89" s="107">
         <v>38718</v>
       </c>
-      <c r="H89" s="85" t="s">
+      <c r="H89" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I89" s="85" t="s">
+      <c r="I89" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J89" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K89" s="93" t="s">
+      <c r="J89" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K89" s="89" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="38" t="s">
+    <row r="90" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="B90" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="38" t="s">
+      <c r="B90" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="E90" s="38" t="s">
+      <c r="E90" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="F90" s="172">
+      <c r="F90" s="115">
         <v>27169</v>
       </c>
-      <c r="G90" s="172">
+      <c r="G90" s="115">
         <v>28579</v>
       </c>
-      <c r="H90" s="100" t="s">
+      <c r="H90" s="96" t="s">
         <v>208</v>
       </c>
-      <c r="I90" s="100" t="s">
+      <c r="I90" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="J90" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="K90" s="90" t="s">
+      <c r="J90" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="K90" s="86" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="127" t="s">
+      <c r="A91" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B91" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="127" t="s">
+      <c r="B91" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="189" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="13" t="s">
@@ -6557,219 +6867,229 @@
       <c r="E91" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F91" s="160">
+      <c r="F91" s="109">
         <v>27388</v>
       </c>
-      <c r="G91" s="174">
+      <c r="G91" s="117">
         <v>2002</v>
       </c>
-      <c r="H91" s="78" t="s">
+      <c r="H91" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I91" s="78" t="s">
+      <c r="I91" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J91" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K91" s="99" t="s">
+      <c r="J91" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K91" s="95" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="132"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="132"/>
+      <c r="A92" s="152"/>
+      <c r="B92" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="189"/>
       <c r="D92" s="13" t="s">
         <v>179</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F92" s="160">
+      <c r="F92" s="109">
         <v>27139</v>
       </c>
-      <c r="G92" s="160">
+      <c r="G92" s="109">
         <v>2002</v>
       </c>
-      <c r="H92" s="78" t="s">
+      <c r="H92" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="I92" s="78" t="s">
+      <c r="I92" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J92" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K92" s="99" t="s">
+      <c r="J92" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K92" s="95" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="128"/>
-      <c r="B93" s="128"/>
-      <c r="C93" s="128"/>
+      <c r="A93" s="142"/>
+      <c r="B93" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="189"/>
       <c r="D93" s="13" t="s">
         <v>180</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F93" s="160">
+      <c r="F93" s="109">
         <v>27234</v>
       </c>
-      <c r="G93" s="160">
+      <c r="G93" s="109">
         <v>2002</v>
       </c>
-      <c r="H93" s="78" t="s">
+      <c r="H93" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="I93" s="78" t="s">
+      <c r="I93" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J93" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K93" s="99" t="s">
+      <c r="J93" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K93" s="95" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="129" t="s">
+      <c r="A94" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="B94" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="35" t="s">
+      <c r="B94" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="35" t="s">
+      <c r="D94" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="E94" s="35" t="s">
+      <c r="E94" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F94" s="158">
+      <c r="F94" s="107">
         <v>33632</v>
       </c>
-      <c r="G94" s="158">
+      <c r="G94" s="107">
         <v>2002</v>
       </c>
-      <c r="H94" s="85" t="s">
+      <c r="H94" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="I94" s="85" t="s">
+      <c r="I94" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="J94" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K94" s="101" t="s">
+      <c r="J94" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K94" s="97" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="130"/>
-      <c r="B95" s="130"/>
-      <c r="C95" s="35" t="s">
+      <c r="A95" s="136"/>
+      <c r="B95" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="35" t="s">
+      <c r="D95" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="F95" s="158">
+      <c r="F95" s="107">
         <v>37469</v>
       </c>
-      <c r="G95" s="158">
+      <c r="G95" s="107">
         <v>37469</v>
       </c>
-      <c r="H95" s="85" t="s">
+      <c r="H95" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="I95" s="85" t="s">
+      <c r="I95" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="J95" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K95" s="101" t="s">
+      <c r="J95" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K95" s="97" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="130"/>
-      <c r="B96" s="130"/>
-      <c r="C96" s="35" t="s">
+      <c r="A96" s="136"/>
+      <c r="B96" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="35" t="s">
+      <c r="D96" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F96" s="158">
+      <c r="F96" s="107">
         <v>33055</v>
       </c>
-      <c r="G96" s="158">
+      <c r="G96" s="107">
         <v>33604</v>
       </c>
-      <c r="H96" s="85" t="s">
+      <c r="H96" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="I96" s="85" t="s">
+      <c r="I96" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J96" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K96" s="101" t="s">
+      <c r="J96" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K96" s="97" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="131"/>
-      <c r="B97" s="131"/>
-      <c r="C97" s="35" t="s">
+      <c r="A97" s="137"/>
+      <c r="B97" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F97" s="158">
+      <c r="F97" s="107">
         <v>30803</v>
       </c>
-      <c r="G97" s="158">
+      <c r="G97" s="107">
         <v>33055</v>
       </c>
-      <c r="H97" s="85" t="s">
+      <c r="H97" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="I97" s="85" t="s">
+      <c r="I97" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="J97" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="K97" s="101" t="s">
+      <c r="J97" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="K97" s="97" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="124" t="s">
+      <c r="A98" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B98" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="32" t="s">
+      <c r="B98" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="32" t="s">
@@ -6778,29 +7098,31 @@
       <c r="E98" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F98" s="172">
+      <c r="F98" s="115">
         <v>30965</v>
       </c>
-      <c r="G98" s="172">
+      <c r="G98" s="115">
         <v>36336</v>
       </c>
-      <c r="H98" s="83" t="s">
+      <c r="H98" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="I98" s="83" t="s">
+      <c r="I98" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J98" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K98" s="92" t="s">
+      <c r="J98" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K98" s="88" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="126"/>
-      <c r="B99" s="126"/>
-      <c r="C99" s="32" t="s">
+      <c r="A99" s="140"/>
+      <c r="B99" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D99" s="32" t="s">
@@ -6809,33 +7131,33 @@
       <c r="E99" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F99" s="172">
+      <c r="F99" s="115">
         <v>36336</v>
       </c>
-      <c r="G99" s="172">
+      <c r="G99" s="115">
         <v>37986</v>
       </c>
-      <c r="H99" s="83" t="s">
+      <c r="H99" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="I99" s="83" t="s">
+      <c r="I99" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="J99" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K99" s="92" t="s">
+      <c r="J99" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K99" s="88" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="127" t="s">
+      <c r="A100" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B100" s="127" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="13" t="s">
+      <c r="B100" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="13" t="s">
@@ -6844,29 +7166,31 @@
       <c r="E100" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="F100" s="160">
+      <c r="F100" s="109">
         <v>31589</v>
       </c>
-      <c r="G100" s="160">
+      <c r="G100" s="109">
         <v>39872</v>
       </c>
-      <c r="H100" s="78" t="s">
+      <c r="H100" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="I100" s="78" t="s">
+      <c r="I100" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J100" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K100" s="86" t="s">
+      <c r="J100" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K100" s="82" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="132"/>
-      <c r="B101" s="132"/>
-      <c r="C101" s="13" t="s">
+      <c r="A101" s="152"/>
+      <c r="B101" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -6875,29 +7199,31 @@
       <c r="E101" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F101" s="160">
+      <c r="F101" s="109">
         <v>31024</v>
       </c>
-      <c r="G101" s="160">
+      <c r="G101" s="109">
         <v>31589</v>
       </c>
-      <c r="H101" s="78" t="s">
+      <c r="H101" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="I101" s="78" t="s">
+      <c r="I101" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J101" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K101" s="86" t="s">
+      <c r="J101" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K101" s="82" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="128"/>
-      <c r="B102" s="128"/>
-      <c r="C102" s="13" t="s">
+      <c r="A102" s="142"/>
+      <c r="B102" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="13" t="s">
@@ -6906,68 +7232,68 @@
       <c r="E102" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F102" s="160">
+      <c r="F102" s="109">
         <v>31589</v>
       </c>
-      <c r="G102" s="160">
+      <c r="G102" s="109">
         <v>31589</v>
       </c>
-      <c r="H102" s="78" t="s">
+      <c r="H102" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="I102" s="78" t="s">
+      <c r="I102" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="J102" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K102" s="86" t="s">
+      <c r="J102" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K102" s="82" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B103" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C103" s="35" t="s">
+      <c r="B103" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="F103" s="158">
+      <c r="F103" s="107">
         <v>31563</v>
       </c>
-      <c r="G103" s="158">
+      <c r="G103" s="107">
         <v>38199</v>
       </c>
-      <c r="H103" s="85" t="s">
+      <c r="H103" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="I103" s="85" t="s">
+      <c r="I103" s="81" t="s">
         <v>264</v>
       </c>
-      <c r="J103" s="85" t="s">
+      <c r="J103" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="K103" s="93" t="s">
+      <c r="K103" s="89" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="135" t="s">
+      <c r="A104" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="135" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" s="32" t="s">
+      <c r="B104" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" s="186" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="32" t="s">
@@ -6976,29 +7302,31 @@
       <c r="E104" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F104" s="172">
+      <c r="F104" s="115">
         <v>29190</v>
       </c>
-      <c r="G104" s="173">
+      <c r="G104" s="116">
         <v>2003</v>
       </c>
-      <c r="H104" s="83" t="s">
+      <c r="H104" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="I104" s="83" t="s">
+      <c r="I104" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="J104" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K104" s="84" t="s">
+      <c r="J104" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="K104" s="80" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="135"/>
-      <c r="B105" s="135"/>
-      <c r="C105" s="32" t="s">
+      <c r="A105" s="153"/>
+      <c r="B105" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="32" t="s">
@@ -7007,433 +7335,370 @@
       <c r="E105" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F105" s="172">
+      <c r="F105" s="115">
         <v>30585</v>
       </c>
-      <c r="G105" s="172">
+      <c r="G105" s="115">
         <v>2003</v>
       </c>
-      <c r="H105" s="83" t="s">
+      <c r="H105" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="I105" s="83" t="s">
+      <c r="I105" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="J105" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K105" s="84" t="s">
+      <c r="J105" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K105" s="80" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="135"/>
-      <c r="B106" s="135"/>
-      <c r="C106" s="32"/>
+      <c r="A106" s="153"/>
+      <c r="B106" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="186"/>
       <c r="D106" s="32" t="s">
         <v>193</v>
       </c>
       <c r="E106" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F106" s="173"/>
-      <c r="G106" s="173"/>
-      <c r="H106" s="83" t="s">
+      <c r="F106" s="123"/>
+      <c r="G106" s="116"/>
+      <c r="H106" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="I106" s="83" t="s">
+      <c r="I106" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="J106" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K106" s="84" t="s">
+      <c r="J106" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K106" s="80" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="135"/>
-      <c r="B107" s="135"/>
-      <c r="C107" s="32"/>
+      <c r="A107" s="153"/>
+      <c r="B107" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="186"/>
       <c r="D107" s="32" t="s">
         <v>194</v>
       </c>
       <c r="E107" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F107" s="173"/>
-      <c r="G107" s="173"/>
-      <c r="H107" s="83" t="s">
+      <c r="F107" s="123"/>
+      <c r="G107" s="116"/>
+      <c r="H107" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="I107" s="83" t="s">
+      <c r="I107" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="J107" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="K107" s="84" t="s">
+      <c r="J107" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="K107" s="80" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="113" t="s">
+      <c r="A108" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="B108" s="113" t="s">
-        <v>98</v>
-      </c>
-      <c r="C108" s="53" t="s">
+      <c r="B108" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="54" t="s">
+      <c r="D108" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="E108" s="54" t="s">
+      <c r="E108" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="F108" s="175">
+      <c r="F108" s="118">
         <v>27211</v>
       </c>
-      <c r="G108" s="175">
+      <c r="G108" s="118">
         <v>28369</v>
       </c>
-      <c r="H108" s="95" t="s">
+      <c r="H108" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="I108" s="95" t="s">
+      <c r="I108" s="91" t="s">
         <v>264</v>
       </c>
-      <c r="J108" s="95" t="s">
+      <c r="J108" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="K108" s="96" t="s">
+      <c r="K108" s="92" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="114"/>
-      <c r="B109" s="114"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="54" t="s">
+      <c r="A109" s="159"/>
+      <c r="B109" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="186"/>
+      <c r="D109" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="E109" s="54" t="s">
+      <c r="E109" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="F109" s="175">
+      <c r="F109" s="118">
         <v>28369</v>
       </c>
-      <c r="G109" s="175"/>
-      <c r="H109" s="95" t="s">
+      <c r="G109" s="118"/>
+      <c r="H109" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="I109" s="95" t="s">
+      <c r="I109" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J109" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="K109" s="96" t="s">
+      <c r="J109" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K109" s="92" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="55" t="s">
+      <c r="A110" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="B110" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" s="55" t="s">
+      <c r="B110" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="186" t="s">
         <v>308</v>
       </c>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="E110" s="55" t="s">
+      <c r="E110" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="F110" s="176">
+      <c r="F110" s="119">
         <v>29677</v>
       </c>
-      <c r="G110" s="176"/>
-      <c r="H110" s="102" t="s">
+      <c r="G110" s="119"/>
+      <c r="H110" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="I110" s="102" t="s">
+      <c r="I110" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="J110" s="102" t="s">
-        <v>265</v>
-      </c>
-      <c r="K110" s="103" t="s">
+      <c r="J110" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="K110" s="99" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="115" t="s">
+      <c r="A111" s="160" t="s">
         <v>309</v>
       </c>
-      <c r="B111" s="115" t="s">
-        <v>98</v>
-      </c>
-      <c r="C111" s="57"/>
-      <c r="D111" s="54" t="s">
+      <c r="B111" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="E111" s="54" t="s">
+      <c r="E111" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="F111" s="175">
+      <c r="F111" s="118">
         <v>27364</v>
       </c>
-      <c r="G111" s="175">
+      <c r="G111" s="118">
         <v>28065</v>
       </c>
-      <c r="H111" s="95" t="s">
+      <c r="H111" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="I111" s="95" t="s">
+      <c r="I111" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J111" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="K111" s="96" t="s">
+      <c r="J111" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K111" s="92" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="116"/>
-      <c r="B112" s="116"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="54" t="s">
+      <c r="A112" s="161"/>
+      <c r="B112" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" s="186"/>
+      <c r="D112" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="E112" s="54" t="s">
+      <c r="E112" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="F112" s="175">
+      <c r="F112" s="118">
         <v>27364</v>
       </c>
-      <c r="G112" s="175">
+      <c r="G112" s="118">
         <v>28369</v>
       </c>
-      <c r="H112" s="95" t="s">
+      <c r="H112" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="I112" s="95" t="s">
+      <c r="I112" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="J112" s="95" t="s">
-        <v>265</v>
-      </c>
-      <c r="K112" s="104" t="s">
+      <c r="J112" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="K112" s="100" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="117"/>
-      <c r="B113" s="117"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54" t="s">
+      <c r="A113" s="162"/>
+      <c r="B113" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="186"/>
+      <c r="D113" s="51" t="s">
         <v>314</v>
       </c>
-      <c r="E113" s="54" t="s">
+      <c r="E113" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="F113" s="175">
+      <c r="F113" s="118">
         <v>28369</v>
       </c>
-      <c r="G113" s="175"/>
-      <c r="H113" s="105" t="s">
+      <c r="G113" s="118"/>
+      <c r="H113" s="101" t="s">
         <v>207</v>
       </c>
-      <c r="I113" s="105" t="s">
+      <c r="I113" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="J113" s="105" t="s">
-        <v>265</v>
-      </c>
-      <c r="K113" s="104" t="s">
+      <c r="J113" s="101" t="s">
+        <v>265</v>
+      </c>
+      <c r="K113" s="100" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="112" t="s">
+      <c r="A114" s="157" t="s">
         <v>315</v>
       </c>
-      <c r="B114" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" s="54"/>
-      <c r="D114" s="54" t="s">
+      <c r="B114" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="186"/>
+      <c r="D114" s="51" t="s">
         <v>316</v>
       </c>
-      <c r="E114" s="56" t="s">
+      <c r="E114" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="F114" s="177">
+      <c r="F114" s="120">
         <v>39479</v>
       </c>
-      <c r="G114" s="177"/>
-      <c r="H114" s="104" t="s">
+      <c r="G114" s="120"/>
+      <c r="H114" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="I114" s="104" t="s">
+      <c r="I114" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="J114" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="K114" s="104" t="s">
+      <c r="J114" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="K114" s="100" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="112"/>
-      <c r="B115" s="112"/>
-      <c r="C115" s="54"/>
-      <c r="D115" s="54" t="s">
+      <c r="A115" s="157"/>
+      <c r="B115" s="180" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="186"/>
+      <c r="D115" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="E115" s="56" t="s">
+      <c r="E115" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="F115" s="177">
+      <c r="F115" s="120">
         <v>39479</v>
       </c>
-      <c r="G115" s="177"/>
-      <c r="H115" s="104" t="s">
+      <c r="G115" s="120"/>
+      <c r="H115" s="100" t="s">
         <v>319</v>
       </c>
-      <c r="I115" s="104" t="s">
+      <c r="I115" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="J115" s="104" t="s">
-        <v>265</v>
-      </c>
-      <c r="K115" s="104" t="s">
+      <c r="J115" s="100" t="s">
+        <v>265</v>
+      </c>
+      <c r="K115" s="100" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K116"/>
-  <mergeCells count="113">
+  <mergeCells count="38">
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
     <mergeCell ref="G49:G50"/>
     <mergeCell ref="J32:J34"/>
     <mergeCell ref="H35:H36"/>
     <mergeCell ref="I35:I36"/>
     <mergeCell ref="J35:J36"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D35:D36"/>
     <mergeCell ref="G32:G34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="D49:D50"/>
     <mergeCell ref="H49:H50"/>
     <mergeCell ref="I49:I50"/>
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="A8:A15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="B81:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
@@ -7458,208 +7723,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="56" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="56" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="59">
         <v>35735</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="61">
         <v>1501</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="65" t="s">
+      <c r="A3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="59">
         <v>41548</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="61">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="65" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="61" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="58">
         <v>35462</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="130"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="35" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="58">
         <v>37834</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="130"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="154" t="s">
+      <c r="A7" s="136"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="168" t="s">
         <v>332</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="146">
+      <c r="E7" s="171">
         <v>44531</v>
       </c>
-      <c r="F7" s="129">
+      <c r="F7" s="135">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="35" t="s">
+      <c r="A8" s="137"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="131"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="137"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="124" t="s">
+      <c r="B9" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="152">
+      <c r="E9" s="170">
         <v>44531</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="138">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="125"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="129" t="s">
+      <c r="B12" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="151">
+      <c r="E12" s="173">
         <v>34151</v>
       </c>
-      <c r="F12" s="129">
+      <c r="F12" s="135">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="131"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
+      <c r="A13" s="137"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="141" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -7668,7 +7933,7 @@
       <c r="D14" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="57">
         <v>32174</v>
       </c>
       <c r="F14" s="13">
@@ -7676,15 +7941,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="128"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="142"/>
+      <c r="B15" s="142"/>
       <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="61">
+      <c r="E15" s="57">
         <v>33970</v>
       </c>
       <c r="F15" s="13">
@@ -7692,88 +7957,88 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="65" t="s">
+      <c r="B16" s="154" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="58">
+      <c r="E16" s="54">
         <v>30011</v>
       </c>
-      <c r="F16" s="149">
+      <c r="F16" s="175">
         <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="125"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="65" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="54">
         <v>30011</v>
       </c>
-      <c r="F17" s="150"/>
+      <c r="F17" s="176"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="125"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="65" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="54">
         <v>37742</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="71"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="125"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="65" t="s">
+      <c r="A19" s="139"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="54">
         <v>30348</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="71">
         <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="126"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="65" t="s">
+      <c r="A20" s="140"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="58">
+      <c r="E20" s="54">
         <v>43282</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="71"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="135" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -7782,7 +8047,7 @@
       <c r="D21" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="58">
         <v>35765</v>
       </c>
       <c r="F21" s="26">
@@ -7790,15 +8055,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
+      <c r="A22" s="136"/>
+      <c r="B22" s="136"/>
       <c r="C22" s="30" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="58">
         <v>35765</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -7806,15 +8071,15 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="130"/>
-      <c r="B23" s="130"/>
+      <c r="A23" s="136"/>
+      <c r="B23" s="136"/>
       <c r="C23" s="30" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="58">
         <v>43221</v>
       </c>
       <c r="F23" s="30">
@@ -7822,15 +8087,15 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="130"/>
-      <c r="B24" s="130"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="62">
+      <c r="E24" s="58">
         <v>35927</v>
       </c>
       <c r="F24" s="26" t="s">
@@ -7838,15 +8103,15 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="130"/>
-      <c r="B25" s="130"/>
+      <c r="A25" s="136"/>
+      <c r="B25" s="136"/>
       <c r="C25" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="58">
         <v>35927</v>
       </c>
       <c r="F25" s="26" t="s">
@@ -7854,15 +8119,15 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="130"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="141" t="s">
+      <c r="A26" s="136"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="150" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="58">
         <v>35927</v>
       </c>
       <c r="F26" s="26" t="s">
@@ -7870,13 +8135,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="130"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="66" t="s">
+      <c r="A27" s="136"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="58" t="s">
         <v>321</v>
       </c>
       <c r="F27" s="26" t="s">
@@ -7884,15 +8149,15 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="131"/>
-      <c r="B28" s="131"/>
+      <c r="A28" s="137"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="58" t="s">
         <v>322</v>
       </c>
       <c r="F28" s="26" t="s">
@@ -7901,6 +8166,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
@@ -7909,25 +8193,6 @@
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7969,52 +8234,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="110"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="48" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8022,14 +8287,14 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="63">
         <v>47946073.289999999</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="67">
+      <c r="D3" s="63">
         <v>5739203</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="63">
         <v>380108</v>
       </c>
       <c r="F3" s="5">
@@ -8054,9 +8319,9 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="68"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="69">
+      <c r="E4" s="65">
         <v>39853474.85093417</v>
       </c>
       <c r="F4" s="5">
@@ -8113,10 +8378,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="70">
+      <c r="C6" s="66">
         <v>8583126.4199999999</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="66">
         <v>8843221.1600000001</v>
       </c>
       <c r="E6" s="1">
@@ -8143,7 +8408,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="14">
         <v>4712457.1476300005</v>
       </c>
@@ -8301,7 +8566,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="71">
+      <c r="E12" s="67">
         <v>10018580</v>
       </c>
       <c r="F12" s="20">
@@ -9017,7 +9282,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="72">
+      <c r="E38" s="68">
         <v>6956.2101238099995</v>
       </c>
       <c r="F38" s="22">
@@ -9031,7 +9296,7 @@
       <c r="J38" s="16">
         <v>0.2</v>
       </c>
-      <c r="K38" s="73" t="s">
+      <c r="K38" s="69" t="s">
         <v>70</v>
       </c>
       <c r="L38" s="2"/>
@@ -9103,7 +9368,7 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="42" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="8">
@@ -9126,7 +9391,7 @@
         <f t="shared" si="2"/>
         <v>365054975.93191051</v>
       </c>
-      <c r="G42" s="43">
+      <c r="G42" s="41">
         <f t="shared" si="2"/>
         <v>1.0000000002059182</v>
       </c>
@@ -9137,7 +9402,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="55" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3">

--- a/Data/Zones.xlsx
+++ b/Data/Zones.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="372">
   <si>
     <t>WELL</t>
   </si>
@@ -940,18 +940,12 @@
     <t xml:space="preserve">4030-4086 </t>
   </si>
   <si>
-    <t>SITIO GRANDE_84</t>
-  </si>
-  <si>
     <t>4140-4220</t>
   </si>
   <si>
     <t>C-B</t>
   </si>
   <si>
-    <t>SITIO GRANDE_85</t>
-  </si>
-  <si>
     <t>4315-4325</t>
   </si>
   <si>
@@ -967,9 +961,6 @@
     <t>4317-4360</t>
   </si>
   <si>
-    <t>SITIO GRANDE_811</t>
-  </si>
-  <si>
     <t>2065-2040</t>
   </si>
   <si>
@@ -1028,6 +1019,123 @@
   </si>
   <si>
     <t>3853-3867</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 70</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 80</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 90</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 110</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 1001</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 1011</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE  71</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 801</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 81</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 901</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 91</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 92</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 102</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 100</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 101</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 1</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 5</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 6</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 7</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 8</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 51</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 53</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 61</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 63</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 82</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 83</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 93</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 94</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 103</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 111</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 701</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 911</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 921</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 61D</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 6D</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 73</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 84</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 85</t>
+  </si>
+  <si>
+    <t>SITIO GRANDE 811</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1792,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1772,9 +1880,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1817,9 +1922,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1846,9 +1948,6 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1967,9 +2066,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="13" fillId="39" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2109,12 +2205,6 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="2" xfId="29" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2124,24 +2214,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2196,9 +2268,6 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2229,7 +2298,58 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
@@ -2608,52 +2728,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="47" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2661,14 +2781,14 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="60">
         <v>47946073.289999999</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="63">
+      <c r="D3" s="60">
         <v>5739203</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="60">
         <v>380108</v>
       </c>
       <c r="F3" s="5">
@@ -2693,9 +2813,9 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="64"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="65">
+      <c r="E4" s="62">
         <v>39853474.85093417</v>
       </c>
       <c r="F4" s="5">
@@ -2752,10 +2872,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="66">
+      <c r="C6" s="63">
         <v>8583126.4199999999</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="63">
         <v>8843221.1600000001</v>
       </c>
       <c r="E6" s="1">
@@ -2782,7 +2902,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="14">
         <v>4712457.1476300005</v>
       </c>
@@ -2938,7 +3058,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="67">
+      <c r="E12" s="64">
         <v>10018580</v>
       </c>
       <c r="F12" s="20">
@@ -3654,7 +3774,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="68">
+      <c r="E38" s="65">
         <v>6956.2101238099995</v>
       </c>
       <c r="F38" s="22">
@@ -3668,7 +3788,7 @@
       <c r="J38" s="16">
         <v>0.2</v>
       </c>
-      <c r="K38" s="69" t="s">
+      <c r="K38" s="66" t="s">
         <v>70</v>
       </c>
       <c r="L38" s="2"/>
@@ -3740,7 +3860,7 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="8">
@@ -3763,7 +3883,7 @@
         <f t="shared" si="2"/>
         <v>365054975.35191047</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="40">
         <f t="shared" si="2"/>
         <v>0.99999999998138278</v>
       </c>
@@ -3774,7 +3894,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3">
@@ -3822,32 +3942,32 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="20" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="40"/>
-    <col min="4" max="4" width="31.77734375" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="196" customWidth="1"/>
+    <col min="2" max="2" width="20" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="39"/>
+    <col min="4" max="4" width="31.77734375" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.44140625" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" style="184" customWidth="1"/>
-    <col min="7" max="7" width="40.44140625" style="121" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="102" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="102" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="102" customWidth="1"/>
-    <col min="11" max="11" width="37.44140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="171" customWidth="1"/>
+    <col min="7" max="7" width="40.44140625" style="117" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="99" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="99" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="99" customWidth="1"/>
+    <col min="11" max="11" width="37.44140625" style="100" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="183" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="172" t="s">
         <v>94</v>
       </c>
       <c r="D1" s="27" t="s">
@@ -3856,33 +3976,33 @@
       <c r="E1" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="F1" s="105" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="105" t="s">
-        <v>324</v>
-      </c>
-      <c r="H1" s="72" t="s">
+      <c r="F1" s="101" t="s">
+        <v>320</v>
+      </c>
+      <c r="G1" s="101" t="s">
+        <v>321</v>
+      </c>
+      <c r="H1" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="K1" s="70" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="186" t="s">
+      <c r="A2" s="184" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -3891,33 +4011,33 @@
       <c r="E2" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="106">
+      <c r="F2" s="102">
         <v>27073</v>
       </c>
-      <c r="G2" s="106">
+      <c r="G2" s="102">
         <v>33045</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J2" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K2" s="75" t="s">
+      <c r="J2" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="72" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="186" t="s">
+      <c r="A3" s="184" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -3926,33 +4046,33 @@
       <c r="E3" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="102">
         <v>27073</v>
       </c>
-      <c r="G3" s="106">
+      <c r="G3" s="102">
         <v>33045</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J3" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K3" s="75" t="s">
+      <c r="J3" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K3" s="72" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="186" t="s">
+      <c r="A4" s="184" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -3961,33 +4081,33 @@
       <c r="E4" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="106">
+      <c r="F4" s="102">
         <v>33922</v>
       </c>
-      <c r="G4" s="106">
+      <c r="G4" s="102">
         <v>37575</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="I4" s="74" t="s">
+      <c r="I4" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J4" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="74" t="s">
+      <c r="J4" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="71" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="186" t="s">
+      <c r="A5" s="184" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -3996,99 +4116,99 @@
       <c r="E5" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F5" s="106">
+      <c r="F5" s="102">
         <v>33045</v>
       </c>
-      <c r="G5" s="106">
+      <c r="G5" s="102">
         <v>37575</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J5" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K5" s="74" t="s">
+      <c r="J5" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K5" s="71" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="187" t="s">
+      <c r="A6" s="184" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="102">
         <v>37561</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="74" t="s">
+      <c r="G6" s="102"/>
+      <c r="H6" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K6" s="75" t="s">
+      <c r="J6" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K6" s="72" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="187" t="s">
+      <c r="A7" s="184" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="106">
+      <c r="F7" s="102">
         <v>37591</v>
       </c>
-      <c r="G7" s="106"/>
-      <c r="H7" s="74" t="s">
+      <c r="G7" s="102"/>
+      <c r="H7" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K7" s="75" t="s">
+      <c r="J7" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" s="72" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="187" t="s">
+      <c r="A8" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="174" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -4097,33 +4217,33 @@
       <c r="E8" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="103">
         <v>27089</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="103">
         <v>35765</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="73" t="s">
         <v>264</v>
       </c>
-      <c r="J8" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" s="77" t="s">
+      <c r="J8" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="74" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="188" t="s">
+      <c r="A9" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="175" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -4132,33 +4252,33 @@
       <c r="E9" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="103">
         <v>35765</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="103">
         <v>35765</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="H9" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="J9" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="K9" s="78" t="s">
+      <c r="J9" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K9" s="75" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="188" t="s">
+      <c r="A10" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B10" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="175" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="30" t="s">
@@ -4167,33 +4287,33 @@
       <c r="E10" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="103">
         <v>35916</v>
       </c>
-      <c r="G10" s="107">
+      <c r="G10" s="103">
         <v>43221</v>
       </c>
-      <c r="H10" s="76" t="s">
+      <c r="H10" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="77" t="s">
+      <c r="J10" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="74" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="188" t="s">
+      <c r="A11" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="175" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -4202,68 +4322,68 @@
       <c r="E11" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="103">
         <v>35886</v>
       </c>
-      <c r="G11" s="107">
+      <c r="G11" s="103">
         <v>35927</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="J11" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="K11" s="78" t="s">
+      <c r="J11" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="75" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="188" t="s">
+      <c r="A12" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>108</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F12" s="107">
+      <c r="F12" s="103">
         <v>35886</v>
       </c>
-      <c r="G12" s="107">
+      <c r="G12" s="103">
         <v>35927</v>
       </c>
-      <c r="H12" s="76" t="s">
+      <c r="H12" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="J12" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="K12" s="77" t="s">
+      <c r="J12" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="74" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="188" t="s">
+      <c r="A13" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="175" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="30" t="s">
@@ -4272,33 +4392,33 @@
       <c r="E13" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="103">
         <v>35916</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G13" s="103">
         <v>35927</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="J13" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="K13" s="77" t="s">
+      <c r="J13" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K13" s="74" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="187" t="s">
+      <c r="A14" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B14" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="174" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="28" t="s">
@@ -4307,29 +4427,29 @@
       <c r="E14" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="76" t="s">
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="J14" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="K14" s="77" t="s">
+      <c r="J14" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="74" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="178" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="179" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="188" t="s">
+      <c r="A15" s="185" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="167" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="30" t="s">
@@ -4338,29 +4458,29 @@
       <c r="E15" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="76" t="s">
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="J15" s="76" t="s">
-        <v>265</v>
-      </c>
-      <c r="K15" s="77" t="s">
+      <c r="J15" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K15" s="74" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="186" t="s">
+      <c r="A16" s="169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="32" t="s">
@@ -4369,33 +4489,33 @@
       <c r="E16" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="108">
+      <c r="F16" s="104">
         <v>27181</v>
       </c>
-      <c r="G16" s="108">
+      <c r="G16" s="104">
         <v>35735</v>
       </c>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="79" t="s">
+      <c r="I16" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J16" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K16" s="80" t="s">
+      <c r="J16" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="77" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="186" t="s">
+      <c r="A17" s="169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -4404,33 +4524,33 @@
       <c r="E17" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F17" s="108">
+      <c r="F17" s="104">
         <v>35735</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="104">
         <v>41548</v>
       </c>
-      <c r="H17" s="79" t="s">
+      <c r="H17" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="I17" s="79" t="s">
+      <c r="I17" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="J17" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K17" s="79" t="s">
+      <c r="J17" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K17" s="76" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="186" t="s">
+      <c r="A18" s="169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -4439,31 +4559,31 @@
       <c r="E18" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F18" s="108">
+      <c r="F18" s="104">
         <v>41548</v>
       </c>
-      <c r="G18" s="108"/>
-      <c r="H18" s="74" t="s">
+      <c r="G18" s="104"/>
+      <c r="H18" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J18" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K18" s="80" t="s">
+      <c r="J18" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K18" s="77" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="186" t="s">
+      <c r="A19" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -4472,33 +4592,33 @@
       <c r="E19" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="109">
+      <c r="F19" s="105">
         <v>27257</v>
       </c>
-      <c r="G19" s="109">
+      <c r="G19" s="105">
         <v>37967</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J19" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K19" s="75" t="s">
+      <c r="J19" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K19" s="72" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="186" t="s">
+      <c r="A20" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -4507,31 +4627,31 @@
       <c r="E20" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="109">
+      <c r="F20" s="105">
         <v>27288</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="74" t="s">
+      <c r="G20" s="105"/>
+      <c r="H20" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J20" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K20" s="75" t="s">
+      <c r="J20" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="72" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="186" t="s">
+      <c r="A21" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -4540,31 +4660,31 @@
       <c r="E21" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="105">
         <v>27318</v>
       </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="74" t="s">
+      <c r="G21" s="105"/>
+      <c r="H21" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J21" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K21" s="75" t="s">
+      <c r="J21" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="72" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="186" t="s">
+      <c r="A22" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B22" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -4573,31 +4693,31 @@
       <c r="E22" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F22" s="109">
+      <c r="F22" s="105">
         <v>27349</v>
       </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="74" t="s">
+      <c r="G22" s="105"/>
+      <c r="H22" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I22" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J22" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K22" s="75" t="s">
+      <c r="J22" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K22" s="72" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="186" t="s">
+      <c r="A23" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B23" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -4606,31 +4726,31 @@
       <c r="E23" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F23" s="109">
+      <c r="F23" s="105">
         <v>27379</v>
       </c>
-      <c r="G23" s="109"/>
-      <c r="H23" s="74" t="s">
+      <c r="G23" s="105"/>
+      <c r="H23" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J23" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K23" s="75" t="s">
+      <c r="J23" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K23" s="72" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="186" t="s">
+      <c r="A24" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B24" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -4639,31 +4759,31 @@
       <c r="E24" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="105">
         <v>27410</v>
       </c>
-      <c r="G24" s="109"/>
-      <c r="H24" s="74" t="s">
+      <c r="G24" s="105"/>
+      <c r="H24" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="74" t="s">
+      <c r="I24" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J24" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" s="75" t="s">
+      <c r="J24" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K24" s="72" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="186" t="s">
+      <c r="A25" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B25" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="13" t="s">
@@ -4672,31 +4792,31 @@
       <c r="E25" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F25" s="109">
+      <c r="F25" s="105">
         <v>27441</v>
       </c>
-      <c r="G25" s="109"/>
-      <c r="H25" s="74" t="s">
+      <c r="G25" s="105"/>
+      <c r="H25" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I25" s="74" t="s">
+      <c r="I25" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J25" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K25" s="75" t="s">
+      <c r="J25" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K25" s="72" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="186" t="s">
+      <c r="A26" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D26" s="13" t="s">
@@ -4705,50 +4825,50 @@
       <c r="E26" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="105">
         <v>27469</v>
       </c>
-      <c r="G26" s="109"/>
-      <c r="H26" s="74" t="s">
+      <c r="G26" s="105"/>
+      <c r="H26" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I26" s="74" t="s">
+      <c r="I26" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J26" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K26" s="75" t="s">
+      <c r="J26" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K26" s="72" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="177" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="186"/>
+      <c r="A27" s="184" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="173"/>
       <c r="D27" s="18"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K27" s="75"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" s="72"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="186" t="s">
+      <c r="A28" s="185" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="33" t="s">
@@ -4757,33 +4877,33 @@
       <c r="E28" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="107">
+      <c r="F28" s="103">
         <v>30864</v>
       </c>
-      <c r="G28" s="107">
+      <c r="G28" s="103">
         <v>35462</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I28" s="81" t="s">
+      <c r="I28" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J28" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="77" t="s">
+      <c r="J28" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" s="74" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="186" t="s">
+      <c r="A29" s="185" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="33" t="s">
@@ -4792,33 +4912,33 @@
       <c r="E29" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="107">
+      <c r="F29" s="103">
         <v>30895</v>
       </c>
-      <c r="G29" s="107">
+      <c r="G29" s="103">
         <v>37834</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="I29" s="81" t="s">
+      <c r="I29" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="J29" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K29" s="77" t="s">
+      <c r="J29" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" s="74" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="189" t="s">
+      <c r="A30" s="185" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="176" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="33" t="s">
@@ -4827,203 +4947,203 @@
       <c r="E30" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="103">
         <v>30926</v>
       </c>
-      <c r="G30" s="107"/>
-      <c r="H30" s="81" t="s">
+      <c r="G30" s="103"/>
+      <c r="H30" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I30" s="81" t="s">
+      <c r="I30" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J30" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K30" s="77" t="s">
+      <c r="J30" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" s="74" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="178" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="189"/>
+      <c r="A31" s="185" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="176"/>
       <c r="D31" s="33" t="s">
         <v>127</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="F31" s="107">
+      <c r="F31" s="103">
         <v>30956</v>
       </c>
-      <c r="G31" s="107"/>
-      <c r="H31" s="81" t="s">
+      <c r="G31" s="103"/>
+      <c r="H31" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I31" s="81" t="s">
+      <c r="I31" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J31" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K31" s="77" t="s">
+      <c r="J31" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" s="74" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="180" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="186" t="s">
+      <c r="A32" s="169" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="180" t="s">
+      <c r="D32" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="180" t="s">
+      <c r="E32" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="183">
+      <c r="F32" s="170">
         <v>31382</v>
       </c>
-      <c r="G32" s="143"/>
-      <c r="H32" s="130" t="s">
+      <c r="G32" s="139"/>
+      <c r="H32" s="126" t="s">
         <v>264</v>
       </c>
-      <c r="I32" s="130" t="s">
+      <c r="I32" s="126" t="s">
         <v>264</v>
       </c>
-      <c r="J32" s="130" t="s">
+      <c r="J32" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="K32" s="163" t="s">
+      <c r="K32" s="151" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="180" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="186" t="s">
+      <c r="A33" s="169" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="180" t="s">
+      <c r="D33" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="180" t="s">
+      <c r="E33" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="F33" s="183">
+      <c r="F33" s="170">
         <v>31382</v>
       </c>
-      <c r="G33" s="144"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="131"/>
-      <c r="J33" s="131"/>
-      <c r="K33" s="163"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="151"/>
     </row>
     <row r="34" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="180" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="186" t="s">
+      <c r="A34" s="169" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="180" t="s">
+      <c r="D34" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="180" t="s">
+      <c r="E34" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="F34" s="183">
+      <c r="F34" s="170">
         <v>31382</v>
       </c>
-      <c r="G34" s="145"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="163"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="151"/>
     </row>
     <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="141" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="191" t="s">
+      <c r="A35" s="186" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="177" t="s">
+      <c r="D35" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="177" t="s">
+      <c r="E35" s="165" t="s">
         <v>264</v>
       </c>
-      <c r="F35" s="192">
+      <c r="F35" s="180">
         <v>26967</v>
       </c>
-      <c r="G35" s="146">
+      <c r="G35" s="142">
         <v>31532</v>
       </c>
-      <c r="H35" s="133" t="s">
+      <c r="H35" s="129" t="s">
         <v>264</v>
       </c>
-      <c r="I35" s="133" t="s">
+      <c r="I35" s="129" t="s">
         <v>264</v>
       </c>
-      <c r="J35" s="133" t="s">
+      <c r="J35" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="K35" s="164" t="s">
+      <c r="K35" s="152" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="142"/>
-      <c r="B36" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="191" t="s">
+      <c r="A36" s="187"/>
+      <c r="B36" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="178" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="177" t="s">
+      <c r="D36" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="177" t="s">
+      <c r="E36" s="165" t="s">
         <v>264</v>
       </c>
-      <c r="F36" s="192">
+      <c r="F36" s="180">
         <v>26967</v>
       </c>
-      <c r="G36" s="147"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
-      <c r="J36" s="134"/>
-      <c r="K36" s="165"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="153"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="186" t="s">
+      <c r="A37" s="188" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="33" t="s">
@@ -5032,31 +5152,31 @@
       <c r="E37" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F37" s="107">
+      <c r="F37" s="103">
         <v>30853</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="103">
         <v>36980</v>
       </c>
-      <c r="H37" s="81" t="s">
+      <c r="H37" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I37" s="81" t="s">
+      <c r="I37" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J37" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K37" s="81" t="s">
+      <c r="J37" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="78" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="137"/>
-      <c r="B38" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="186" t="s">
+      <c r="A38" s="189"/>
+      <c r="B38" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="33" t="s">
@@ -5065,33 +5185,33 @@
       <c r="E38" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="103">
         <v>36980</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="103">
         <v>37864</v>
       </c>
-      <c r="H38" s="81" t="s">
+      <c r="H38" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I38" s="81" t="s">
+      <c r="I38" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J38" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K38" s="81" t="s">
+      <c r="J38" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="78" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="186" t="s">
+      <c r="A39" s="169" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D39" s="32" t="s">
@@ -5100,34 +5220,34 @@
       <c r="E39" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="110">
+      <c r="F39" s="106">
         <v>26969</v>
       </c>
-      <c r="G39" s="110">
+      <c r="G39" s="106">
         <v>30011</v>
       </c>
-      <c r="H39" s="79" t="s">
+      <c r="H39" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="I39" s="79" t="s">
+      <c r="I39" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J39" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K39" s="71" t="s">
+      <c r="J39" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K39" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="M39" s="156"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="186" t="s">
+      <c r="A40" s="169" t="s">
+        <v>341</v>
+      </c>
+      <c r="B40" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="32" t="s">
@@ -5136,34 +5256,34 @@
       <c r="E40" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="110">
+      <c r="F40" s="106">
         <v>26969</v>
       </c>
-      <c r="G40" s="110">
+      <c r="G40" s="106">
         <v>30011</v>
       </c>
-      <c r="H40" s="79" t="s">
+      <c r="H40" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="I40" s="79" t="s">
+      <c r="I40" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J40" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K40" s="71" t="s">
+      <c r="J40" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K40" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="M40" s="156"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="186" t="s">
+      <c r="A41" s="169" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="32" t="s">
@@ -5172,34 +5292,34 @@
       <c r="E41" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F41" s="110">
+      <c r="F41" s="106">
         <v>30348</v>
       </c>
-      <c r="G41" s="110">
+      <c r="G41" s="106">
         <v>37742</v>
       </c>
-      <c r="H41" s="79" t="s">
+      <c r="H41" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="I41" s="79" t="s">
+      <c r="I41" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="J41" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K41" s="71" t="s">
+      <c r="J41" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K41" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="O41" s="70"/>
+      <c r="O41" s="67"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="186" t="s">
+      <c r="A42" s="169" t="s">
+        <v>341</v>
+      </c>
+      <c r="B42" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="32" t="s">
@@ -5208,68 +5328,68 @@
       <c r="E42" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F42" s="110">
+      <c r="F42" s="106">
         <v>30011</v>
       </c>
-      <c r="G42" s="110">
+      <c r="G42" s="106">
         <v>30348</v>
       </c>
-      <c r="H42" s="79" t="s">
+      <c r="H42" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="I42" s="79" t="s">
+      <c r="I42" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="J42" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K42" s="71" t="s">
+      <c r="J42" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K42" s="68" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="186" t="s">
+      <c r="A43" s="169" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F43" s="110">
+      <c r="F43" s="106">
         <v>37742</v>
       </c>
-      <c r="G43" s="110">
+      <c r="G43" s="106">
         <v>43282</v>
       </c>
-      <c r="H43" s="79" t="s">
+      <c r="H43" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="I43" s="79" t="s">
+      <c r="I43" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="J43" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K43" s="71" t="s">
+      <c r="J43" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" s="68" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="186" t="s">
+      <c r="A44" s="184" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -5278,33 +5398,33 @@
       <c r="E44" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="109">
+      <c r="F44" s="105">
         <v>31156</v>
       </c>
-      <c r="G44" s="109">
+      <c r="G44" s="105">
         <v>34090</v>
       </c>
-      <c r="H44" s="74" t="s">
+      <c r="H44" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="I44" s="74" t="s">
+      <c r="I44" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J44" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K44" s="82" t="s">
+      <c r="J44" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" s="79" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="182" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" s="186" t="s">
+      <c r="A45" s="184" t="s">
+        <v>342</v>
+      </c>
+      <c r="B45" s="169" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="13" t="s">
@@ -5313,33 +5433,33 @@
       <c r="E45" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F45" s="109">
+      <c r="F45" s="105">
         <v>37500</v>
       </c>
-      <c r="G45" s="109">
+      <c r="G45" s="105">
         <v>37500</v>
       </c>
-      <c r="H45" s="74" t="s">
+      <c r="H45" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="I45" s="74" t="s">
+      <c r="I45" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="J45" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K45" s="83" t="s">
-        <v>326</v>
+      <c r="J45" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K45" s="80" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="186" t="s">
+      <c r="A46" s="184" t="s">
+        <v>342</v>
+      </c>
+      <c r="B46" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -5348,153 +5468,153 @@
       <c r="E46" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="F46" s="109">
+      <c r="F46" s="105">
         <v>34090</v>
       </c>
-      <c r="G46" s="109">
+      <c r="G46" s="105">
         <v>34366</v>
       </c>
-      <c r="H46" s="74" t="s">
+      <c r="H46" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="I46" s="74" t="s">
+      <c r="I46" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="J46" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K46" s="83" t="s">
-        <v>326</v>
+      <c r="J46" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K46" s="80" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="178" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C47" s="186" t="s">
+      <c r="A47" s="185" t="s">
+        <v>343</v>
+      </c>
+      <c r="B47" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="178" t="s">
+      <c r="D47" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="178" t="s">
+      <c r="E47" s="166" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="122">
+      <c r="F47" s="118">
         <v>26937</v>
       </c>
-      <c r="G47" s="111">
+      <c r="G47" s="107">
         <v>34151</v>
       </c>
-      <c r="H47" s="148" t="s">
+      <c r="H47" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="I47" s="148" t="s">
+      <c r="I47" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="J47" s="148" t="s">
+      <c r="J47" s="144" t="s">
         <v>204</v>
       </c>
-      <c r="K47" s="166" t="s">
+      <c r="K47" s="154" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="178" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="186" t="s">
+      <c r="A48" s="185" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="178" t="s">
+      <c r="D48" s="166" t="s">
         <v>141</v>
       </c>
-      <c r="E48" s="178" t="s">
+      <c r="E48" s="166" t="s">
         <v>264</v>
       </c>
-      <c r="F48" s="122">
+      <c r="F48" s="118">
         <v>26937</v>
       </c>
-      <c r="G48" s="112"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="149"/>
-      <c r="K48" s="167"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
+      <c r="K48" s="155"/>
     </row>
     <row r="49" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="180" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="186" t="s">
+      <c r="A49" s="169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="D49" s="180" t="s">
+      <c r="D49" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="E49" s="180" t="s">
+      <c r="E49" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="F49" s="113">
+      <c r="F49" s="109">
         <v>27364</v>
       </c>
-      <c r="G49" s="128">
+      <c r="G49" s="124">
         <v>31382</v>
       </c>
-      <c r="H49" s="130" t="s">
+      <c r="H49" s="126" t="s">
         <v>264</v>
       </c>
-      <c r="I49" s="130" t="s">
+      <c r="I49" s="126" t="s">
         <v>264</v>
       </c>
-      <c r="J49" s="130" t="s">
+      <c r="J49" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="K49" s="163" t="s">
+      <c r="K49" s="151" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="180" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="186" t="s">
+      <c r="A50" s="169" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="173" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="180" t="s">
+      <c r="D50" s="168" t="s">
         <v>199</v>
       </c>
-      <c r="E50" s="180" t="s">
+      <c r="E50" s="168" t="s">
         <v>264</v>
       </c>
-      <c r="F50" s="113">
+      <c r="F50" s="109">
         <v>27364</v>
       </c>
-      <c r="G50" s="129"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="163"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="151"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="186" t="s">
+      <c r="A51" s="184" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="173" t="s">
         <v>142</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -5503,33 +5623,33 @@
       <c r="E51" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F51" s="109">
+      <c r="F51" s="105">
         <v>27261</v>
       </c>
-      <c r="G51" s="109">
+      <c r="G51" s="105">
         <v>32174</v>
       </c>
-      <c r="H51" s="74" t="s">
+      <c r="H51" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="I51" s="74" t="s">
+      <c r="I51" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="J51" s="74" t="s">
+      <c r="J51" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="K51" s="82" t="s">
+      <c r="K51" s="79" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="177" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="186" t="s">
+      <c r="A52" s="184" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="13" t="s">
@@ -5538,33 +5658,33 @@
       <c r="E52" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F52" s="109">
+      <c r="F52" s="105">
         <v>32196</v>
       </c>
-      <c r="G52" s="109">
+      <c r="G52" s="105">
         <v>34304</v>
       </c>
-      <c r="H52" s="74" t="s">
+      <c r="H52" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="I52" s="74" t="s">
+      <c r="I52" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J52" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K52" s="82" t="s">
+      <c r="J52" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K52" s="79" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="178" t="s">
+      <c r="A53" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="186" t="s">
+      <c r="B53" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="33" t="s">
@@ -5573,31 +5693,31 @@
       <c r="E53" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="F53" s="114">
+      <c r="F53" s="110">
         <v>30875</v>
       </c>
-      <c r="G53" s="107"/>
-      <c r="H53" s="81" t="s">
+      <c r="G53" s="103"/>
+      <c r="H53" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I53" s="81" t="s">
+      <c r="I53" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J53" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K53" s="84" t="s">
+      <c r="J53" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K53" s="81" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="178" t="s">
+      <c r="A54" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="186" t="s">
+      <c r="B54" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="33" t="s">
@@ -5606,33 +5726,33 @@
       <c r="E54" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F54" s="114">
+      <c r="F54" s="110">
         <v>30896</v>
       </c>
-      <c r="G54" s="114">
+      <c r="G54" s="110">
         <v>36628</v>
       </c>
-      <c r="H54" s="81" t="s">
+      <c r="H54" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I54" s="81" t="s">
+      <c r="I54" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J54" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K54" s="85" t="s">
+      <c r="J54" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K54" s="82" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="178" t="s">
+      <c r="A55" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" s="186" t="s">
+      <c r="B55" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="33" t="s">
@@ -5641,33 +5761,33 @@
       <c r="E55" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F55" s="114">
+      <c r="F55" s="110">
         <v>36630</v>
       </c>
-      <c r="G55" s="107">
+      <c r="G55" s="103">
         <v>39417</v>
       </c>
-      <c r="H55" s="81" t="s">
+      <c r="H55" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I55" s="81" t="s">
+      <c r="I55" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J55" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K55" s="77" t="s">
+      <c r="J55" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K55" s="74" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="178" t="s">
+      <c r="A56" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="186" t="s">
+      <c r="B56" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="33" t="s">
@@ -5676,33 +5796,33 @@
       <c r="E56" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="114">
+      <c r="F56" s="110">
         <v>36630</v>
       </c>
-      <c r="G56" s="107">
+      <c r="G56" s="103">
         <v>39417</v>
       </c>
-      <c r="H56" s="81" t="s">
+      <c r="H56" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I56" s="81" t="s">
+      <c r="I56" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J56" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K56" s="77" t="s">
+      <c r="J56" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K56" s="74" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="178" t="s">
+      <c r="A57" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="186" t="s">
+      <c r="B57" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="33" t="s">
@@ -5711,33 +5831,33 @@
       <c r="E57" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F57" s="114">
+      <c r="F57" s="110">
         <v>37882</v>
       </c>
-      <c r="G57" s="107">
+      <c r="G57" s="103">
         <v>39417</v>
       </c>
-      <c r="H57" s="81" t="s">
+      <c r="H57" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I57" s="81" t="s">
+      <c r="I57" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J57" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K57" s="77" t="s">
+      <c r="J57" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K57" s="74" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="B58" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="186" t="s">
+      <c r="A58" s="169" t="s">
+        <v>346</v>
+      </c>
+      <c r="B58" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="32" t="s">
@@ -5746,33 +5866,33 @@
       <c r="E58" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F58" s="115">
+      <c r="F58" s="111">
         <v>1974</v>
       </c>
-      <c r="G58" s="115">
+      <c r="G58" s="111">
         <v>28460</v>
       </c>
-      <c r="H58" s="79" t="s">
+      <c r="H58" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="I58" s="79" t="s">
+      <c r="I58" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J58" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K58" s="86" t="s">
+      <c r="J58" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K58" s="83" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="186" t="s">
+      <c r="A59" s="169" t="s">
+        <v>346</v>
+      </c>
+      <c r="B59" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D59" s="32" t="s">
@@ -5781,31 +5901,31 @@
       <c r="E59" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F59" s="115">
+      <c r="F59" s="111">
         <v>1977</v>
       </c>
-      <c r="G59" s="115">
+      <c r="G59" s="111">
         <v>31382</v>
       </c>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79" t="s">
+      <c r="H59" s="76"/>
+      <c r="I59" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J59" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K59" s="86" t="s">
+      <c r="J59" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K59" s="83" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="177" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="186" t="s">
+      <c r="A60" s="184" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D60" s="34" t="s">
@@ -5814,33 +5934,33 @@
       <c r="E60" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="F60" s="109">
+      <c r="F60" s="105">
         <v>38087</v>
       </c>
-      <c r="G60" s="109">
+      <c r="G60" s="105">
         <v>28369</v>
       </c>
-      <c r="H60" s="87" t="s">
+      <c r="H60" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="I60" s="87" t="s">
+      <c r="I60" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="J60" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="K60" s="83" t="s">
+      <c r="J60" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="K60" s="80" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="177" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="189" t="s">
+      <c r="A61" s="184" t="s">
+        <v>347</v>
+      </c>
+      <c r="B61" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="176" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -5849,66 +5969,66 @@
       <c r="E61" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="F61" s="109">
+      <c r="F61" s="105">
         <v>27649</v>
       </c>
-      <c r="G61" s="109">
+      <c r="G61" s="105">
         <v>38087</v>
       </c>
-      <c r="H61" s="87" t="s">
+      <c r="H61" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="I61" s="87" t="s">
+      <c r="I61" s="84" t="s">
         <v>263</v>
       </c>
-      <c r="J61" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="K61" s="83" t="s">
+      <c r="J61" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="K61" s="80" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="177" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="189"/>
+      <c r="A62" s="184" t="s">
+        <v>347</v>
+      </c>
+      <c r="B62" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="176"/>
       <c r="D62" s="13" t="s">
         <v>153</v>
       </c>
       <c r="E62" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="F62" s="109">
+      <c r="F62" s="105">
         <v>26716</v>
       </c>
-      <c r="G62" s="109">
+      <c r="G62" s="105">
         <v>28328</v>
       </c>
-      <c r="H62" s="87" t="s">
+      <c r="H62" s="84" t="s">
         <v>240</v>
       </c>
-      <c r="I62" s="87" t="s">
+      <c r="I62" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="J62" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="K62" s="83" t="s">
+      <c r="J62" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="K62" s="80" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="186" t="s">
+      <c r="A63" s="185" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="33" t="s">
@@ -5917,33 +6037,33 @@
       <c r="E63" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="F63" s="114">
+      <c r="F63" s="110">
         <v>26347</v>
       </c>
-      <c r="G63" s="107">
+      <c r="G63" s="103">
         <v>37561</v>
       </c>
-      <c r="H63" s="81" t="s">
+      <c r="H63" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I63" s="81" t="s">
+      <c r="I63" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J63" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K63" s="77" t="s">
+      <c r="J63" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K63" s="74" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C64" s="186" t="s">
+      <c r="A64" s="185" t="s">
+        <v>348</v>
+      </c>
+      <c r="B64" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="33" t="s">
@@ -5952,33 +6072,33 @@
       <c r="E64" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="F64" s="114">
+      <c r="F64" s="110">
         <v>26406</v>
       </c>
-      <c r="G64" s="107">
+      <c r="G64" s="103">
         <v>37561</v>
       </c>
-      <c r="H64" s="81" t="s">
+      <c r="H64" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="I64" s="81" t="s">
+      <c r="I64" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J64" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K64" s="77" t="s">
+      <c r="J64" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K64" s="74" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="178" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="186" t="s">
+      <c r="A65" s="185" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D65" s="33" t="s">
@@ -5987,33 +6107,33 @@
       <c r="E65" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="F65" s="114">
+      <c r="F65" s="110">
         <v>26347</v>
       </c>
-      <c r="G65" s="114">
+      <c r="G65" s="110">
         <v>26385</v>
       </c>
-      <c r="H65" s="81" t="s">
+      <c r="H65" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="I65" s="81" t="s">
+      <c r="I65" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J65" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K65" s="77" t="s">
+      <c r="J65" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K65" s="74" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="186" t="s">
+      <c r="A66" s="169" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C66" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="32" t="s">
@@ -6022,27 +6142,27 @@
       <c r="E66" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F66" s="115">
+      <c r="F66" s="111">
         <v>26875</v>
       </c>
-      <c r="G66" s="115">
+      <c r="G66" s="111">
         <v>29839</v>
       </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="79"/>
-      <c r="K66" s="88" t="s">
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="85" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="186" t="s">
+      <c r="A67" s="169" t="s">
+        <v>349</v>
+      </c>
+      <c r="B67" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="32" t="s">
@@ -6051,27 +6171,27 @@
       <c r="E67" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F67" s="123">
+      <c r="F67" s="119">
         <v>30194</v>
       </c>
-      <c r="G67" s="116">
+      <c r="G67" s="112">
         <v>30194</v>
       </c>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="88" t="s">
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76"/>
+      <c r="K67" s="85" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="177" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="186" t="s">
+      <c r="A68" s="184" t="s">
+        <v>350</v>
+      </c>
+      <c r="B68" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="13" t="s">
@@ -6080,33 +6200,33 @@
       <c r="E68" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="109">
+      <c r="F68" s="105">
         <v>26861</v>
       </c>
-      <c r="G68" s="117">
+      <c r="G68" s="113">
         <v>27242</v>
       </c>
-      <c r="H68" s="74" t="s">
+      <c r="H68" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="I68" s="74" t="s">
+      <c r="I68" s="71" t="s">
         <v>264</v>
       </c>
-      <c r="J68" s="74" t="s">
+      <c r="J68" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="K68" s="82" t="s">
+      <c r="K68" s="79" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="177" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C69" s="186" t="s">
+      <c r="A69" s="184" t="s">
+        <v>350</v>
+      </c>
+      <c r="B69" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -6115,33 +6235,33 @@
       <c r="E69" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F69" s="109">
+      <c r="F69" s="105">
         <v>27242</v>
       </c>
-      <c r="G69" s="117">
+      <c r="G69" s="113">
         <v>28156</v>
       </c>
-      <c r="H69" s="74" t="s">
+      <c r="H69" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="I69" s="74" t="s">
+      <c r="I69" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J69" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K69" s="82" t="s">
+      <c r="J69" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K69" s="79" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="178" t="s">
-        <v>26</v>
-      </c>
-      <c r="B70" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="190" t="s">
+      <c r="A70" s="185" t="s">
+        <v>351</v>
+      </c>
+      <c r="B70" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="177" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="33" t="s">
@@ -6150,33 +6270,33 @@
       <c r="E70" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="114">
+      <c r="F70" s="110">
         <v>28548</v>
       </c>
-      <c r="G70" s="114">
+      <c r="G70" s="110">
         <v>34829</v>
       </c>
-      <c r="H70" s="81" t="s">
+      <c r="H70" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I70" s="81" t="s">
+      <c r="I70" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J70" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K70" s="89" t="s">
+      <c r="J70" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K70" s="86" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="178" t="s">
-        <v>26</v>
-      </c>
-      <c r="B71" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="190" t="s">
+      <c r="A71" s="185" t="s">
+        <v>351</v>
+      </c>
+      <c r="B71" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="177" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="33" t="s">
@@ -6185,33 +6305,33 @@
       <c r="E71" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="114">
+      <c r="F71" s="110">
         <v>26785</v>
       </c>
-      <c r="G71" s="114">
+      <c r="G71" s="110">
         <v>28548</v>
       </c>
-      <c r="H71" s="81" t="s">
+      <c r="H71" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I71" s="81" t="s">
+      <c r="I71" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J71" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K71" s="89" t="s">
+      <c r="J71" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K71" s="86" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="178" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C72" s="190" t="s">
+      <c r="A72" s="185" t="s">
+        <v>351</v>
+      </c>
+      <c r="B72" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="177" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="33" t="s">
@@ -6220,68 +6340,68 @@
       <c r="E72" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="114">
+      <c r="F72" s="110">
         <v>26688</v>
       </c>
-      <c r="G72" s="114">
+      <c r="G72" s="110">
         <v>26785</v>
       </c>
-      <c r="H72" s="81" t="s">
+      <c r="H72" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="81" t="s">
+      <c r="I72" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J72" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K72" s="89" t="s">
+      <c r="J72" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K72" s="86" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="178" t="s">
-        <v>26</v>
-      </c>
-      <c r="B73" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="186" t="s">
+      <c r="A73" s="185" t="s">
+        <v>351</v>
+      </c>
+      <c r="B73" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="38" t="s">
         <v>164</v>
       </c>
       <c r="E73" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F73" s="114">
+      <c r="F73" s="110">
         <v>26688</v>
       </c>
-      <c r="G73" s="114">
+      <c r="G73" s="110">
         <v>26785</v>
       </c>
-      <c r="H73" s="81" t="s">
+      <c r="H73" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="I73" s="81" t="s">
+      <c r="I73" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J73" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K73" s="89" t="s">
+      <c r="J73" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K73" s="86" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="186" t="s">
+      <c r="A74" s="190" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="32" t="s">
@@ -6290,33 +6410,33 @@
       <c r="E74" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F74" s="115">
+      <c r="F74" s="111">
         <v>26846</v>
       </c>
-      <c r="G74" s="115">
+      <c r="G74" s="111">
         <v>26908</v>
       </c>
-      <c r="H74" s="79" t="s">
+      <c r="H74" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="I74" s="79" t="s">
+      <c r="I74" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J74" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K74" s="90" t="s">
+      <c r="J74" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K74" s="87" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B75" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" s="186" t="s">
+      <c r="A75" s="191" t="s">
+        <v>353</v>
+      </c>
+      <c r="B75" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -6325,132 +6445,132 @@
       <c r="E75" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F75" s="109">
+      <c r="F75" s="105">
         <v>27098</v>
       </c>
-      <c r="G75" s="109">
+      <c r="G75" s="105">
         <v>27334</v>
       </c>
-      <c r="H75" s="74" t="s">
+      <c r="H75" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="I75" s="74" t="s">
+      <c r="I75" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J75" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K75" s="82" t="s">
+      <c r="J75" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K75" s="79" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="181" t="s">
-        <v>29</v>
-      </c>
-      <c r="B76" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C76" s="186" t="s">
+      <c r="A76" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D76" s="51" t="s">
+      <c r="D76" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="E76" s="51" t="s">
+      <c r="E76" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="F76" s="118">
+      <c r="F76" s="114">
         <v>29434</v>
       </c>
-      <c r="G76" s="118"/>
-      <c r="H76" s="91" t="s">
+      <c r="G76" s="114"/>
+      <c r="H76" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="I76" s="91" t="s">
+      <c r="I76" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="J76" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K76" s="92" t="s">
+      <c r="J76" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="K76" s="89" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="181" t="s">
-        <v>29</v>
-      </c>
-      <c r="B77" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="186" t="s">
+      <c r="A77" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="51" t="s">
+      <c r="D77" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="F77" s="118">
+      <c r="F77" s="114">
         <v>29434</v>
       </c>
-      <c r="G77" s="118"/>
-      <c r="H77" s="91" t="s">
+      <c r="G77" s="114"/>
+      <c r="H77" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="I77" s="91" t="s">
+      <c r="I77" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="J77" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K77" s="92" t="s">
+      <c r="J77" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="K77" s="89" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="181" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="186" t="s">
+      <c r="A78" s="182" t="s">
+        <v>354</v>
+      </c>
+      <c r="B78" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="E78" s="51" t="s">
+      <c r="E78" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="F78" s="118">
+      <c r="F78" s="114">
         <v>29434</v>
       </c>
-      <c r="G78" s="118"/>
-      <c r="H78" s="91" t="s">
+      <c r="G78" s="114"/>
+      <c r="H78" s="88" t="s">
         <v>303</v>
       </c>
-      <c r="I78" s="91" t="s">
+      <c r="I78" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="J78" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K78" s="93" t="s">
+      <c r="J78" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="K78" s="90" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C79" s="186" t="s">
+      <c r="A79" s="192" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="33" t="s">
@@ -6459,33 +6579,33 @@
       <c r="E79" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F79" s="124">
+      <c r="F79" s="120">
         <v>30133</v>
       </c>
-      <c r="G79" s="107">
+      <c r="G79" s="103">
         <v>30286</v>
       </c>
-      <c r="H79" s="81" t="s">
+      <c r="H79" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I79" s="81" t="s">
+      <c r="I79" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J79" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K79" s="89" t="s">
+      <c r="J79" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K79" s="86" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="186" t="s">
+      <c r="A80" s="193" t="s">
+        <v>356</v>
+      </c>
+      <c r="B80" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="32" t="s">
@@ -6494,33 +6614,33 @@
       <c r="E80" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F80" s="115">
+      <c r="F80" s="111">
         <v>27303</v>
       </c>
-      <c r="G80" s="115">
+      <c r="G80" s="111">
         <v>27881</v>
       </c>
-      <c r="H80" s="79" t="s">
+      <c r="H80" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="I80" s="79" t="s">
+      <c r="I80" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J80" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K80" s="94" t="s">
+      <c r="J80" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K80" s="91" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="135" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C81" s="186" t="s">
+      <c r="A81" s="185" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C81" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D81" s="33" t="s">
@@ -6529,31 +6649,33 @@
       <c r="E81" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F81" s="107">
+      <c r="F81" s="103">
         <v>27794</v>
       </c>
-      <c r="G81" s="107">
+      <c r="G81" s="103">
         <v>28946</v>
       </c>
-      <c r="H81" s="81" t="s">
+      <c r="H81" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="I81" s="81" t="s">
+      <c r="I81" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J81" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K81" s="89" t="s">
+      <c r="J81" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K81" s="86" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="136"/>
-      <c r="B82" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="186" t="s">
+      <c r="A82" s="185" t="s">
+        <v>357</v>
+      </c>
+      <c r="B82" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C82" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="33" t="s">
@@ -6562,31 +6684,33 @@
       <c r="E82" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F82" s="107">
+      <c r="F82" s="103">
         <v>28946</v>
       </c>
-      <c r="G82" s="107">
+      <c r="G82" s="103">
         <v>28946</v>
       </c>
-      <c r="H82" s="81" t="s">
+      <c r="H82" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I82" s="81" t="s">
+      <c r="I82" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J82" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K82" s="89" t="s">
+      <c r="J82" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K82" s="86" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="137"/>
-      <c r="B83" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="186" t="s">
+      <c r="A83" s="185" t="s">
+        <v>357</v>
+      </c>
+      <c r="B83" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="33" t="s">
@@ -6595,33 +6719,33 @@
       <c r="E83" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="F83" s="107">
+      <c r="F83" s="103">
         <v>30590</v>
       </c>
-      <c r="G83" s="107">
+      <c r="G83" s="103">
         <v>30560</v>
       </c>
-      <c r="H83" s="81" t="s">
+      <c r="H83" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I83" s="81" t="s">
+      <c r="I83" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J83" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K83" s="89" t="s">
+      <c r="J83" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K83" s="86" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="138" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C84" s="186" t="s">
+      <c r="A84" s="169" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D84" s="32" t="s">
@@ -6630,31 +6754,33 @@
       <c r="E84" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F84" s="115">
+      <c r="F84" s="111">
         <v>27048</v>
       </c>
-      <c r="G84" s="116">
+      <c r="G84" s="112">
         <v>28430</v>
       </c>
-      <c r="H84" s="79" t="s">
+      <c r="H84" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="I84" s="79" t="s">
+      <c r="I84" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J84" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K84" s="94" t="s">
+      <c r="J84" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K84" s="91" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="140"/>
-      <c r="B85" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C85" s="186" t="s">
+      <c r="A85" s="169" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D85" s="32" t="s">
@@ -6663,33 +6789,33 @@
       <c r="E85" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="F85" s="115">
+      <c r="F85" s="111">
         <v>28453</v>
       </c>
-      <c r="G85" s="116">
+      <c r="G85" s="112">
         <v>31685</v>
       </c>
-      <c r="H85" s="79" t="s">
+      <c r="H85" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="I85" s="79" t="s">
+      <c r="I85" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J85" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K85" s="94" t="s">
+      <c r="J85" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K85" s="91" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C86" s="186" t="s">
+      <c r="A86" s="184" t="s">
+        <v>359</v>
+      </c>
+      <c r="B86" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="13" t="s">
@@ -6698,31 +6824,33 @@
       <c r="E86" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F86" s="109">
+      <c r="F86" s="105">
         <v>27210</v>
       </c>
-      <c r="G86" s="117">
+      <c r="G86" s="113">
         <v>29221</v>
       </c>
-      <c r="H86" s="74" t="s">
+      <c r="H86" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="I86" s="74" t="s">
+      <c r="I86" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J86" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K86" s="95" t="s">
+      <c r="J86" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K86" s="92" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="142"/>
-      <c r="B87" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C87" s="186" t="s">
+      <c r="A87" s="184" t="s">
+        <v>359</v>
+      </c>
+      <c r="B87" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C87" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -6731,33 +6859,33 @@
       <c r="E87" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="F87" s="109">
+      <c r="F87" s="105">
         <v>27210</v>
       </c>
-      <c r="G87" s="117">
+      <c r="G87" s="113">
         <v>29221</v>
       </c>
-      <c r="H87" s="74" t="s">
+      <c r="H87" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="I87" s="74" t="s">
+      <c r="I87" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J87" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K87" s="95" t="s">
+      <c r="J87" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K87" s="92" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="135" t="s">
-        <v>36</v>
-      </c>
-      <c r="B88" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="189" t="s">
+      <c r="A88" s="185" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" s="176" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="33" t="s">
@@ -6766,99 +6894,101 @@
       <c r="E88" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="107">
+      <c r="F88" s="103">
         <v>27242</v>
       </c>
-      <c r="G88" s="107">
+      <c r="G88" s="103">
         <v>27768</v>
       </c>
-      <c r="H88" s="81" t="s">
+      <c r="H88" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="I88" s="81" t="s">
+      <c r="I88" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J88" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K88" s="89" t="s">
+      <c r="J88" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K88" s="86" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="137"/>
-      <c r="B89" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" s="189"/>
+      <c r="A89" s="185" t="s">
+        <v>360</v>
+      </c>
+      <c r="B89" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="176"/>
       <c r="D89" s="33" t="s">
         <v>176</v>
       </c>
       <c r="E89" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="107">
+      <c r="F89" s="103">
         <v>27768</v>
       </c>
-      <c r="G89" s="107">
+      <c r="G89" s="103">
         <v>38718</v>
       </c>
-      <c r="H89" s="81" t="s">
+      <c r="H89" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I89" s="81" t="s">
+      <c r="I89" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J89" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K89" s="89" t="s">
+      <c r="J89" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K89" s="86" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="186" t="s">
+      <c r="A90" s="169" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="36" t="s">
+      <c r="D90" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="F90" s="115">
+      <c r="F90" s="111">
         <v>27169</v>
       </c>
-      <c r="G90" s="115">
+      <c r="G90" s="111">
         <v>28579</v>
       </c>
-      <c r="H90" s="96" t="s">
+      <c r="H90" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="I90" s="96" t="s">
+      <c r="I90" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="J90" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="K90" s="86" t="s">
+      <c r="J90" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="K90" s="83" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" s="189" t="s">
+      <c r="A91" s="184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B91" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="178" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="13" t="s">
@@ -6867,95 +6997,103 @@
       <c r="E91" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F91" s="109">
+      <c r="F91" s="105">
         <v>27388</v>
       </c>
-      <c r="G91" s="117">
+      <c r="G91" s="113">
         <v>2002</v>
       </c>
-      <c r="H91" s="74" t="s">
+      <c r="H91" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I91" s="74" t="s">
+      <c r="I91" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J91" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K91" s="95" t="s">
+      <c r="J91" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K91" s="92" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="152"/>
-      <c r="B92" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C92" s="189"/>
+      <c r="A92" s="184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="181" t="s">
+        <v>4</v>
+      </c>
       <c r="D92" s="13" t="s">
         <v>179</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="F92" s="109">
+      <c r="F92" s="105">
         <v>27139</v>
       </c>
-      <c r="G92" s="109">
+      <c r="G92" s="105">
         <v>2002</v>
       </c>
-      <c r="H92" s="74" t="s">
+      <c r="H92" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="I92" s="74" t="s">
+      <c r="I92" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J92" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K92" s="95" t="s">
+      <c r="J92" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K92" s="92" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="142"/>
-      <c r="B93" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C93" s="189"/>
+      <c r="A93" s="184" t="s">
+        <v>362</v>
+      </c>
+      <c r="B93" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="179" t="s">
+        <v>4</v>
+      </c>
       <c r="D93" s="13" t="s">
         <v>180</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="F93" s="109">
+      <c r="F93" s="105">
         <v>27234</v>
       </c>
-      <c r="G93" s="109">
+      <c r="G93" s="105">
         <v>2002</v>
       </c>
-      <c r="H93" s="74" t="s">
+      <c r="H93" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="I93" s="74" t="s">
+      <c r="I93" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J93" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K93" s="95" t="s">
+      <c r="J93" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K93" s="92" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="135" t="s">
-        <v>39</v>
-      </c>
-      <c r="B94" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C94" s="186" t="s">
+      <c r="A94" s="185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B94" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="33" t="s">
@@ -6964,31 +7102,33 @@
       <c r="E94" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="F94" s="107">
+      <c r="F94" s="103">
         <v>33632</v>
       </c>
-      <c r="G94" s="107">
+      <c r="G94" s="103">
         <v>2002</v>
       </c>
-      <c r="H94" s="81" t="s">
+      <c r="H94" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="I94" s="81" t="s">
+      <c r="I94" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="J94" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K94" s="97" t="s">
+      <c r="J94" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K94" s="94" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="136"/>
-      <c r="B95" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="186" t="s">
+      <c r="A95" s="185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B95" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="33" t="s">
@@ -6997,31 +7137,33 @@
       <c r="E95" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="F95" s="107">
+      <c r="F95" s="103">
         <v>37469</v>
       </c>
-      <c r="G95" s="107">
+      <c r="G95" s="103">
         <v>37469</v>
       </c>
-      <c r="H95" s="81" t="s">
+      <c r="H95" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="I95" s="81" t="s">
+      <c r="I95" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="J95" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K95" s="97" t="s">
+      <c r="J95" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K95" s="94" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="136"/>
-      <c r="B96" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" s="186" t="s">
+      <c r="A96" s="185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B96" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="33" t="s">
@@ -7030,31 +7172,33 @@
       <c r="E96" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F96" s="107">
+      <c r="F96" s="103">
         <v>33055</v>
       </c>
-      <c r="G96" s="107">
+      <c r="G96" s="103">
         <v>33604</v>
       </c>
-      <c r="H96" s="81" t="s">
+      <c r="H96" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="I96" s="81" t="s">
+      <c r="I96" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J96" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K96" s="97" t="s">
+      <c r="J96" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K96" s="94" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="137"/>
-      <c r="B97" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="186" t="s">
+      <c r="A97" s="185" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="33" t="s">
@@ -7063,33 +7207,33 @@
       <c r="E97" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F97" s="107">
+      <c r="F97" s="103">
         <v>30803</v>
       </c>
-      <c r="G97" s="107">
+      <c r="G97" s="103">
         <v>33055</v>
       </c>
-      <c r="H97" s="81" t="s">
+      <c r="H97" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="I97" s="81" t="s">
+      <c r="I97" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="J97" s="81" t="s">
-        <v>265</v>
-      </c>
-      <c r="K97" s="97" t="s">
+      <c r="J97" s="78" t="s">
+        <v>265</v>
+      </c>
+      <c r="K97" s="94" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98" s="186" t="s">
+      <c r="A98" s="169" t="s">
+        <v>364</v>
+      </c>
+      <c r="B98" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D98" s="32" t="s">
@@ -7098,31 +7242,33 @@
       <c r="E98" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F98" s="115">
+      <c r="F98" s="111">
         <v>30965</v>
       </c>
-      <c r="G98" s="115">
+      <c r="G98" s="111">
         <v>36336</v>
       </c>
-      <c r="H98" s="79" t="s">
+      <c r="H98" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="I98" s="79" t="s">
+      <c r="I98" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J98" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K98" s="88" t="s">
+      <c r="J98" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K98" s="85" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="140"/>
-      <c r="B99" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="186" t="s">
+      <c r="A99" s="169" t="s">
+        <v>364</v>
+      </c>
+      <c r="B99" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C99" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D99" s="32" t="s">
@@ -7131,33 +7277,33 @@
       <c r="E99" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F99" s="115">
+      <c r="F99" s="111">
         <v>36336</v>
       </c>
-      <c r="G99" s="115">
+      <c r="G99" s="111">
         <v>37986</v>
       </c>
-      <c r="H99" s="79" t="s">
+      <c r="H99" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="I99" s="79" t="s">
+      <c r="I99" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="J99" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K99" s="88" t="s">
+      <c r="J99" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K99" s="85" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="141" t="s">
-        <v>41</v>
-      </c>
-      <c r="B100" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C100" s="186" t="s">
+      <c r="A100" s="184" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D100" s="13" t="s">
@@ -7166,31 +7312,33 @@
       <c r="E100" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="F100" s="109">
+      <c r="F100" s="105">
         <v>31589</v>
       </c>
-      <c r="G100" s="109">
+      <c r="G100" s="105">
         <v>39872</v>
       </c>
-      <c r="H100" s="74" t="s">
+      <c r="H100" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="I100" s="74" t="s">
+      <c r="I100" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J100" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K100" s="82" t="s">
+      <c r="J100" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K100" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="152"/>
-      <c r="B101" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="186" t="s">
+      <c r="A101" s="184" t="s">
+        <v>365</v>
+      </c>
+      <c r="B101" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -7199,31 +7347,33 @@
       <c r="E101" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F101" s="109">
+      <c r="F101" s="105">
         <v>31024</v>
       </c>
-      <c r="G101" s="109">
+      <c r="G101" s="105">
         <v>31589</v>
       </c>
-      <c r="H101" s="74" t="s">
+      <c r="H101" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="I101" s="74" t="s">
+      <c r="I101" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J101" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K101" s="82" t="s">
+      <c r="J101" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K101" s="79" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="142"/>
-      <c r="B102" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="186" t="s">
+      <c r="A102" s="184" t="s">
+        <v>365</v>
+      </c>
+      <c r="B102" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D102" s="13" t="s">
@@ -7232,33 +7382,33 @@
       <c r="E102" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="F102" s="109">
+      <c r="F102" s="105">
         <v>31589</v>
       </c>
-      <c r="G102" s="109">
+      <c r="G102" s="105">
         <v>31589</v>
       </c>
-      <c r="H102" s="74" t="s">
+      <c r="H102" s="71" t="s">
         <v>207</v>
       </c>
-      <c r="I102" s="74" t="s">
+      <c r="I102" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="J102" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K102" s="82" t="s">
+      <c r="J102" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K102" s="79" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C103" s="186" t="s">
+      <c r="A103" s="194" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="173" t="s">
         <v>189</v>
       </c>
       <c r="D103" s="33" t="s">
@@ -7267,33 +7417,33 @@
       <c r="E103" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="F103" s="107">
+      <c r="F103" s="103">
         <v>31563</v>
       </c>
-      <c r="G103" s="107">
+      <c r="G103" s="103">
         <v>38199</v>
       </c>
-      <c r="H103" s="81" t="s">
+      <c r="H103" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="I103" s="81" t="s">
+      <c r="I103" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="J103" s="81" t="s">
+      <c r="J103" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="K103" s="89" t="s">
+      <c r="K103" s="86" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="153" t="s">
-        <v>43</v>
-      </c>
-      <c r="B104" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" s="186" t="s">
+      <c r="A104" s="169" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C104" s="173" t="s">
         <v>4</v>
       </c>
       <c r="D104" s="32" t="s">
@@ -7302,31 +7452,33 @@
       <c r="E104" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F104" s="115">
+      <c r="F104" s="111">
         <v>29190</v>
       </c>
-      <c r="G104" s="116">
+      <c r="G104" s="112">
         <v>2003</v>
       </c>
-      <c r="H104" s="79" t="s">
+      <c r="H104" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="I104" s="79" t="s">
+      <c r="I104" s="76" t="s">
         <v>228</v>
       </c>
-      <c r="J104" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="K104" s="80" t="s">
+      <c r="J104" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="K104" s="77" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="153"/>
-      <c r="B105" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="186" t="s">
+      <c r="A105" s="169" t="s">
+        <v>367</v>
+      </c>
+      <c r="B105" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" s="173" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="32" t="s">
@@ -7335,351 +7487,356 @@
       <c r="E105" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F105" s="115">
+      <c r="F105" s="111">
         <v>30585</v>
       </c>
-      <c r="G105" s="115">
+      <c r="G105" s="111">
         <v>2003</v>
       </c>
-      <c r="H105" s="79" t="s">
+      <c r="H105" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="I105" s="79" t="s">
+      <c r="I105" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="J105" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K105" s="80" t="s">
+      <c r="J105" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K105" s="77" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="153"/>
-      <c r="B106" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C106" s="186"/>
+      <c r="A106" s="169" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="173" t="s">
+        <v>2</v>
+      </c>
       <c r="D106" s="32" t="s">
         <v>193</v>
       </c>
       <c r="E106" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F106" s="123"/>
-      <c r="G106" s="116"/>
-      <c r="H106" s="79" t="s">
+      <c r="F106" s="119"/>
+      <c r="G106" s="112"/>
+      <c r="H106" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="I106" s="79" t="s">
+      <c r="I106" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="J106" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K106" s="80" t="s">
+      <c r="J106" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K106" s="77" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="153"/>
-      <c r="B107" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C107" s="186"/>
+      <c r="A107" s="169" t="s">
+        <v>367</v>
+      </c>
+      <c r="B107" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C107" s="173" t="s">
+        <v>3</v>
+      </c>
       <c r="D107" s="32" t="s">
         <v>194</v>
       </c>
       <c r="E107" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F107" s="123"/>
-      <c r="G107" s="116"/>
-      <c r="H107" s="79" t="s">
+      <c r="F107" s="119"/>
+      <c r="G107" s="112"/>
+      <c r="H107" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="I107" s="79" t="s">
+      <c r="I107" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="J107" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="K107" s="80" t="s">
+      <c r="J107" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="K107" s="77" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="158" t="s">
-        <v>32</v>
-      </c>
-      <c r="B108" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C108" s="186" t="s">
+      <c r="A108" s="182" t="s">
+        <v>368</v>
+      </c>
+      <c r="B108" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="E108" s="51" t="s">
+      <c r="E108" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F108" s="118">
+      <c r="F108" s="114">
         <v>27211</v>
       </c>
-      <c r="G108" s="118">
+      <c r="G108" s="114">
         <v>28369</v>
       </c>
-      <c r="H108" s="91" t="s">
+      <c r="H108" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="I108" s="91" t="s">
+      <c r="I108" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="J108" s="91" t="s">
+      <c r="J108" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="K108" s="92" t="s">
+      <c r="K108" s="89" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="159"/>
-      <c r="B109" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C109" s="186"/>
-      <c r="D109" s="51" t="s">
+      <c r="A109" s="182" t="s">
+        <v>368</v>
+      </c>
+      <c r="B109" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109" s="173" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="E109" s="51" t="s">
+      <c r="E109" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="F109" s="118">
+      <c r="F109" s="114">
         <v>28369</v>
       </c>
-      <c r="G109" s="118"/>
-      <c r="H109" s="91" t="s">
+      <c r="G109" s="114"/>
+      <c r="H109" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="I109" s="91" t="s">
+      <c r="I109" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="J109" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K109" s="92" t="s">
+      <c r="J109" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="K109" s="89" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="52" t="s">
+    <row r="110" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="182" t="s">
+        <v>369</v>
+      </c>
+      <c r="B110" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="173" t="s">
+        <v>307</v>
+      </c>
+      <c r="D110" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="B110" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" s="186" t="s">
+      <c r="E110" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" s="115">
+        <v>29677</v>
+      </c>
+      <c r="G110" s="115"/>
+      <c r="H110" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="I110" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="J110" s="95" t="s">
+        <v>265</v>
+      </c>
+      <c r="K110" s="96" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="195" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="23"/>
+      <c r="D111" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="D110" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="E110" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="F110" s="119">
-        <v>29677</v>
-      </c>
-      <c r="G110" s="119"/>
-      <c r="H110" s="98" t="s">
+      <c r="E111" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" s="114">
+        <v>27364</v>
+      </c>
+      <c r="G111" s="114">
+        <v>28065</v>
+      </c>
+      <c r="H111" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="I111" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="J111" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="K111" s="89" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="195" t="s">
+        <v>370</v>
+      </c>
+      <c r="B112" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C112" s="173"/>
+      <c r="D112" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E112" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="F112" s="114">
+        <v>27364</v>
+      </c>
+      <c r="G112" s="114">
+        <v>28369</v>
+      </c>
+      <c r="H112" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="I112" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="J112" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="K112" s="97" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="195" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="173"/>
+      <c r="D113" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E113" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="F113" s="114">
+        <v>28369</v>
+      </c>
+      <c r="G113" s="114"/>
+      <c r="H113" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="I110" s="98" t="s">
+      <c r="I113" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="J110" s="98" t="s">
-        <v>265</v>
-      </c>
-      <c r="K110" s="99" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="160" t="s">
-        <v>309</v>
-      </c>
-      <c r="B111" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="E111" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="F111" s="118">
-        <v>27364</v>
-      </c>
-      <c r="G111" s="118">
-        <v>28065</v>
-      </c>
-      <c r="H111" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="I111" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="J111" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K111" s="92" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="161"/>
-      <c r="B112" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" s="186"/>
-      <c r="D112" s="51" t="s">
+      <c r="J113" s="98" t="s">
+        <v>265</v>
+      </c>
+      <c r="K113" s="97" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="182" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C114" s="173"/>
+      <c r="D114" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="E112" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="F112" s="118">
-        <v>27364</v>
-      </c>
-      <c r="G112" s="118">
-        <v>28369</v>
-      </c>
-      <c r="H112" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="I112" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="J112" s="91" t="s">
-        <v>265</v>
-      </c>
-      <c r="K112" s="100" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="162"/>
-      <c r="B113" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C113" s="186"/>
-      <c r="D113" s="51" t="s">
+      <c r="E114" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="F114" s="116">
+        <v>39479</v>
+      </c>
+      <c r="G114" s="116"/>
+      <c r="H114" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="I114" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="J114" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="K114" s="97" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="182" t="s">
+        <v>371</v>
+      </c>
+      <c r="B115" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C115" s="173"/>
+      <c r="D115" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="E113" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="F113" s="118">
-        <v>28369</v>
-      </c>
-      <c r="G113" s="118"/>
-      <c r="H113" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="I113" s="101" t="s">
-        <v>263</v>
-      </c>
-      <c r="J113" s="101" t="s">
-        <v>265</v>
-      </c>
-      <c r="K113" s="100" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="157" t="s">
+      <c r="E115" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="B114" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" s="186"/>
-      <c r="D114" s="51" t="s">
+      <c r="F115" s="116">
+        <v>39479</v>
+      </c>
+      <c r="G115" s="116"/>
+      <c r="H115" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="E114" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="F114" s="120">
-        <v>39479</v>
-      </c>
-      <c r="G114" s="120"/>
-      <c r="H114" s="100" t="s">
-        <v>319</v>
-      </c>
-      <c r="I114" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="J114" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="K114" s="100" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="157"/>
-      <c r="B115" s="180" t="s">
-        <v>98</v>
-      </c>
-      <c r="C115" s="186"/>
-      <c r="D115" s="51" t="s">
+      <c r="I115" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="E115" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="F115" s="120">
-        <v>39479</v>
-      </c>
-      <c r="G115" s="120"/>
-      <c r="H115" s="100" t="s">
-        <v>319</v>
-      </c>
-      <c r="I115" s="100" t="s">
-        <v>320</v>
-      </c>
-      <c r="J115" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="K115" s="100" t="s">
+      <c r="J115" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="K115" s="97" t="s">
         <v>294</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K116"/>
-  <mergeCells count="38">
+  <mergeCells count="25">
     <mergeCell ref="M39:M40"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A111:A113"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="K49:K50"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A81:A83"/>
     <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A88:A89"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="C61:C62"/>
@@ -7723,82 +7880,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="56" t="s">
+      <c r="B1" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D1" s="54" t="s">
         <v>327</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="E1" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="57">
+        <v>35735</v>
+      </c>
+      <c r="F2" s="58">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="57">
+        <v>41548</v>
+      </c>
+      <c r="F3" s="58">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="138" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="59">
-        <v>35735</v>
-      </c>
-      <c r="F2" s="61">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="139"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="59">
-        <v>41548</v>
-      </c>
-      <c r="F3" s="61">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="61" t="s">
-        <v>325</v>
-      </c>
-      <c r="F4" s="61" t="s">
-        <v>333</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="131" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="33" t="s">
@@ -7807,7 +7964,7 @@
       <c r="D5" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="56">
         <v>35462</v>
       </c>
       <c r="F5" s="33">
@@ -7815,15 +7972,15 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="56">
         <v>37834</v>
       </c>
       <c r="F6" s="33">
@@ -7831,100 +7988,100 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="168" t="s">
-        <v>332</v>
+      <c r="A7" s="132"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="156" t="s">
+        <v>329</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="171">
+      <c r="E7" s="159">
         <v>44531</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="131">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="169"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="157"/>
       <c r="D8" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="172"/>
-      <c r="F8" s="137"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="133"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="138" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="138" t="s">
+      <c r="B9" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="138" t="s">
+      <c r="D9" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="170">
+      <c r="E9" s="158">
         <v>44531</v>
       </c>
-      <c r="F9" s="138">
+      <c r="F9" s="134">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="139"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
+      <c r="A10" s="135"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="135" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="135" t="s">
+      <c r="B12" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="173">
+      <c r="E12" s="161">
         <v>34151</v>
       </c>
-      <c r="F12" s="135">
+      <c r="F12" s="131">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="137"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="141" t="s">
+      <c r="A14" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="137" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -7933,7 +8090,7 @@
       <c r="D14" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="55">
         <v>32174</v>
       </c>
       <c r="F14" s="13">
@@ -7941,15 +8098,15 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="142"/>
-      <c r="B15" s="142"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="55">
         <v>33970</v>
       </c>
       <c r="F15" s="13">
@@ -7957,88 +8114,88 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="138" t="s">
+      <c r="A16" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="154" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="61" t="s">
+      <c r="B16" s="148" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="52">
         <v>30011</v>
       </c>
-      <c r="F16" s="175">
+      <c r="F16" s="163">
         <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="139"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="61" t="s">
+      <c r="A17" s="135"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="52">
         <v>30011</v>
       </c>
-      <c r="F17" s="176"/>
+      <c r="F17" s="164"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="139"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="61" t="s">
+      <c r="A18" s="135"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="52">
         <v>37742</v>
       </c>
-      <c r="F18" s="71"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="139"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="61" t="s">
+      <c r="A19" s="135"/>
+      <c r="B19" s="162"/>
+      <c r="C19" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="52">
         <v>30348</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="68">
         <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="140"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="61" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="54">
+      <c r="E20" s="52">
         <v>43282</v>
       </c>
-      <c r="F20" s="71"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="131" t="s">
         <v>98</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -8047,7 +8204,7 @@
       <c r="D21" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="56">
         <v>35765</v>
       </c>
       <c r="F21" s="26">
@@ -8055,31 +8212,31 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="136"/>
-      <c r="B22" s="136"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="30" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E22" s="56">
         <v>35765</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="136"/>
-      <c r="B23" s="136"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="30" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="56">
         <v>43221</v>
       </c>
       <c r="F23" s="30">
@@ -8087,81 +8244,81 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="136"/>
-      <c r="B24" s="136"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="132"/>
       <c r="C24" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E24" s="56">
         <v>35927</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="136"/>
-      <c r="B25" s="136"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="58">
+      <c r="E25" s="56">
         <v>35927</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="136"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="150" t="s">
+      <c r="A26" s="132"/>
+      <c r="B26" s="132"/>
+      <c r="C26" s="146" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="58">
+      <c r="E26" s="56">
         <v>35927</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="62" t="s">
+      <c r="A27" s="132"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="58" t="s">
-        <v>321</v>
+      <c r="E27" s="56" t="s">
+        <v>318</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="137"/>
-      <c r="B28" s="137"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="58" t="s">
-        <v>322</v>
+      <c r="E28" s="56" t="s">
+        <v>319</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -8234,52 +8391,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="127"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="47" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8287,14 +8444,14 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="60">
         <v>47946073.289999999</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="63">
+      <c r="D3" s="60">
         <v>5739203</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="60">
         <v>380108</v>
       </c>
       <c r="F3" s="5">
@@ -8319,9 +8476,9 @@
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="64"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="15"/>
-      <c r="E4" s="65">
+      <c r="E4" s="62">
         <v>39853474.85093417</v>
       </c>
       <c r="F4" s="5">
@@ -8378,10 +8535,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="66">
+      <c r="C6" s="63">
         <v>8583126.4199999999</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="63">
         <v>8843221.1600000001</v>
       </c>
       <c r="E6" s="1">
@@ -8408,7 +8565,7 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="14">
         <v>4712457.1476300005</v>
       </c>
@@ -8566,7 +8723,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="67">
+      <c r="E12" s="64">
         <v>10018580</v>
       </c>
       <c r="F12" s="20">
@@ -9282,7 +9439,7 @@
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
-      <c r="E38" s="68">
+      <c r="E38" s="65">
         <v>6956.2101238099995</v>
       </c>
       <c r="F38" s="22">
@@ -9296,7 +9453,7 @@
       <c r="J38" s="16">
         <v>0.2</v>
       </c>
-      <c r="K38" s="69" t="s">
+      <c r="K38" s="66" t="s">
         <v>70</v>
       </c>
       <c r="L38" s="2"/>
@@ -9368,7 +9525,7 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="8">
@@ -9391,7 +9548,7 @@
         <f t="shared" si="2"/>
         <v>365054975.93191051</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="40">
         <f t="shared" si="2"/>
         <v>1.0000000002059182</v>
       </c>
@@ -9402,7 +9559,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="3">

--- a/Data/Zones.xlsx
+++ b/Data/Zones.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="371">
   <si>
     <t>WELL</t>
   </si>
@@ -397,9 +397,6 @@
     <t>3838-3855</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>3843-3835</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t>4089-4105 AGUJERO DESCUBIERTO</t>
   </si>
   <si>
-    <t>C - A (BASE)</t>
-  </si>
-  <si>
     <t>3842-3933 AGUJERO DESCUBIERTO</t>
   </si>
   <si>
@@ -1136,6 +1130,9 @@
   </si>
   <si>
     <t>SITIO GRANDE 811</t>
+  </si>
+  <si>
+    <t>C - A</t>
   </si>
 </sst>
 </file>
@@ -1792,7 +1789,7 @@
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2289,22 +2286,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="29" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2349,6 +2331,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3941,13 +3935,13 @@
   <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88:C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="196" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="191" customWidth="1"/>
     <col min="2" max="2" width="20" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="39"/>
     <col min="4" max="4" width="31.77734375" style="39" bestFit="1" customWidth="1"/>
@@ -3961,7 +3955,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="178" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="29" t="s">
@@ -3974,30 +3968,30 @@
         <v>95</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F1" s="101" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G1" s="101" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H1" s="69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I1" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K1" s="70" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="184" t="s">
-        <v>333</v>
+      <c r="A2" s="179" t="s">
+        <v>331</v>
       </c>
       <c r="B2" s="165" t="s">
         <v>98</v>
@@ -4009,7 +4003,7 @@
         <v>96</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F2" s="102">
         <v>27073</v>
@@ -4018,21 +4012,21 @@
         <v>33045</v>
       </c>
       <c r="H2" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I2" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J2" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="K2" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="K2" s="72" t="s">
-        <v>267</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="184" t="s">
-        <v>333</v>
+      <c r="A3" s="179" t="s">
+        <v>331</v>
       </c>
       <c r="B3" s="165" t="s">
         <v>98</v>
@@ -4044,7 +4038,7 @@
         <v>97</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F3" s="102">
         <v>27073</v>
@@ -4053,21 +4047,21 @@
         <v>33045</v>
       </c>
       <c r="H3" s="71" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J3" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K3" s="72" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="184" t="s">
-        <v>333</v>
+      <c r="A4" s="179" t="s">
+        <v>331</v>
       </c>
       <c r="B4" s="165" t="s">
         <v>98</v>
@@ -4079,7 +4073,7 @@
         <v>99</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F4" s="102">
         <v>33922</v>
@@ -4088,21 +4082,21 @@
         <v>37575</v>
       </c>
       <c r="H4" s="71" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J4" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="184" t="s">
-        <v>333</v>
+      <c r="A5" s="179" t="s">
+        <v>331</v>
       </c>
       <c r="B5" s="165" t="s">
         <v>98</v>
@@ -4114,7 +4108,7 @@
         <v>100</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F5" s="102">
         <v>33045</v>
@@ -4123,21 +4117,21 @@
         <v>37575</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J5" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="184" t="s">
-        <v>333</v>
+      <c r="A6" s="179" t="s">
+        <v>331</v>
       </c>
       <c r="B6" s="165" t="s">
         <v>98</v>
@@ -4149,28 +4143,28 @@
         <v>101</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F6" s="102">
         <v>37561</v>
       </c>
       <c r="G6" s="102"/>
       <c r="H6" s="71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I6" s="71" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K6" s="72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="184" t="s">
-        <v>333</v>
+      <c r="A7" s="179" t="s">
+        <v>331</v>
       </c>
       <c r="B7" s="165" t="s">
         <v>98</v>
@@ -4182,28 +4176,28 @@
         <v>102</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F7" s="102">
         <v>37591</v>
       </c>
       <c r="G7" s="102"/>
       <c r="H7" s="71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I7" s="71" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J7" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="185" t="s">
-        <v>334</v>
+      <c r="A8" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="B8" s="167" t="s">
         <v>98</v>
@@ -4215,7 +4209,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="103">
         <v>27089</v>
@@ -4224,21 +4218,21 @@
         <v>35765</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K8" s="74" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="185" t="s">
-        <v>334</v>
+      <c r="A9" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="B9" s="167" t="s">
         <v>98</v>
@@ -4250,7 +4244,7 @@
         <v>105</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F9" s="103">
         <v>35765</v>
@@ -4259,21 +4253,21 @@
         <v>35765</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K9" s="75" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="185" t="s">
-        <v>334</v>
+      <c r="A10" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="B10" s="167" t="s">
         <v>98</v>
@@ -4285,7 +4279,7 @@
         <v>106</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F10" s="103">
         <v>35916</v>
@@ -4294,21 +4288,21 @@
         <v>43221</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J10" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="185" t="s">
-        <v>334</v>
+      <c r="A11" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="B11" s="167" t="s">
         <v>98</v>
@@ -4320,7 +4314,7 @@
         <v>107</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F11" s="103">
         <v>35886</v>
@@ -4329,21 +4323,21 @@
         <v>35927</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K11" s="75" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="185" t="s">
-        <v>334</v>
+      <c r="A12" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="B12" s="167" t="s">
         <v>98</v>
@@ -4355,7 +4349,7 @@
         <v>108</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F12" s="103">
         <v>35886</v>
@@ -4364,21 +4358,21 @@
         <v>35927</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K12" s="74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="185" t="s">
-        <v>334</v>
+      <c r="A13" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="B13" s="167" t="s">
         <v>98</v>
@@ -4390,7 +4384,7 @@
         <v>109</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F13" s="103">
         <v>35916</v>
@@ -4399,21 +4393,21 @@
         <v>35927</v>
       </c>
       <c r="H13" s="73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K13" s="74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="185" t="s">
-        <v>334</v>
+      <c r="A14" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="B14" s="167" t="s">
         <v>98</v>
@@ -4425,26 +4419,26 @@
         <v>110</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F14" s="103"/>
       <c r="G14" s="103"/>
       <c r="H14" s="73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K14" s="74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="185" t="s">
-        <v>334</v>
+      <c r="A15" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="B15" s="167" t="s">
         <v>98</v>
@@ -4456,26 +4450,26 @@
         <v>111</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F15" s="103"/>
       <c r="G15" s="103"/>
       <c r="H15" s="73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I15" s="73" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K15" s="74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B16" s="168" t="s">
         <v>98</v>
@@ -4487,7 +4481,7 @@
         <v>112</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F16" s="104">
         <v>27181</v>
@@ -4496,21 +4490,21 @@
         <v>35735</v>
       </c>
       <c r="H16" s="76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K16" s="77" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B17" s="168" t="s">
         <v>98</v>
@@ -4522,7 +4516,7 @@
         <v>113</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F17" s="104">
         <v>35735</v>
@@ -4531,21 +4525,21 @@
         <v>41548</v>
       </c>
       <c r="H17" s="76" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I17" s="76" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K17" s="76" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B18" s="168" t="s">
         <v>98</v>
@@ -4557,28 +4551,28 @@
         <v>114</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F18" s="104">
         <v>41548</v>
       </c>
       <c r="G18" s="104"/>
       <c r="H18" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K18" s="77" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="184" t="s">
-        <v>336</v>
+      <c r="A19" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B19" s="168" t="s">
         <v>98</v>
@@ -4590,7 +4584,7 @@
         <v>115</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F19" s="105">
         <v>27257</v>
@@ -4599,21 +4593,21 @@
         <v>37967</v>
       </c>
       <c r="H19" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I19" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J19" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K19" s="72" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="184" t="s">
-        <v>336</v>
+      <c r="A20" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B20" s="168" t="s">
         <v>98</v>
@@ -4625,28 +4619,28 @@
         <v>116</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F20" s="105">
         <v>27288</v>
       </c>
       <c r="G20" s="105"/>
       <c r="H20" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J20" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K20" s="72" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="184" t="s">
-        <v>336</v>
+      <c r="A21" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B21" s="168" t="s">
         <v>98</v>
@@ -4658,28 +4652,28 @@
         <v>117</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F21" s="105">
         <v>27318</v>
       </c>
       <c r="G21" s="105"/>
       <c r="H21" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J21" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K21" s="72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="184" t="s">
-        <v>336</v>
+      <c r="A22" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B22" s="168" t="s">
         <v>98</v>
@@ -4691,28 +4685,28 @@
         <v>118</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F22" s="105">
         <v>27349</v>
       </c>
       <c r="G22" s="105"/>
       <c r="H22" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I22" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J22" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K22" s="72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="184" t="s">
-        <v>336</v>
+      <c r="A23" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B23" s="168" t="s">
         <v>98</v>
@@ -4724,28 +4718,28 @@
         <v>119</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F23" s="105">
         <v>27379</v>
       </c>
       <c r="G23" s="105"/>
       <c r="H23" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I23" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J23" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K23" s="72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="184" t="s">
-        <v>336</v>
+      <c r="A24" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B24" s="168" t="s">
         <v>98</v>
@@ -4757,28 +4751,28 @@
         <v>120</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F24" s="105">
         <v>27410</v>
       </c>
       <c r="G24" s="105"/>
       <c r="H24" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I24" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J24" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K24" s="72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="184" t="s">
-        <v>336</v>
+      <c r="A25" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B25" s="168" t="s">
         <v>98</v>
@@ -4790,28 +4784,28 @@
         <v>121</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F25" s="105">
         <v>27441</v>
       </c>
       <c r="G25" s="105"/>
       <c r="H25" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I25" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J25" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K25" s="72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="184" t="s">
-        <v>336</v>
+      <c r="A26" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B26" s="168" t="s">
         <v>98</v>
@@ -4823,28 +4817,28 @@
         <v>122</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F26" s="105">
         <v>27469</v>
       </c>
       <c r="G26" s="105"/>
       <c r="H26" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J26" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K26" s="72" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="184" t="s">
-        <v>336</v>
+      <c r="A27" s="179" t="s">
+        <v>334</v>
       </c>
       <c r="B27" s="168" t="s">
         <v>98</v>
@@ -4857,13 +4851,13 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
       <c r="J27" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K27" s="72"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="185" t="s">
-        <v>337</v>
+      <c r="A28" s="180" t="s">
+        <v>335</v>
       </c>
       <c r="B28" s="168" t="s">
         <v>98</v>
@@ -4875,7 +4869,7 @@
         <v>123</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F28" s="103">
         <v>30864</v>
@@ -4884,21 +4878,21 @@
         <v>35462</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I28" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J28" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K28" s="74" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="185" t="s">
-        <v>337</v>
+      <c r="A29" s="180" t="s">
+        <v>335</v>
       </c>
       <c r="B29" s="168" t="s">
         <v>98</v>
@@ -4910,7 +4904,7 @@
         <v>124</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F29" s="103">
         <v>30895</v>
@@ -4919,85 +4913,83 @@
         <v>37834</v>
       </c>
       <c r="H29" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I29" s="78" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J29" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K29" s="74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="185" t="s">
-        <v>337</v>
+      <c r="A30" s="180" t="s">
+        <v>335</v>
       </c>
       <c r="B30" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="193"/>
+      <c r="D30" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="E30" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F30" s="103">
         <v>30926</v>
       </c>
       <c r="G30" s="103"/>
       <c r="H30" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I30" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K30" s="74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="185" t="s">
-        <v>337</v>
+      <c r="A31" s="180" t="s">
+        <v>335</v>
       </c>
       <c r="B31" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="176"/>
+      <c r="C31" s="195"/>
       <c r="D31" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F31" s="103">
         <v>30956</v>
       </c>
       <c r="G31" s="103"/>
       <c r="H31" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I31" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J31" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K31" s="74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B32" s="168" t="s">
         <v>98</v>
@@ -5006,31 +4998,31 @@
         <v>1</v>
       </c>
       <c r="D32" s="168" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="168" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F32" s="170">
         <v>31382</v>
       </c>
       <c r="G32" s="139"/>
       <c r="H32" s="126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I32" s="126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J32" s="126" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K32" s="151" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B33" s="168" t="s">
         <v>98</v>
@@ -5039,10 +5031,10 @@
         <v>1</v>
       </c>
       <c r="D33" s="168" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E33" s="168" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F33" s="170">
         <v>31382</v>
@@ -5055,7 +5047,7 @@
     </row>
     <row r="34" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B34" s="168" t="s">
         <v>98</v>
@@ -5064,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="168" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E34" s="168" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F34" s="170">
         <v>31382</v>
@@ -5079,55 +5071,55 @@
       <c r="K34" s="151"/>
     </row>
     <row r="35" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="186" t="s">
-        <v>339</v>
+      <c r="A35" s="181" t="s">
+        <v>337</v>
       </c>
       <c r="B35" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="178" t="s">
-        <v>129</v>
+      <c r="C35" s="193" t="s">
+        <v>370</v>
       </c>
       <c r="D35" s="165" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E35" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" s="180">
+        <v>262</v>
+      </c>
+      <c r="F35" s="176">
         <v>26967</v>
       </c>
       <c r="G35" s="142">
         <v>31532</v>
       </c>
       <c r="H35" s="129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I35" s="129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J35" s="129" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K35" s="152" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="187"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="178" t="s">
-        <v>129</v>
+      <c r="C36" s="193" t="s">
+        <v>370</v>
       </c>
       <c r="D36" s="165" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E36" s="165" t="s">
-        <v>264</v>
-      </c>
-      <c r="F36" s="180">
+        <v>262</v>
+      </c>
+      <c r="F36" s="176">
         <v>26967</v>
       </c>
       <c r="G36" s="143"/>
@@ -5137,8 +5129,8 @@
       <c r="K36" s="153"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="188" t="s">
-        <v>340</v>
+      <c r="A37" s="183" t="s">
+        <v>338</v>
       </c>
       <c r="B37" s="168" t="s">
         <v>98</v>
@@ -5147,10 +5139,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F37" s="103">
         <v>30853</v>
@@ -5159,20 +5151,20 @@
         <v>36980</v>
       </c>
       <c r="H37" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I37" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J37" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K37" s="78" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="189"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="168" t="s">
         <v>98</v>
       </c>
@@ -5180,10 +5172,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F38" s="103">
         <v>36980</v>
@@ -5192,21 +5184,21 @@
         <v>37864</v>
       </c>
       <c r="H38" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I38" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J38" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K38" s="78" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="169" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" s="168" t="s">
         <v>98</v>
@@ -5215,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F39" s="106">
         <v>26969</v>
@@ -5227,22 +5219,22 @@
         <v>30011</v>
       </c>
       <c r="H39" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I39" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J39" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K39" s="68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M39" s="150"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="169" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B40" s="168" t="s">
         <v>98</v>
@@ -5251,10 +5243,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F40" s="106">
         <v>26969</v>
@@ -5263,22 +5255,22 @@
         <v>30011</v>
       </c>
       <c r="H40" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I40" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J40" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K40" s="68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="169" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B41" s="168" t="s">
         <v>98</v>
@@ -5287,10 +5279,10 @@
         <v>3</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F41" s="106">
         <v>30348</v>
@@ -5299,22 +5291,22 @@
         <v>37742</v>
       </c>
       <c r="H41" s="76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I41" s="76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J41" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K41" s="68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O41" s="67"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="169" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B42" s="168" t="s">
         <v>98</v>
@@ -5323,10 +5315,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F42" s="106">
         <v>30011</v>
@@ -5335,21 +5327,21 @@
         <v>30348</v>
       </c>
       <c r="H42" s="76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I42" s="76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J42" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K42" s="68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="169" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B43" s="168" t="s">
         <v>98</v>
@@ -5358,10 +5350,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F43" s="106">
         <v>37742</v>
@@ -5370,21 +5362,21 @@
         <v>43282</v>
       </c>
       <c r="H43" s="76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I43" s="76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J43" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K43" s="68" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="184" t="s">
-        <v>342</v>
+      <c r="A44" s="179" t="s">
+        <v>340</v>
       </c>
       <c r="B44" s="168" t="s">
         <v>98</v>
@@ -5393,10 +5385,10 @@
         <v>3</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F44" s="105">
         <v>31156</v>
@@ -5405,21 +5397,21 @@
         <v>34090</v>
       </c>
       <c r="H44" s="71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I44" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J44" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K44" s="79" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="184" t="s">
-        <v>342</v>
+      <c r="A45" s="179" t="s">
+        <v>340</v>
       </c>
       <c r="B45" s="169" t="s">
         <v>98</v>
@@ -5428,10 +5420,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F45" s="105">
         <v>37500</v>
@@ -5440,21 +5432,21 @@
         <v>37500</v>
       </c>
       <c r="H45" s="71" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I45" s="71" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J45" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K45" s="80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="184" t="s">
-        <v>342</v>
+      <c r="A46" s="179" t="s">
+        <v>340</v>
       </c>
       <c r="B46" s="168" t="s">
         <v>98</v>
@@ -5463,10 +5455,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F46" s="105">
         <v>34090</v>
@@ -5475,21 +5467,21 @@
         <v>34366</v>
       </c>
       <c r="H46" s="71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I46" s="71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J46" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K46" s="80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="185" t="s">
-        <v>343</v>
+      <c r="A47" s="180" t="s">
+        <v>341</v>
       </c>
       <c r="B47" s="168" t="s">
         <v>98</v>
@@ -5498,10 +5490,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="166" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E47" s="166" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F47" s="118">
         <v>26937</v>
@@ -5510,21 +5502,21 @@
         <v>34151</v>
       </c>
       <c r="H47" s="144" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I47" s="144" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J47" s="144" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K47" s="154" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="185" t="s">
-        <v>343</v>
+      <c r="A48" s="180" t="s">
+        <v>341</v>
       </c>
       <c r="B48" s="168" t="s">
         <v>98</v>
@@ -5533,10 +5525,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="166" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E48" s="166" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F48" s="118">
         <v>26937</v>
@@ -5549,19 +5541,19 @@
     </row>
     <row r="49" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="169" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B49" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="173" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49" s="168" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E49" s="168" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F49" s="109">
         <v>27364</v>
@@ -5570,33 +5562,33 @@
         <v>31382</v>
       </c>
       <c r="H49" s="126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I49" s="126" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J49" s="126" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K49" s="151" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="169" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B50" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C50" s="173" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D50" s="168" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E50" s="168" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F50" s="109">
         <v>27364</v>
@@ -5608,20 +5600,20 @@
       <c r="K50" s="151"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="184" t="s">
-        <v>345</v>
+      <c r="A51" s="179" t="s">
+        <v>343</v>
       </c>
       <c r="B51" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="173" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F51" s="105">
         <v>27261</v>
@@ -5630,21 +5622,21 @@
         <v>32174</v>
       </c>
       <c r="H51" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I51" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J51" s="71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K51" s="79" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="184" t="s">
-        <v>345</v>
+      <c r="A52" s="179" t="s">
+        <v>343</v>
       </c>
       <c r="B52" s="168" t="s">
         <v>98</v>
@@ -5653,10 +5645,10 @@
         <v>4</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F52" s="105">
         <v>32196</v>
@@ -5665,20 +5657,20 @@
         <v>34304</v>
       </c>
       <c r="H52" s="71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I52" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J52" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K52" s="79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="185" t="s">
+      <c r="A53" s="180" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="168" t="s">
@@ -5688,30 +5680,30 @@
         <v>1</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F53" s="110">
         <v>30875</v>
       </c>
       <c r="G53" s="103"/>
       <c r="H53" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I53" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J53" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K53" s="81" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="185" t="s">
+      <c r="A54" s="180" t="s">
         <v>15</v>
       </c>
       <c r="B54" s="168" t="s">
@@ -5721,10 +5713,10 @@
         <v>2</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F54" s="110">
         <v>30896</v>
@@ -5733,20 +5725,20 @@
         <v>36628</v>
       </c>
       <c r="H54" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I54" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J54" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K54" s="82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="185" t="s">
+      <c r="A55" s="180" t="s">
         <v>15</v>
       </c>
       <c r="B55" s="168" t="s">
@@ -5756,10 +5748,10 @@
         <v>4</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F55" s="110">
         <v>36630</v>
@@ -5768,20 +5760,20 @@
         <v>39417</v>
       </c>
       <c r="H55" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I55" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J55" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K55" s="74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="185" t="s">
+      <c r="A56" s="180" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="168" t="s">
@@ -5794,7 +5786,7 @@
         <v>113</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F56" s="110">
         <v>36630</v>
@@ -5803,20 +5795,20 @@
         <v>39417</v>
       </c>
       <c r="H56" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I56" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J56" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K56" s="74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="185" t="s">
+      <c r="A57" s="180" t="s">
         <v>15</v>
       </c>
       <c r="B57" s="168" t="s">
@@ -5826,10 +5818,10 @@
         <v>4</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F57" s="110">
         <v>37882</v>
@@ -5838,21 +5830,21 @@
         <v>39417</v>
       </c>
       <c r="H57" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I57" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J57" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K57" s="74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="169" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B58" s="168" t="s">
         <v>98</v>
@@ -5861,10 +5853,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F58" s="111">
         <v>1974</v>
@@ -5873,21 +5865,21 @@
         <v>28460</v>
       </c>
       <c r="H58" s="76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I58" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J58" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K58" s="83" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="169" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B59" s="168" t="s">
         <v>98</v>
@@ -5896,10 +5888,10 @@
         <v>4</v>
       </c>
       <c r="D59" s="32" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F59" s="111">
         <v>1977</v>
@@ -5909,18 +5901,18 @@
       </c>
       <c r="H59" s="76"/>
       <c r="I59" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J59" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K59" s="83" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="184" t="s">
-        <v>347</v>
+      <c r="A60" s="179" t="s">
+        <v>345</v>
       </c>
       <c r="B60" s="168" t="s">
         <v>98</v>
@@ -5929,10 +5921,10 @@
         <v>1</v>
       </c>
       <c r="D60" s="34" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F60" s="105">
         <v>38087</v>
@@ -5941,33 +5933,33 @@
         <v>28369</v>
       </c>
       <c r="H60" s="84" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J60" s="84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K60" s="80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="184" t="s">
-        <v>347</v>
+      <c r="A61" s="179" t="s">
+        <v>345</v>
       </c>
       <c r="B61" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="176" t="s">
+      <c r="C61" s="193" t="s">
         <v>4</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F61" s="105">
         <v>27649</v>
@@ -5976,31 +5968,33 @@
         <v>38087</v>
       </c>
       <c r="H61" s="84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I61" s="84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J61" s="84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K61" s="80" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="184" t="s">
-        <v>347</v>
+      <c r="A62" s="179" t="s">
+        <v>345</v>
       </c>
       <c r="B62" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C62" s="176"/>
+      <c r="C62" s="195" t="s">
+        <v>4</v>
+      </c>
       <c r="D62" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F62" s="105">
         <v>26716</v>
@@ -6009,21 +6003,21 @@
         <v>28328</v>
       </c>
       <c r="H62" s="84" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I62" s="84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J62" s="84" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K62" s="80" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="185" t="s">
-        <v>348</v>
+      <c r="A63" s="180" t="s">
+        <v>346</v>
       </c>
       <c r="B63" s="168" t="s">
         <v>98</v>
@@ -6032,10 +6026,10 @@
         <v>2</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E63" s="33" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F63" s="110">
         <v>26347</v>
@@ -6044,21 +6038,21 @@
         <v>37561</v>
       </c>
       <c r="H63" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I63" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J63" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K63" s="74" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="185" t="s">
-        <v>348</v>
+      <c r="A64" s="180" t="s">
+        <v>346</v>
       </c>
       <c r="B64" s="168" t="s">
         <v>98</v>
@@ -6067,10 +6061,10 @@
         <v>2</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E64" s="33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F64" s="110">
         <v>26406</v>
@@ -6079,21 +6073,21 @@
         <v>37561</v>
       </c>
       <c r="H64" s="78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I64" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J64" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K64" s="74" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="185" t="s">
-        <v>348</v>
+      <c r="A65" s="180" t="s">
+        <v>346</v>
       </c>
       <c r="B65" s="168" t="s">
         <v>98</v>
@@ -6102,10 +6096,10 @@
         <v>1</v>
       </c>
       <c r="D65" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E65" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F65" s="110">
         <v>26347</v>
@@ -6114,21 +6108,21 @@
         <v>26385</v>
       </c>
       <c r="H65" s="78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I65" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J65" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K65" s="74" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="169" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B66" s="168" t="s">
         <v>98</v>
@@ -6137,10 +6131,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F66" s="111">
         <v>26875</v>
@@ -6152,12 +6146,12 @@
       <c r="I66" s="76"/>
       <c r="J66" s="76"/>
       <c r="K66" s="85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="169" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B67" s="168" t="s">
         <v>98</v>
@@ -6166,10 +6160,10 @@
         <v>4</v>
       </c>
       <c r="D67" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F67" s="119">
         <v>30194</v>
@@ -6181,12 +6175,12 @@
       <c r="I67" s="76"/>
       <c r="J67" s="76"/>
       <c r="K67" s="85" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="184" t="s">
-        <v>350</v>
+      <c r="A68" s="179" t="s">
+        <v>348</v>
       </c>
       <c r="B68" s="168" t="s">
         <v>98</v>
@@ -6195,10 +6189,10 @@
         <v>3</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F68" s="105">
         <v>26861</v>
@@ -6207,21 +6201,21 @@
         <v>27242</v>
       </c>
       <c r="H68" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I68" s="71" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J68" s="71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K68" s="79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="184" t="s">
-        <v>350</v>
+      <c r="A69" s="179" t="s">
+        <v>348</v>
       </c>
       <c r="B69" s="168" t="s">
         <v>98</v>
@@ -6230,10 +6224,10 @@
         <v>2</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F69" s="105">
         <v>27242</v>
@@ -6242,33 +6236,33 @@
         <v>28156</v>
       </c>
       <c r="H69" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I69" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J69" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K69" s="79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="185" t="s">
-        <v>351</v>
+      <c r="A70" s="180" t="s">
+        <v>349</v>
       </c>
       <c r="B70" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="177" t="s">
+      <c r="C70" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F70" s="110">
         <v>28548</v>
@@ -6277,33 +6271,33 @@
         <v>34829</v>
       </c>
       <c r="H70" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="I70" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="J70" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="K70" s="86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="180" t="s">
+        <v>349</v>
+      </c>
+      <c r="B71" s="168" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="173" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="33" t="s">
         <v>207</v>
-      </c>
-      <c r="I70" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="J70" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="K70" s="86" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="185" t="s">
-        <v>351</v>
-      </c>
-      <c r="B71" s="168" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="177" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>209</v>
       </c>
       <c r="F71" s="110">
         <v>26785</v>
@@ -6312,33 +6306,33 @@
         <v>28548</v>
       </c>
       <c r="H71" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I71" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J71" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K71" s="86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="185" t="s">
-        <v>351</v>
+      <c r="A72" s="180" t="s">
+        <v>349</v>
       </c>
       <c r="B72" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="177" t="s">
+      <c r="C72" s="173" t="s">
         <v>3</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F72" s="110">
         <v>26688</v>
@@ -6347,21 +6341,21 @@
         <v>26785</v>
       </c>
       <c r="H72" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I72" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J72" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K72" s="86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="185" t="s">
-        <v>351</v>
+      <c r="A73" s="180" t="s">
+        <v>349</v>
       </c>
       <c r="B73" s="168" t="s">
         <v>98</v>
@@ -6370,10 +6364,10 @@
         <v>4</v>
       </c>
       <c r="D73" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F73" s="110">
         <v>26688</v>
@@ -6382,21 +6376,21 @@
         <v>26785</v>
       </c>
       <c r="H73" s="78" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I73" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J73" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K73" s="86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="190" t="s">
-        <v>352</v>
+      <c r="A74" s="185" t="s">
+        <v>350</v>
       </c>
       <c r="B74" s="168" t="s">
         <v>98</v>
@@ -6405,10 +6399,10 @@
         <v>4</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F74" s="111">
         <v>26846</v>
@@ -6417,21 +6411,21 @@
         <v>26908</v>
       </c>
       <c r="H74" s="76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I74" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J74" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K74" s="87" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="191" t="s">
-        <v>353</v>
+      <c r="A75" s="186" t="s">
+        <v>351</v>
       </c>
       <c r="B75" s="168" t="s">
         <v>98</v>
@@ -6440,10 +6434,10 @@
         <v>1</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F75" s="105">
         <v>27098</v>
@@ -6452,21 +6446,21 @@
         <v>27334</v>
       </c>
       <c r="H75" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I75" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J75" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K75" s="79" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="182" t="s">
-        <v>354</v>
+      <c r="A76" s="177" t="s">
+        <v>352</v>
       </c>
       <c r="B76" s="168" t="s">
         <v>98</v>
@@ -6475,31 +6469,31 @@
         <v>1</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F76" s="114">
         <v>29434</v>
       </c>
       <c r="G76" s="114"/>
       <c r="H76" s="88" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I76" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J76" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K76" s="89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="182" t="s">
-        <v>354</v>
+      <c r="A77" s="177" t="s">
+        <v>352</v>
       </c>
       <c r="B77" s="168" t="s">
         <v>98</v>
@@ -6508,31 +6502,31 @@
         <v>1</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E77" s="49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F77" s="114">
         <v>29434</v>
       </c>
       <c r="G77" s="114"/>
       <c r="H77" s="88" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I77" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J77" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K77" s="89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="182" t="s">
-        <v>354</v>
+      <c r="A78" s="177" t="s">
+        <v>352</v>
       </c>
       <c r="B78" s="168" t="s">
         <v>98</v>
@@ -6541,31 +6535,31 @@
         <v>1</v>
       </c>
       <c r="D78" s="49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F78" s="114">
         <v>29434</v>
       </c>
       <c r="G78" s="114"/>
       <c r="H78" s="88" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I78" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J78" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K78" s="90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="192" t="s">
-        <v>355</v>
+      <c r="A79" s="187" t="s">
+        <v>353</v>
       </c>
       <c r="B79" s="168" t="s">
         <v>98</v>
@@ -6574,10 +6568,10 @@
         <v>2</v>
       </c>
       <c r="D79" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E79" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F79" s="120">
         <v>30133</v>
@@ -6586,21 +6580,21 @@
         <v>30286</v>
       </c>
       <c r="H79" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I79" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J79" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K79" s="86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="193" t="s">
-        <v>356</v>
+      <c r="A80" s="188" t="s">
+        <v>354</v>
       </c>
       <c r="B80" s="168" t="s">
         <v>98</v>
@@ -6609,10 +6603,10 @@
         <v>4</v>
       </c>
       <c r="D80" s="32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F80" s="111">
         <v>27303</v>
@@ -6621,21 +6615,21 @@
         <v>27881</v>
       </c>
       <c r="H80" s="76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I80" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J80" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K80" s="91" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="185" t="s">
-        <v>357</v>
+      <c r="A81" s="180" t="s">
+        <v>355</v>
       </c>
       <c r="B81" s="168" t="s">
         <v>98</v>
@@ -6644,10 +6638,10 @@
         <v>1</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F81" s="103">
         <v>27794</v>
@@ -6656,21 +6650,21 @@
         <v>28946</v>
       </c>
       <c r="H81" s="78" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I81" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J81" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K81" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="185" t="s">
-        <v>357</v>
+      <c r="A82" s="180" t="s">
+        <v>355</v>
       </c>
       <c r="B82" s="168" t="s">
         <v>98</v>
@@ -6679,10 +6673,10 @@
         <v>1</v>
       </c>
       <c r="D82" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E82" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F82" s="103">
         <v>28946</v>
@@ -6691,21 +6685,21 @@
         <v>28946</v>
       </c>
       <c r="H82" s="78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I82" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J82" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K82" s="86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="185" t="s">
-        <v>357</v>
+      <c r="A83" s="180" t="s">
+        <v>355</v>
       </c>
       <c r="B83" s="168" t="s">
         <v>98</v>
@@ -6714,10 +6708,10 @@
         <v>1</v>
       </c>
       <c r="D83" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E83" s="33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F83" s="103">
         <v>30590</v>
@@ -6726,21 +6720,21 @@
         <v>30560</v>
       </c>
       <c r="H83" s="78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I83" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J83" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K83" s="86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="169" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B84" s="168" t="s">
         <v>98</v>
@@ -6749,10 +6743,10 @@
         <v>2</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F84" s="111">
         <v>27048</v>
@@ -6761,21 +6755,21 @@
         <v>28430</v>
       </c>
       <c r="H84" s="76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I84" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J84" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K84" s="91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="169" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B85" s="168" t="s">
         <v>98</v>
@@ -6784,10 +6778,10 @@
         <v>4</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F85" s="111">
         <v>28453</v>
@@ -6796,21 +6790,21 @@
         <v>31685</v>
       </c>
       <c r="H85" s="76" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I85" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J85" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K85" s="91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="184" t="s">
-        <v>359</v>
+      <c r="A86" s="179" t="s">
+        <v>357</v>
       </c>
       <c r="B86" s="168" t="s">
         <v>98</v>
@@ -6819,10 +6813,10 @@
         <v>3</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F86" s="105">
         <v>27210</v>
@@ -6831,21 +6825,21 @@
         <v>29221</v>
       </c>
       <c r="H86" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I86" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J86" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K86" s="92" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="184" t="s">
-        <v>359</v>
+      <c r="A87" s="179" t="s">
+        <v>357</v>
       </c>
       <c r="B87" s="168" t="s">
         <v>98</v>
@@ -6854,10 +6848,10 @@
         <v>4</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F87" s="105">
         <v>27210</v>
@@ -6866,33 +6860,33 @@
         <v>29221</v>
       </c>
       <c r="H87" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I87" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J87" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K87" s="92" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="185" t="s">
-        <v>360</v>
+      <c r="A88" s="180" t="s">
+        <v>358</v>
       </c>
       <c r="B88" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="176" t="s">
+      <c r="C88" s="193" t="s">
         <v>1</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F88" s="103">
         <v>27242</v>
@@ -6901,31 +6895,33 @@
         <v>27768</v>
       </c>
       <c r="H88" s="78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I88" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J88" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K88" s="86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="185" t="s">
-        <v>360</v>
+      <c r="A89" s="180" t="s">
+        <v>358</v>
       </c>
       <c r="B89" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C89" s="176"/>
+      <c r="C89" s="195" t="s">
+        <v>1</v>
+      </c>
       <c r="D89" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F89" s="103">
         <v>27768</v>
@@ -6934,21 +6930,21 @@
         <v>38718</v>
       </c>
       <c r="H89" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I89" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J89" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K89" s="86" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="169" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B90" s="168" t="s">
         <v>98</v>
@@ -6957,10 +6953,10 @@
         <v>2</v>
       </c>
       <c r="D90" s="35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F90" s="111">
         <v>27169</v>
@@ -6969,33 +6965,33 @@
         <v>28579</v>
       </c>
       <c r="H90" s="93" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I90" s="93" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J90" s="93" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K90" s="83" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="184" t="s">
-        <v>362</v>
+      <c r="A91" s="179" t="s">
+        <v>360</v>
       </c>
       <c r="B91" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="178" t="s">
+      <c r="C91" s="193" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F91" s="105">
         <v>27388</v>
@@ -7004,33 +7000,33 @@
         <v>2002</v>
       </c>
       <c r="H91" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I91" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J91" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K91" s="92" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="184" t="s">
-        <v>362</v>
+      <c r="A92" s="179" t="s">
+        <v>360</v>
       </c>
       <c r="B92" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="181" t="s">
+      <c r="C92" s="194" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F92" s="105">
         <v>27139</v>
@@ -7039,33 +7035,33 @@
         <v>2002</v>
       </c>
       <c r="H92" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I92" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J92" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K92" s="92" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="184" t="s">
-        <v>362</v>
+      <c r="A93" s="179" t="s">
+        <v>360</v>
       </c>
       <c r="B93" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="179" t="s">
+      <c r="C93" s="195" t="s">
         <v>4</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F93" s="105">
         <v>27234</v>
@@ -7074,21 +7070,21 @@
         <v>2002</v>
       </c>
       <c r="H93" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I93" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J93" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K93" s="92" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="185" t="s">
-        <v>363</v>
+      <c r="A94" s="180" t="s">
+        <v>361</v>
       </c>
       <c r="B94" s="168" t="s">
         <v>98</v>
@@ -7097,10 +7093,10 @@
         <v>4</v>
       </c>
       <c r="D94" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E94" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F94" s="103">
         <v>33632</v>
@@ -7109,21 +7105,21 @@
         <v>2002</v>
       </c>
       <c r="H94" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I94" s="78" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J94" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K94" s="94" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="185" t="s">
-        <v>363</v>
+      <c r="A95" s="180" t="s">
+        <v>361</v>
       </c>
       <c r="B95" s="168" t="s">
         <v>98</v>
@@ -7132,10 +7128,10 @@
         <v>4</v>
       </c>
       <c r="D95" s="33" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E95" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F95" s="103">
         <v>37469</v>
@@ -7144,21 +7140,21 @@
         <v>37469</v>
       </c>
       <c r="H95" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I95" s="78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J95" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K95" s="94" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="185" t="s">
-        <v>363</v>
+      <c r="A96" s="180" t="s">
+        <v>361</v>
       </c>
       <c r="B96" s="168" t="s">
         <v>98</v>
@@ -7167,10 +7163,10 @@
         <v>3</v>
       </c>
       <c r="D96" s="33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E96" s="33" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F96" s="103">
         <v>33055</v>
@@ -7179,21 +7175,21 @@
         <v>33604</v>
       </c>
       <c r="H96" s="78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I96" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J96" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K96" s="94" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="185" t="s">
-        <v>363</v>
+      <c r="A97" s="180" t="s">
+        <v>361</v>
       </c>
       <c r="B97" s="168" t="s">
         <v>98</v>
@@ -7202,10 +7198,10 @@
         <v>1</v>
       </c>
       <c r="D97" s="33" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E97" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F97" s="103">
         <v>30803</v>
@@ -7214,21 +7210,21 @@
         <v>33055</v>
       </c>
       <c r="H97" s="78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I97" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J97" s="78" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K97" s="94" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="169" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B98" s="168" t="s">
         <v>98</v>
@@ -7237,10 +7233,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F98" s="111">
         <v>30965</v>
@@ -7249,21 +7245,21 @@
         <v>36336</v>
       </c>
       <c r="H98" s="76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I98" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J98" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K98" s="85" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="169" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B99" s="168" t="s">
         <v>98</v>
@@ -7272,10 +7268,10 @@
         <v>4</v>
       </c>
       <c r="D99" s="32" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F99" s="111">
         <v>36336</v>
@@ -7284,21 +7280,21 @@
         <v>37986</v>
       </c>
       <c r="H99" s="76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I99" s="76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J99" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K99" s="85" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="184" t="s">
-        <v>365</v>
+      <c r="A100" s="179" t="s">
+        <v>363</v>
       </c>
       <c r="B100" s="168" t="s">
         <v>98</v>
@@ -7310,7 +7306,7 @@
         <v>113</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F100" s="105">
         <v>31589</v>
@@ -7319,21 +7315,21 @@
         <v>39872</v>
       </c>
       <c r="H100" s="71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I100" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J100" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K100" s="79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="184" t="s">
-        <v>365</v>
+      <c r="A101" s="179" t="s">
+        <v>363</v>
       </c>
       <c r="B101" s="168" t="s">
         <v>98</v>
@@ -7342,10 +7338,10 @@
         <v>4</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F101" s="105">
         <v>31024</v>
@@ -7354,21 +7350,21 @@
         <v>31589</v>
       </c>
       <c r="H101" s="71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I101" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J101" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K101" s="79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="184" t="s">
-        <v>365</v>
+      <c r="A102" s="179" t="s">
+        <v>363</v>
       </c>
       <c r="B102" s="168" t="s">
         <v>98</v>
@@ -7377,10 +7373,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F102" s="105">
         <v>31589</v>
@@ -7389,33 +7385,33 @@
         <v>31589</v>
       </c>
       <c r="H102" s="71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I102" s="71" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J102" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K102" s="79" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="194" t="s">
-        <v>366</v>
+      <c r="A103" s="189" t="s">
+        <v>364</v>
       </c>
       <c r="B103" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C103" s="173" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E103" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F103" s="103">
         <v>31563</v>
@@ -7424,21 +7420,21 @@
         <v>38199</v>
       </c>
       <c r="H103" s="78" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I103" s="78" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J103" s="78" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K103" s="86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="169" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B104" s="168" t="s">
         <v>98</v>
@@ -7447,10 +7443,10 @@
         <v>4</v>
       </c>
       <c r="D104" s="32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F104" s="111">
         <v>29190</v>
@@ -7459,21 +7455,21 @@
         <v>2003</v>
       </c>
       <c r="H104" s="76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I104" s="76" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J104" s="71" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K104" s="77" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="169" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B105" s="168" t="s">
         <v>98</v>
@@ -7482,10 +7478,10 @@
         <v>1</v>
       </c>
       <c r="D105" s="32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F105" s="111">
         <v>30585</v>
@@ -7494,21 +7490,21 @@
         <v>2003</v>
       </c>
       <c r="H105" s="76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I105" s="76" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J105" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K105" s="77" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="169" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B106" s="168" t="s">
         <v>98</v>
@@ -7517,29 +7513,29 @@
         <v>2</v>
       </c>
       <c r="D106" s="32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F106" s="119"/>
       <c r="G106" s="112"/>
       <c r="H106" s="76" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I106" s="76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J106" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K106" s="77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="169" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B107" s="168" t="s">
         <v>98</v>
@@ -7548,29 +7544,29 @@
         <v>3</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F107" s="119"/>
       <c r="G107" s="112"/>
       <c r="H107" s="76" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I107" s="76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J107" s="76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K107" s="77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="182" t="s">
-        <v>368</v>
+      <c r="A108" s="177" t="s">
+        <v>366</v>
       </c>
       <c r="B108" s="168" t="s">
         <v>98</v>
@@ -7579,10 +7575,10 @@
         <v>4</v>
       </c>
       <c r="D108" s="49" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E108" s="49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F108" s="114">
         <v>27211</v>
@@ -7591,21 +7587,21 @@
         <v>28369</v>
       </c>
       <c r="H108" s="88" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I108" s="88" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J108" s="88" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K108" s="89" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="182" t="s">
-        <v>368</v>
+      <c r="A109" s="177" t="s">
+        <v>366</v>
       </c>
       <c r="B109" s="168" t="s">
         <v>98</v>
@@ -7614,74 +7610,74 @@
         <v>3</v>
       </c>
       <c r="D109" s="49" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E109" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F109" s="114">
         <v>28369</v>
       </c>
       <c r="G109" s="114"/>
       <c r="H109" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I109" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J109" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K109" s="89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="182" t="s">
-        <v>369</v>
+      <c r="A110" s="177" t="s">
+        <v>367</v>
       </c>
       <c r="B110" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C110" s="173" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E110" s="50" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F110" s="115">
         <v>29677</v>
       </c>
       <c r="G110" s="115"/>
       <c r="H110" s="95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I110" s="95" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J110" s="95" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K110" s="96" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="195" t="s">
-        <v>370</v>
+      <c r="A111" s="190" t="s">
+        <v>368</v>
       </c>
       <c r="B111" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="23"/>
+      <c r="C111" s="192"/>
       <c r="D111" s="49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E111" s="49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F111" s="114">
         <v>27364</v>
@@ -7690,31 +7686,31 @@
         <v>28065</v>
       </c>
       <c r="H111" s="88" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I111" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J111" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K111" s="89" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="195" t="s">
-        <v>370</v>
+      <c r="A112" s="190" t="s">
+        <v>368</v>
       </c>
       <c r="B112" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C112" s="173"/>
       <c r="D112" s="49" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E112" s="49" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F112" s="114">
         <v>27364</v>
@@ -7723,123 +7719,120 @@
         <v>28369</v>
       </c>
       <c r="H112" s="88" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I112" s="88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J112" s="88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K112" s="97" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="195" t="s">
-        <v>370</v>
+      <c r="A113" s="190" t="s">
+        <v>368</v>
       </c>
       <c r="B113" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C113" s="173"/>
       <c r="D113" s="49" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F113" s="114">
         <v>28369</v>
       </c>
       <c r="G113" s="114"/>
       <c r="H113" s="98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I113" s="98" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J113" s="98" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K113" s="97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="182" t="s">
-        <v>371</v>
+      <c r="A114" s="177" t="s">
+        <v>369</v>
       </c>
       <c r="B114" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C114" s="173"/>
       <c r="D114" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" s="51" t="s">
         <v>313</v>
-      </c>
-      <c r="E114" s="51" t="s">
-        <v>315</v>
       </c>
       <c r="F114" s="116">
         <v>39479</v>
       </c>
       <c r="G114" s="116"/>
       <c r="H114" s="97" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I114" s="97" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J114" s="97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K114" s="97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="182" t="s">
-        <v>371</v>
+      <c r="A115" s="177" t="s">
+        <v>369</v>
       </c>
       <c r="B115" s="168" t="s">
         <v>98</v>
       </c>
       <c r="C115" s="173"/>
       <c r="D115" s="49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E115" s="51" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F115" s="116">
         <v>39479</v>
       </c>
       <c r="G115" s="116"/>
       <c r="H115" s="97" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I115" s="97" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J115" s="97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K115" s="97" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K116"/>
-  <mergeCells count="25">
+  <mergeCells count="22">
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="K49:K50"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="J47:J48"/>
-    <mergeCell ref="C61:C62"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="H32:H34"/>
@@ -7884,19 +7877,19 @@
         <v>92</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C1" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="E1" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>326</v>
-      </c>
       <c r="F1" s="54" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -7945,10 +7938,10 @@
         <v>114</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7991,10 +7984,10 @@
       <c r="A7" s="132"/>
       <c r="B7" s="132"/>
       <c r="C7" s="156" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="159">
         <v>44531</v>
@@ -8008,7 +8001,7 @@
       <c r="B8" s="133"/>
       <c r="C8" s="157"/>
       <c r="D8" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E8" s="160"/>
       <c r="F8" s="133"/>
@@ -8024,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9" s="158">
         <v>44531</v>
@@ -8060,7 +8053,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="131" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E12" s="161">
         <v>34151</v>
@@ -8085,10 +8078,10 @@
         <v>98</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" s="55">
         <v>32174</v>
@@ -8104,7 +8097,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E15" s="55">
         <v>33970</v>
@@ -8124,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E16" s="52">
         <v>30011</v>
@@ -8140,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E17" s="52">
         <v>30011</v>
@@ -8154,7 +8147,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E18" s="52">
         <v>37742</v>
@@ -8168,7 +8161,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E19" s="52">
         <v>30348</v>
@@ -8184,7 +8177,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E20" s="52">
         <v>43282</v>
@@ -8224,7 +8217,7 @@
         <v>35765</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -8256,7 +8249,7 @@
         <v>35927</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -8272,7 +8265,7 @@
         <v>35927</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -8288,7 +8281,7 @@
         <v>35927</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8299,10 +8292,10 @@
         <v>110</v>
       </c>
       <c r="E27" s="56" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -8315,10 +8308,10 @@
         <v>111</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
